--- a/Result/check2.xlsx
+++ b/Result/check2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC23"/>
+  <dimension ref="A1:AE23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,80 +501,90 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>recommend</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>recommend2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>量增</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>now_price</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>change_quote</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
@@ -643,85 +653,95 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2025-01-14 00:00:00</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推探底有撐ShowTime</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>58.6</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>5.97</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>北基</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>油電燃氣業</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>3.41</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>15.63</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>7.95</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>40.98</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>29.34</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>21642</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>無鉛汽油52.63%、高級柴油20.42%、無鉛汽油10.87%、無鉛汽油5.77%、其他5.26%、洗車1.53%、儲能產品1.26%、客房及餐飲0.99%、電動巴士0.66%、副油品0.54%、車輛檢查0.08% (2023年)</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>北基-油電燃氣業-上櫃</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>290355.0</t>
         </is>
@@ -795,80 +815,90 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>7.52</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>7.43</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>尚茂</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>1.93</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>59.87</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>487</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>銅箔基板(CCL)93.71%、黏合膠片6.29% (2023年)</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>尚茂-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>247.0</t>
         </is>
@@ -937,85 +967,95 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2025-01-07 00:00:00</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>22.0</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>4.76</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>保銳</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>5.79</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>0.89</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>59.87</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>1341</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>電源供應器48.86%、其他44.45%、電腦機殼6.69% (2023年)</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>保銳-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>8537.0</t>
         </is>
@@ -1089,80 +1129,90 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推探底有撐</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>17.75</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>6.93</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>志旭</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>電子通路業</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>8.22</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>58.75</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>367</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>美妝產品84.98%、儲存媒體12.08%、多媒體2.84%、家電生活週邊0.10% (2023年)</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>志旭-電子通路業-上櫃</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>118.0</t>
         </is>
@@ -1236,80 +1286,90 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>130.0</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>0.78</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>科定</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>6.92</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>29.37</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>8.73</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>27.66</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AA6" t="inlineStr">
         <is>
           <t>37.55</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>10684</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>塗裝木皮板50.47%、環保批批板43.63%、科定系統櫃2.33%、KD木地板2.12%、其他1.44% (2023年)</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>科定-其他-上市</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>552127.0</t>
         </is>
@@ -1378,85 +1438,95 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2024-12-26 00:00:00</t>
+          <t>2024-12-26</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推探底有撐</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>163.0</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>1.56</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>醫揚</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>生技醫療業</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>3.99</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>38.25</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>7.35</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34.53</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>99.19</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>6295</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>醫療用電腦及其配件98.54%、其他1.46% (2023年)</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>醫揚-生技醫療業-上櫃</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>15972.0</t>
         </is>
@@ -1525,85 +1595,95 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2025-01-22 00:00:00</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推探底有撐</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>78.0</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>良維</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>3.81</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>39.19</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>13.57</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>17.22</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AA8" t="inlineStr">
         <is>
           <t>59.87</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>12382</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>電源傳輸線組82.40%、訊號傳輸線組8.82%、電源, 訊號傳輸及車用線材6.68%、充電器轉接頭與一體式充電器2.07%、其他0.03% (2023年)</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>良維-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>315954.0</t>
         </is>
@@ -1672,85 +1752,95 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2025-01-13 00:00:00</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>56.8</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>5.58</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>雷科</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>2.64</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>24.11</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>3.68</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>28.4</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AA9" t="inlineStr">
         <is>
           <t>59.87</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>4526</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>SMT與雷射設備60.68%、捲裝材料38.32%、其他1.00% (2023年)</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>雷科-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>75308.0</t>
         </is>
@@ -1824,80 +1914,90 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>66.9</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>3.4</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>精成科</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>4.93</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>46.46</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>12.43</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>10.37</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AA10" t="inlineStr">
         <is>
           <t>31.19</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>31731</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>印刷電路板(PCB)70.10%、EMS29.90% (2023年)</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>精成科-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>1433803704.0</t>
         </is>
@@ -1971,80 +2071,90 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>34.9</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>1.75</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>萬泰科</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>3.33</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>18.47</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>13.76</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>16.78</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AA11" t="inlineStr">
         <is>
           <t>112.76</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>5712</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>網路線34.42%、電子線26.19%、其他18.13%、汽車及機車線10.28%、灌溉線6.89%、電腦線及高溫線2.27%、電源線1.82% (2023年)</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>萬泰科-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>75426.0</t>
         </is>
@@ -2113,85 +2223,95 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2024-12-31 00:00:00</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>3.52</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>亞翔</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>3.59</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>57.00</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>70.44</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>14.09</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AA12" t="inlineStr">
         <is>
           <t>34.56</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>58251</t>
         </is>
       </c>
-      <c r="AA12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>其他72.12%、無塵室工程20.22%、機電工程4.32%、製程管路工程3.35% (2023年)</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>亞翔-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>3839446142.0</t>
         </is>
@@ -2260,85 +2380,95 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2025-01-22 00:00:00</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>33.0</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>2.48</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>事欣科</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>1.21</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>19.95</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>8.96</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="AA13" t="inlineStr">
         <is>
           <t>68.69</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>3246</t>
         </is>
       </c>
-      <c r="AA13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>航太及國防工業75.60%、博奕及工業電腦24.40% (2023年)</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>事欣科-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>183473960.0</t>
         </is>
@@ -2407,85 +2537,95 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2025-01-22 00:00:00</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大探底有撐ShowTime</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>66.7</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>7.58</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>華廣</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>生技醫療業</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>30.16</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="AA14" t="inlineStr">
         <is>
           <t>32.55</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>4071</t>
         </is>
       </c>
-      <c r="AA14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>血糖檢測試片69.75%、其他18.19%、血糖檢測儀套件12.06% (2023年)</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>華廣-生技醫療業-上市</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>35769724.0</t>
         </is>
@@ -2554,85 +2694,95 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2025-01-15 00:00:00</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>34.55</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>6.31</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>聿新科</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>生技醫療業</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>2.03</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>16.42</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
         <is>
           <t>3.97</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="Z15" t="inlineStr">
         <is>
           <t>18.38</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="AA15" t="inlineStr">
         <is>
           <t>99.19</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
+      <c r="AB15" t="inlineStr">
         <is>
           <t>1829</t>
         </is>
       </c>
-      <c r="AA15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>居家醫療檢測試紙59.22%、生醫保養品及代工32.79%、居家醫療檢測儀器7.88%、其他0.11% (2023年)</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>聿新科-生技醫療業-上櫃</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>20778.0</t>
         </is>
@@ -2706,80 +2856,90 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>45.5</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>6.06</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>三一東林</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>6.67</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
         <is>
           <t>3.79</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="Z16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="AA16" t="inlineStr">
         <is>
           <t>59.87</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
+      <c r="AB16" t="inlineStr">
         <is>
           <t>1605</t>
         </is>
       </c>
-      <c r="AA16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>LED Driver45.01%、成車43.58%、其他11.40% (2023年)</t>
         </is>
       </c>
-      <c r="AB16" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>三一東林-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>57008.0</t>
         </is>
@@ -2853,80 +3013,90 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>23.35</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>3.32</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>亞帝歐</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="W17" t="inlineStr">
         <is>
           <t>0.86</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="X17" t="inlineStr">
         <is>
           <t>25.67</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
+      <c r="Y17" t="inlineStr">
         <is>
           <t>4.97</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr">
+      <c r="Z17" t="inlineStr">
         <is>
           <t>97.29</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="AA17" t="inlineStr">
         <is>
           <t>96.61</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
+      <c r="AB17" t="inlineStr">
         <is>
           <t>1391</t>
         </is>
       </c>
-      <c r="AA17" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>照明燈具49.65%、連接線48.51%、塑膠射出1.25%、能源電力0.60% (2023年)</t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr">
+      <c r="AD17" t="inlineStr">
         <is>
           <t>亞帝歐-光電業-上櫃</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
+      <c r="AE17" t="inlineStr">
         <is>
           <t>1220.0</t>
         </is>
@@ -2995,85 +3165,95 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2025-01-22 00:00:00</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
+          <t>--ShowTime</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>22.65</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>5.84</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>杭特</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>15.78</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
+      <c r="Y18" t="inlineStr">
         <is>
           <t>1.23</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="Z18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
+      <c r="AA18" t="inlineStr">
         <is>
           <t>96.61</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
+      <c r="AB18" t="inlineStr">
         <is>
           <t>817</t>
         </is>
       </c>
-      <c r="AA18" t="inlineStr">
+      <c r="AC18" t="inlineStr">
         <is>
           <t>網路攝影機100.00% (2023年)</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
+      <c r="AD18" t="inlineStr">
         <is>
           <t>杭特-光電業-上櫃</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
+      <c r="AE18" t="inlineStr">
         <is>
           <t>15143.0</t>
         </is>
@@ -3142,85 +3322,95 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2025-01-08 00:00:00</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>35.8</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>3.32</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>太普高</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="U19" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="V19" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="W19" t="inlineStr">
         <is>
           <t>1.68</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr">
+      <c r="X19" t="inlineStr">
         <is>
           <t>13.66</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr">
+      <c r="Y19" t="inlineStr">
         <is>
           <t>4.02</t>
         </is>
       </c>
-      <c r="X19" t="inlineStr">
+      <c r="Z19" t="inlineStr">
         <is>
           <t>13.11</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr">
+      <c r="AA19" t="inlineStr">
         <is>
           <t>183.9</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
+      <c r="AB19" t="inlineStr">
         <is>
           <t>3308</t>
         </is>
       </c>
-      <c r="AA19" t="inlineStr">
+      <c r="AC19" t="inlineStr">
         <is>
           <t>印刷版材67.70%、不動產代銷21.57%、其他10.73% (2023年)</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
+      <c r="AD19" t="inlineStr">
         <is>
           <t>太普高-其他-上櫃</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
+      <c r="AE19" t="inlineStr">
         <is>
           <t>12153.0</t>
         </is>
@@ -3289,85 +3479,95 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2024-12-19 00:00:00</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>68.9</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>9.37</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>欣銓</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="U20" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="V20" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="W20" t="inlineStr">
         <is>
           <t>4.79</t>
         </is>
       </c>
-      <c r="V20" t="inlineStr">
+      <c r="X20" t="inlineStr">
         <is>
           <t>37.80</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr">
+      <c r="Y20" t="inlineStr">
         <is>
           <t>7.11</t>
         </is>
       </c>
-      <c r="X20" t="inlineStr">
+      <c r="Z20" t="inlineStr">
         <is>
           <t>14.95</t>
         </is>
       </c>
-      <c r="Y20" t="inlineStr">
+      <c r="AA20" t="inlineStr">
         <is>
           <t>90.71</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
+      <c r="AB20" t="inlineStr">
         <is>
           <t>33773</t>
         </is>
       </c>
-      <c r="AA20" t="inlineStr">
+      <c r="AC20" t="inlineStr">
         <is>
           <t>晶圓測試73.30%、成品測試26.27%、其他0.43% (2023年)</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
+      <c r="AD20" t="inlineStr">
         <is>
           <t>欣銓-半導體業-上櫃</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
+      <c r="AE20" t="inlineStr">
         <is>
           <t>2515998.0</t>
         </is>
@@ -3436,85 +3636,95 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2024-12-16 00:00:00</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>119.5</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>3.02</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>神基</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="U21" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="V21" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="W21" t="inlineStr">
         <is>
           <t>4.18</t>
         </is>
       </c>
-      <c r="V21" t="inlineStr">
+      <c r="X21" t="inlineStr">
         <is>
           <t>36.80</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
+      <c r="Y21" t="inlineStr">
         <is>
           <t>14.85</t>
         </is>
       </c>
-      <c r="X21" t="inlineStr">
+      <c r="Z21" t="inlineStr">
         <is>
           <t>17.29</t>
         </is>
       </c>
-      <c r="Y21" t="inlineStr">
+      <c r="AA21" t="inlineStr">
         <is>
           <t>68.69</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
+      <c r="AB21" t="inlineStr">
         <is>
           <t>73517</t>
         </is>
       </c>
-      <c r="AA21" t="inlineStr">
+      <c r="AC21" t="inlineStr">
         <is>
           <t>電子元器件52.18%、機構件38.99%、航太扣件8.83% (2023年)</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
+      <c r="AD21" t="inlineStr">
         <is>
           <t>神基-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
+      <c r="AE21" t="inlineStr">
         <is>
           <t>765320369.0</t>
         </is>
@@ -3583,85 +3793,95 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2025-01-06 00:00:00</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>30.8</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>3.36</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t>宏太-KY</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="U22" t="inlineStr">
         <is>
           <t>居家生活</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="V22" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="W22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V22" t="inlineStr">
+      <c r="X22" t="inlineStr">
         <is>
           <t>10.57</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr">
+      <c r="Y22" t="inlineStr">
         <is>
           <t>1.6</t>
         </is>
       </c>
-      <c r="X22" t="inlineStr">
+      <c r="Z22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr">
+      <c r="AA22" t="inlineStr">
         <is>
           <t>95.04</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
+      <c r="AB22" t="inlineStr">
         <is>
           <t>1603</t>
         </is>
       </c>
-      <c r="AA22" t="inlineStr">
+      <c r="AC22" t="inlineStr">
         <is>
           <t>嬰幼兒產品100.00% (2023年)</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr">
+      <c r="AD22" t="inlineStr">
         <is>
           <t>宏太-KY-居家生活-上櫃</t>
         </is>
       </c>
-      <c r="AC22" t="inlineStr">
+      <c r="AE22" t="inlineStr">
         <is>
           <t>246.0</t>
         </is>
@@ -3730,85 +3950,95 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2024-12-30 00:00:00</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>31.45</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>2.78</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>岱宇</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>運動休閒</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="V23" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="W23" t="inlineStr">
         <is>
           <t>1.59</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr">
+      <c r="X23" t="inlineStr">
         <is>
           <t>26.97</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
+      <c r="Y23" t="inlineStr">
         <is>
           <t>10.03</t>
         </is>
       </c>
-      <c r="X23" t="inlineStr">
+      <c r="Z23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr">
+      <c r="AA23" t="inlineStr">
         <is>
           <t>27.8</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
+      <c r="AB23" t="inlineStr">
         <is>
           <t>5257</t>
         </is>
       </c>
-      <c r="AA23" t="inlineStr">
+      <c r="AC23" t="inlineStr">
         <is>
           <t>電動跑步機52.33%、其他16.86%、橢圓機14.11%、健身車9.40%、家具7.30% (2023年)</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
+      <c r="AD23" t="inlineStr">
         <is>
           <t>岱宇-運動休閒-上市</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr">
+      <c r="AE23" t="inlineStr">
         <is>
           <t>44836511.0</t>
         </is>

--- a/Result/check2.xlsx
+++ b/Result/check2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE23"/>
+  <dimension ref="A1:AE18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,22 +593,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>8927</t>
+          <t>9919</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>58.6</t>
+          <t>20.6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -618,67 +618,67 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>31.23</t>
+          <t>22.37</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>104.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>138.0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>138</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推探底有撐ShowTime</t>
+          <t>--</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>--探底有撐</t>
+          <t>--探底</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>58.6</t>
+          <t>20.6</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -688,84 +688,84 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>北基</t>
+          <t>康那香</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>油電燃氣業</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>15.63</t>
+          <t>13.67</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>40.98</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>29.34</t>
+          <t>37.55</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>21642</t>
+          <t>3839</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>無鉛汽油52.63%、高級柴油20.42%、無鉛汽油10.87%、無鉛汽油5.77%、其他5.26%、洗車1.53%、儲能產品1.26%、客房及餐飲0.99%、電動巴士0.66%、副油品0.54%、車輛檢查0.08% (2023年)</t>
+          <t>衛生棉52.32%、濕巾21.93%、不織布及其他15.37%、紙尿褲10.37% (2023年)</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>北基-油電燃氣業-上櫃</t>
+          <t>康那香-其他-上市</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>290355.0</t>
+          <t>193420111.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8291</t>
+          <t>8390</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9.57</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>63.8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -775,32 +775,32 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>37.27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>64.0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>775</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--探底有撐</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>--探底</t>
+          <t>--探底有撐</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -830,12 +830,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>63.8</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>7.43</t>
+          <t>-1.85</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -845,12 +845,12 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>尚茂</t>
+          <t>金益鼎</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>綠能環保</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -860,69 +860,69 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>32.74</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>14.99</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14.31</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>59.87</t>
+          <t>65.5</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>5902</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>銅箔基板(CCL)93.71%、黏合膠片6.29% (2023年)</t>
+          <t>工業金屬48.26%、貴金屬材料33.90%、其他17.84% (2023年)</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>尚茂-電子零組件業-上櫃</t>
+          <t>金益鼎-綠能環保-上櫃</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>247.0</t>
+          <t>265436.0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8093</t>
+          <t>8291</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -932,47 +932,47 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推ShowTime</t>
+          <t>--遠期量推</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -982,17 +982,17 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>-0.99</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>保銳</t>
+          <t>尚茂</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1042,44 +1042,44 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>487</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>電源供應器48.86%、其他44.45%、電腦機殼6.69% (2023年)</t>
+          <t>銅箔基板(CCL)93.71%、黏合膠片6.29% (2023年)</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>保銳-電子零組件業-上櫃</t>
+          <t>尚茂-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>8537.0</t>
+          <t>393.0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8067</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17.75</t>
+          <t>20.7</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1089,32 +1089,32 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>63.48</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>均線:無明顯趨勢</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>111.0</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>691</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推探底有撐</t>
+          <t>--遠期量推近期量推量大探底有撐</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>17.75</t>
+          <t>20.7</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>志旭</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1179,12 +1179,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>8.22</t>
+          <t>21.57</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1194,84 +1194,84 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>58.75</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>82854</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>美妝產品84.98%、儲存媒體12.08%、多媒體2.84%、家電生活週邊0.10% (2023年)</t>
+          <t>邏輯產品62.00%、記憶體(仟片)30.94%、記憶體(千顆)7.06% (2023年)</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>志旭-電子通路業-上櫃</t>
+          <t>力積電-半導體業-上市</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>118.0</t>
+          <t>5861763382.0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6655</t>
+          <t>6657</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>130.0</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>40.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-52.0</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>均線:無明顯趨勢</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>12.0</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>124</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>40</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1286,12 +1286,12 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推</t>
+          <t>--遠期量推近期量推量大探底有撐</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--探底有撐</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1301,12 +1301,12 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>130.0</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1316,12 +1316,12 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>科定</t>
+          <t>華安</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -1331,69 +1331,69 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>6.92</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>29.37</t>
+          <t>8.41</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>8.73</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>27.66</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>37.55</t>
+          <t>32.55</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10684</t>
+          <t>4637</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>塗裝木皮板50.47%、環保批批板43.63%、科定系統櫃2.33%、KD木地板2.12%、其他1.44% (2023年)</t>
+          <t>試劑銷售53.27%、勞務46.73% (2023年)</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>科定-其他-上市</t>
+          <t>華安-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>552127.0</t>
+          <t>65168662.0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6569</t>
+          <t>6585</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>163.0</t>
+          <t>160.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>11.23</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1413,57 +1413,57 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推量大探底有撐</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>2024-12-26</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>--遠期量推近期量推探底有撐</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>--探底有撐</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>163.0</t>
+          <t>160.0</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1473,84 +1473,84 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>醫揚</t>
+          <t>鼎基</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>38.25</t>
+          <t>53.45</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>11.48</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>34.53</t>
+          <t>15.59</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>99.19</t>
+          <t>37.55</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>6295</t>
+          <t>11074</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>醫療用電腦及其配件98.54%、其他1.46% (2023年)</t>
+          <t>薄膜92.17%、密封件4.47%、管帶3.23%、其他0.14% (2023年)</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>醫揚-生技醫療業-上櫃</t>
+          <t>鼎基-其他-上市</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>15972.0</t>
+          <t>136763475.0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6290</t>
+          <t>6140</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>27.3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1560,32 +1560,32 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>15.74</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>125.0</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>319</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1595,12 +1595,12 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推探底有撐</t>
+          <t>--遠期量推近期量推探底有撐ShowTime</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1615,12 +1615,12 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>27.3</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>6.64</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1630,12 +1630,12 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>良維</t>
+          <t>訊達電腦</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1645,104 +1645,104 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>39.19</t>
+          <t>12.05</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>13.57</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>17.22</t>
+          <t>30.95</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>59.87</t>
+          <t>26.29</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12382</t>
+          <t>1298</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>電源傳輸線組82.40%、訊號傳輸線組8.82%、電源, 訊號傳輸及車用線材6.68%、充電器轉接頭與一體式充電器2.07%、其他0.03% (2023年)</t>
+          <t>個人電腦與工作站22.75%、伺服器20.14%、零件, 耗材, 技術服務及其他19.66%、軟體產品12.49%、網路產品9.67%、伺服器週邊選件9.64%、個人電腦及工作站周邊選件3.25%、顯示器2.10%、印表機0.30% (2023年)</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>良維-電子零組件業-上櫃</t>
+          <t>訊達電腦-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>315954.0</t>
+          <t>164215.0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6207</t>
+          <t>6112</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>9.91</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>61.6</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>79.85</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>114.0</t>
+          <t>97.0</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>279</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1752,32 +1752,32 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>--探底</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>61.6</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1787,84 +1787,84 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>雷科</t>
+          <t>邁達特</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>24.11</t>
+          <t>22.49</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>22.8</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>28.4</t>
+          <t>34.15</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>59.87</t>
+          <t>24.59</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>4526</t>
+          <t>6852</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>SMT與雷射設備60.68%、捲裝材料38.32%、其他1.00% (2023年)</t>
+          <t>數據運算及應用60.03%、資通訊基礎架構22.11%、雲端應用,軟體及服務11.84%、數位化應用整合4.43%、其他產品1.60% (2023年)</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>雷科-電子零組件業-上櫃</t>
+          <t>邁達特-資訊服務業-上市</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>75308.0</t>
+          <t>994655175.0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6191</t>
+          <t>4760</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>66.9</t>
+          <t>111.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1874,321 +1874,321 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>26.36</t>
+          <t>6.74</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>均線:無明顯趨勢</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-4.0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>117.0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>--遠期量推</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>66.9</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>精成科</t>
+          <t>勤凱科技</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>46.46</t>
+          <t>29.11</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>12.43</t>
+          <t>14.31</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>10.37</t>
+          <t>22.45</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>31.19</t>
+          <t>59.92</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>31731</t>
+          <t>3177</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>印刷電路板(PCB)70.10%、EMS29.90% (2023年)</t>
+          <t>導電漿料99.65%、其他0.35% (2023年)</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>精成科-電子零組件業-上市</t>
+          <t>勤凱科技-其他電子業-上櫃</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>1433803704.0</t>
+          <t>52269.0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6190</t>
+          <t>4154</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>9.69</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>34.9</t>
+          <t>15.6</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>12.6</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:無明顯趨勢</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>88.0</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>-8.0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>391</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>15.6</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>樂威科-KY</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>--探底</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>34.9</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>萬泰科</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>通信網路業</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>18.47</t>
+          <t>8.22</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>13.76</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>16.78</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>112.76</t>
+          <t>183.9</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>5712</t>
+          <t>438</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>網路線34.42%、電子線26.19%、其他18.13%、汽車及機車線10.28%、灌溉線6.89%、電腦線及高溫線2.27%、電源線1.82% (2023年)</t>
+          <t>精品100.00% (2023年)</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>萬泰科-通信網路業-上櫃</t>
+          <t>樂威科-KY-其他-上櫃</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>75426.0</t>
+          <t>1095.0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6139</t>
+          <t>3454</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>250.0</t>
+          <t>132.5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>24.94</t>
+          <t>17.51</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -2198,22 +2198,22 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>143.0</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>83.0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>83</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推量大</t>
+          <t>--遠期量推</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -2238,17 +2238,17 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>250.0</t>
+          <t>132.5</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>6.85</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -2258,12 +2258,12 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>亞翔</t>
+          <t>晶睿</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -2273,69 +2273,69 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>57.00</t>
+          <t>38.72</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>70.44</t>
+          <t>21.87</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>14.09</t>
+          <t>53.33</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>34.56</t>
+          <t>60.87</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>58251</t>
+          <t>11081</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>其他72.12%、無塵室工程20.22%、機電工程4.32%、製程管路工程3.35% (2023年)</t>
+          <t>網路攝影機85.22%、其他8.39%、網路影音錄影機6.39% (2023年)</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>亞翔-其他電子業-上市</t>
+          <t>晶睿-光電業-上市</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>3839446142.0</t>
+          <t>-235046914.0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4916</t>
+          <t>3373</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>26.1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2345,47 +2345,47 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>17.43</t>
+          <t>31.3</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>120.0</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>145.0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>145</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推量大ShowTime</t>
+          <t>--遠期量推</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -2395,17 +2395,17 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>26.1</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -2415,32 +2415,32 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>事欣科</t>
+          <t>熱映</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>20.12</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2450,49 +2450,49 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>68.69</t>
+          <t>59.92</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>3246</t>
+          <t>1061</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>航太及國防工業75.60%、博奕及工業電腦24.40% (2023年)</t>
+          <t>紅外線精密溫度儀58.37%、體溫測量產品(耳溫槍,額溫槍31.31%、紅外線精密氣體監測儀10.31%、其他0.01% (2023年)</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>事欣科-電腦及週邊設備業-上市</t>
+          <t>熱映-其他電子業-上櫃</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>183473960.0</t>
+          <t>104468.0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4737</t>
+          <t>3128</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>7.58</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2502,32 +2502,32 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>70.28</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -2537,12 +2537,12 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推量大探底有撐ShowTime</t>
+          <t>--遠期量推近期量推探底有撐</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -2557,12 +2557,12 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>7.58</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -2572,84 +2572,84 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>華廣</t>
+          <t>昇銳</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>30.16</t>
+          <t>15.27</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29.11</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>32.55</t>
+          <t>96.61</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>4071</t>
+          <t>1174</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>血糖檢測試片69.75%、其他18.19%、血糖檢測儀套件12.06% (2023年)</t>
+          <t>數位影像錄放影機32.42%、倒車系統28.02%、攝影機26.37%、材料及其他11.48%、顯示器1.71% (2023年)</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>華廣-生技醫療業-上市</t>
+          <t>昇銳-光電業-上櫃</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>35769724.0</t>
+          <t>5352.0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4161</t>
+          <t>3064</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>8.15</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>34.55</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2659,47 +2659,47 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:無明顯趨勢</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推ShowTime</t>
+          <t>--</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2709,17 +2709,17 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>34.55</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>聿新科</t>
+          <t>泰偉</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>文化創意業</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -2744,104 +2744,104 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>16.42</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>18.38</t>
+          <t>215.67</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>99.19</t>
+          <t>52.03</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>1829</t>
+          <t>839</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>居家醫療檢測試紙59.22%、生醫保養品及代工32.79%、居家醫療檢測儀器7.88%、其他0.11% (2023年)</t>
+          <t>網路遊戲99.97%、其他0.03% (2023年)</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>聿新科-生技醫療業-上櫃</t>
+          <t>泰偉-文化創意業-上櫃</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>20778.0</t>
+          <t>-340.0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3609</t>
+          <t>2597</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>158.5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>49.53</t>
+          <t>24.66</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>99</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推ShowTime</t>
+          <t>--</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -2866,17 +2866,17 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>158.5</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -2886,129 +2886,129 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>三一東林</t>
+          <t>潤弘</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>31.43</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>26.58</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16.15</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>59.87</t>
+          <t>28.23</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>1605</t>
+          <t>39487</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>LED Driver45.01%、成車43.58%、其他11.40% (2023年)</t>
+          <t>廠辦大樓42.19%、住宅26.22%、建材16.52%、公共工程9.82%、宗教4.64%、其他0.61% (2023年)</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>三一東林-電子零組件業-上櫃</t>
+          <t>潤弘-建材營造-上市</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>57008.0</t>
+          <t>56588261.0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3516</t>
+          <t>2027</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>23.35</t>
+          <t>37.15</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>69.71</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>-53.0</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>456</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -3018,22 +3018,22 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>--探底</t>
+          <t>--</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>23.35</t>
+          <t>37.15</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>7.68</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -3043,84 +3043,84 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>亞帝歐</t>
+          <t>大成鋼</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>25.67</t>
+          <t>29.94</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>10.14</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>97.29</t>
+          <t>26.6</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>96.61</t>
+          <t>46.47</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>1391</t>
+          <t>82887</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>照明燈具49.65%、連接線48.51%、塑膠射出1.25%、能源電力0.60% (2023年)</t>
+          <t>鋁製品39.13%、不�袗�產品35.72%、螺絲及螺帽22.45%、窗飾及其他產品2.69% (2023年)</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>亞帝歐-光電業-上櫃</t>
+          <t>大成鋼-鋼鐵工業-上市</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>1220.0</t>
+          <t>3339220472.0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3297</t>
+          <t>1477</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>9.58</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>22.65</t>
+          <t>357.5</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -3130,32 +3130,32 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>28.35</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -3165,17 +3165,17 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>--ShowTime</t>
+          <t>--遠期量推近期量推量大探底有撐</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>--探底</t>
+          <t>--探底有撐</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -3185,12 +3185,12 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>22.65</t>
+          <t>357.5</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -3200,847 +3200,62 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>杭特</t>
+          <t>聚陽</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>15.78</t>
+          <t>54.56</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>42.42</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21.07</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>96.61</t>
+          <t>32.11</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>817</t>
+          <t>85602</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>網路攝影機100.00% (2023年)</t>
+          <t>成衣98.03%、布料1.97% (2023年)</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>杭特-光電業-上櫃</t>
+          <t>聚陽-紡織纖維-上市</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>15143.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>3284</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2025-01-22</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>35.8</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>48.0</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>2025-01-08</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>--遠期量推近期量推ShowTime</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>35.8</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>太普高</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>13.66</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>13.11</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>183.9</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>3308</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>印刷版材67.70%、不動產代銷21.57%、其他10.73% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>太普高-其他-上櫃</t>
-        </is>
-      </c>
-      <c r="AE19" t="inlineStr">
-        <is>
-          <t>12153.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>3264</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2025-01-22</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>9.84</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>68.9</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>65.48</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>91.0</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>2024-12-19</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>--遠期量推近期量推ShowTime</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>68.9</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>9.37</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>欣銓</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>37.80</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>7.11</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>14.95</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>90.71</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>33773</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>晶圓測試73.30%、成品測試26.27%、其他0.43% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>欣銓-半導體業-上櫃</t>
-        </is>
-      </c>
-      <c r="AE20" t="inlineStr">
-        <is>
-          <t>2515998.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>3005</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2025-01-22</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>119.5</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>9.2</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>86.0</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>24.0</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>2024-12-16</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>--遠期量推近期量推量大</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>119.5</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>神基</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>36.80</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>14.85</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>17.29</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>68.69</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>73517</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>電子元器件52.18%、機構件38.99%、航太扣件8.83% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD21" t="inlineStr">
-        <is>
-          <t>神基-電腦及週邊設備業-上市</t>
-        </is>
-      </c>
-      <c r="AE21" t="inlineStr">
-        <is>
-          <t>765320369.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2924</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2025-01-22</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>30.8</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>26.02</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>均線:無明顯趨勢</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>34.0</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>16.0</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>2025-01-06</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>--遠期量推近期量推</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>30.8</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>宏太-KY</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>居家生活</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>10.57</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>1.6</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>1603</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>嬰幼兒產品100.00% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD22" t="inlineStr">
-        <is>
-          <t>宏太-KY-居家生活-上櫃</t>
-        </is>
-      </c>
-      <c r="AE22" t="inlineStr">
-        <is>
-          <t>246.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>1598</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2025-01-22</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>31.45</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>78.9</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>75.0</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>78.0</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>178</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>2024-12-30</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>--遠期量推近期量推量大</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>31.45</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>岱宇</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>運動休閒</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>26.97</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>10.03</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>27.8</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>5257</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>電動跑步機52.33%、其他16.86%、橢圓機14.11%、健身車9.40%、家具7.30% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD23" t="inlineStr">
-        <is>
-          <t>岱宇-運動休閒-上市</t>
-        </is>
-      </c>
-      <c r="AE23" t="inlineStr">
-        <is>
-          <t>44836511.0</t>
+          <t>723915456.0</t>
         </is>
       </c>
     </row>

--- a/Result/check2.xlsx
+++ b/Result/check2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE18"/>
+  <dimension ref="A1:AE23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,127 +593,127 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>9919</t>
+          <t>9955</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
           <t>2025-02-03</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20.6</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>22.37</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>均線:橫盤震盪</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>-50.0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>138.0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>138</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>32.65</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>佳龍</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>綠能環保</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>--探底</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>20.6</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>康那香</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>13.67</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -723,27 +723,27 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>37.55</t>
+          <t>28.47</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>3839</t>
+          <t>3010</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>衛生棉52.32%、濕巾21.93%、不織布及其他15.37%、紙尿褲10.37% (2023年)</t>
+          <t>黃金41.31%、金鹽38.91%、白金14.14%、其他3.26%、混合五金處理及銷貨0.92%、白銀0.85%、鈀金0.41%、廢資訊品清運及處理0.21% (2023年)</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>康那香-其他-上市</t>
+          <t>佳龍-綠能環保-上市</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>193420111.0</t>
+          <t>190669342.0</t>
         </is>
       </c>
     </row>
@@ -755,87 +755,87 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>42.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>607</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
           <t>2025-02-03</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>63.8</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>37.27</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>64.0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>775</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>--探底有撐</t>
+          <t>--遠期量推近期量推ShowTime</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>--探底有撐</t>
+          <t>--</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>63.8</t>
+          <t>69.2</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-1.85</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -900,186 +900,186 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>265436.0</t>
+          <t>551278.0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8291</t>
+          <t>8096</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>15.52</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>203.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>44.5</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>擎亞</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>電子通路業</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>--遠期量推</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>-0.99</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>尚茂</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>17.13</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>45.83</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14.61</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>59.87</t>
+          <t>58.75</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>6220</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>銅箔基板(CCL)93.71%、黏合膠片6.29% (2023年)</t>
+          <t>行動通訊裝置零組件96.86%、其他產品3.14% (2023年)</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>尚茂-電子零組件業-上櫃</t>
+          <t>擎亞-電子通路業-上櫃</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>393.0</t>
+          <t>2365836.0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>6914</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20.7</t>
+          <t>131.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>63.48</t>
+          <t>9.48</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1099,32 +1099,32 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>111.0</t>
+          <t>84.0</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>20.7</t>
+          <t>131.0</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1159,12 +1159,12 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>力積電</t>
+          <t>阜爾運通</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1174,69 +1174,69 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>21.57</t>
+          <t>50.29</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>17.93</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16.95</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>37.55</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>82854</t>
+          <t>7980</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>邏輯產品62.00%、記憶體(仟片)30.94%、記憶體(千顆)7.06% (2023年)</t>
+          <t>停車場收費及管理服務90.89%、停車場建置4.48%、其他2.66%、設備銷售1.96% (2023年)</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>力積電-半導體業-上市</t>
+          <t>阜爾運通-其他-上市</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>5861763382.0</t>
+          <t>65051826.0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6657</t>
+          <t>6761</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>93.6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>40.54</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1256,22 +1256,22 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-52.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>240</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1286,27 +1286,27 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推量大探底有撐</t>
+          <t>--</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>--探底有撐</t>
+          <t>--探底</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>93.6</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1316,94 +1316,94 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>華安</t>
+          <t>穩得</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>8.41</t>
+          <t>44.31</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>16.65</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14.77</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>32.55</t>
+          <t>59.87</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>4637</t>
+          <t>2830</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>試劑銷售53.27%、勞務46.73% (2023年)</t>
+          <t>元件-代理50.19%、元件-自有40.00%、測試認證9.81% (2023年)</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>華安-生技醫療業-上市</t>
+          <t>穩得-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>65168662.0</t>
+          <t>23012.0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6585</t>
+          <t>6697</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>6.77</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>160.0</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>11.23</t>
+          <t>19.08</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1413,22 +1413,22 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>119</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>44</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1443,12 +1443,12 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推量大探底有撐</t>
+          <t>--遠期量推近期量推ShowTime</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>--探底有撐</t>
+          <t>--</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1458,12 +1458,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>160.0</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1473,154 +1473,154 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>鼎基</t>
+          <t>東捷資訊</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>53.45</t>
+          <t>21.24</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>11.48</t>
+          <t>10.07</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>15.59</t>
+          <t>17.92</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>37.55</t>
+          <t>26.29</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11074</t>
+          <t>1273</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>薄膜92.17%、密封件4.47%、管帶3.23%、其他0.14% (2023年)</t>
+          <t>資訊委外服務65.42%、郵務資料整合22.56%、客戶關係管理12.02% (2023年)</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>鼎基-其他-上市</t>
+          <t>東捷資訊-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>136763475.0</t>
+          <t>12913.0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6140</t>
+          <t>6585</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>17.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
           <t>2025-02-03</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>27.3</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>15.74</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>均線:橫盤震盪</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>125.0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>12.0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>319</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推量大探底有撐</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>--遠期量推近期量推探底有撐ShowTime</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>--探底有撐</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>27.3</t>
+          <t>166.0</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1630,84 +1630,84 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>訊達電腦</t>
+          <t>鼎基</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>12.05</t>
+          <t>53.45</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>11.48</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>30.95</t>
+          <t>15.59</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>26.29</t>
+          <t>37.55</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>1298</t>
+          <t>11074</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>個人電腦與工作站22.75%、伺服器20.14%、零件, 耗材, 技術服務及其他19.66%、軟體產品12.49%、網路產品9.67%、伺服器週邊選件9.64%、個人電腦及工作站周邊選件3.25%、顯示器2.10%、印表機0.30% (2023年)</t>
+          <t>薄膜92.17%、密封件4.47%、管帶3.23%、其他0.14% (2023年)</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>訊達電腦-資訊服務業-上櫃</t>
+          <t>鼎基-其他-上市</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>164215.0</t>
+          <t>185448457.0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6112</t>
+          <t>6290</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9.91</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>61.6</t>
+          <t>82.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>79.85</t>
+          <t>22.62</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1727,22 +1727,22 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>97.0</t>
+          <t>83.0</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>493</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>57</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1752,12 +1752,12 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推量大ShowTime</t>
+          <t>--遠期量推近期量推</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1772,12 +1772,12 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>61.6</t>
+          <t>82.0</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1787,94 +1787,94 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>邁達特</t>
+          <t>良維</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>22.49</t>
+          <t>39.19</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>22.8</t>
+          <t>13.57</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>34.15</t>
+          <t>17.22</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>24.59</t>
+          <t>59.87</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>6852</t>
+          <t>12382</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>數據運算及應用60.03%、資通訊基礎架構22.11%、雲端應用,軟體及服務11.84%、數位化應用整合4.43%、其他產品1.60% (2023年)</t>
+          <t>電源傳輸線組82.40%、訊號傳輸線組8.82%、電源, 訊號傳輸及車用線材6.68%、充電器轉接頭與一體式充電器2.07%、其他0.03% (2023年)</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>邁達特-資訊服務業-上市</t>
+          <t>良維-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>994655175.0</t>
+          <t>1216191.0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4760</t>
+          <t>6285</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>111.0</t>
+          <t>148.5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.74</t>
+          <t>41.75</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1884,57 +1884,57 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推量大</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>111.0</t>
+          <t>148.5</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1944,84 +1944,84 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>勤凱科技</t>
+          <t>啟碁</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>29.11</t>
+          <t>63.38</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>14.31</t>
+          <t>53.51</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>22.45</t>
+          <t>20.85</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>59.92</t>
+          <t>40.14</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>3177</t>
+          <t>68898</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>導電漿料99.65%、其他0.35% (2023年)</t>
+          <t>無線通訊產品96.85%、其他3.15% (2023年)</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>勤凱科技-其他電子業-上櫃</t>
+          <t>啟碁-通信網路業-上市</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>52269.0</t>
+          <t>4427663499.0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4154</t>
+          <t>6231</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>15.6</t>
+          <t>398.5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2031,54 +2031,54 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>19.56</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>均線:無明顯趨勢</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>48</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>False</t>
@@ -2086,12 +2086,12 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>15.6</t>
+          <t>398.5</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>7.96</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>樂威科-KY</t>
+          <t>系微</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -2116,79 +2116,79 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>8.22</t>
+          <t>23.42</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60.57</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>183.9</t>
+          <t>26.29</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>18306</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>精品100.00% (2023年)</t>
+          <t>基本輸出入軟體(Insyde H2O)91.26%、基板管理控制器(BMC)韌體8.74% (2023年)</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>樂威科-KY-其他-上櫃</t>
+          <t>系微-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>1095.0</t>
+          <t>-198013.0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3454</t>
+          <t>6148</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>9.24</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>132.5</t>
+          <t>30.55</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>17.51</t>
+          <t>60.18</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -2198,57 +2198,57 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>143.0</t>
+          <t>102.0</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>83.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>711</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>2025-01-14</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>--遠期量推</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>132.5</t>
+          <t>30.55</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>6.85</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -2258,154 +2258,154 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>晶睿</t>
+          <t>驊宏資</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>38.72</t>
+          <t>12.68</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>21.87</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>53.33</t>
+          <t>16.11</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>60.87</t>
+          <t>26.29</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11081</t>
+          <t>1179</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>網路攝影機85.22%、其他8.39%、網路影音錄影機6.39% (2023年)</t>
+          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>晶睿-光電業-上市</t>
+          <t>驊宏資-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>-235046914.0</t>
+          <t>135521.0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3373</t>
+          <t>6140</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>10.06</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>26.1</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>31.3</t>
+          <t>22.93</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>120.0</t>
+          <t>159.0</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>145.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>387</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>29</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>--遠期量推</t>
+          <t>--遠期量推近期量推探底有撐ShowTime</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--探底有撐</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>26.1</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>11.73</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -2415,12 +2415,12 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>熱映</t>
+          <t>訊達電腦</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -2430,69 +2430,69 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>20.12</t>
+          <t>12.05</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30.95</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>59.92</t>
+          <t>26.29</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>1061</t>
+          <t>1298</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>紅外線精密溫度儀58.37%、體溫測量產品(耳溫槍,額溫槍31.31%、紅外線精密氣體監測儀10.31%、其他0.01% (2023年)</t>
+          <t>個人電腦與工作站22.75%、伺服器20.14%、零件, 耗材, 技術服務及其他19.66%、軟體產品12.49%、網路產品9.67%、伺服器週邊選件9.64%、個人電腦及工作站周邊選件3.25%、顯示器2.10%、印表機0.30% (2023年)</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>熱映-其他電子業-上櫃</t>
+          <t>訊達電腦-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>104468.0</t>
+          <t>470920.0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3128</t>
+          <t>4915</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>85.0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>32.97</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -2512,22 +2512,22 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>71.0</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>292</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -2537,12 +2537,12 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推探底有撐</t>
+          <t>--遠期量推近期量推量大探底有撐ShowTime</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -2557,12 +2557,12 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>85.0</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -2572,94 +2572,94 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>昇銳</t>
+          <t>致伸</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>15.27</t>
+          <t>38.96</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>6.66</t>
+          <t>34.35</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>29.11</t>
+          <t>14.76</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>96.61</t>
+          <t>31.19</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>1174</t>
+          <t>38005</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>數位影像錄放影機32.42%、倒車系統28.02%、攝影機26.37%、材料及其他11.48%、顯示器1.71% (2023年)</t>
+          <t>非電腦週邊產品61.21%、電腦周邊產品36.86%、服務收入1.93% (2023年)</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>昇銳-光電業-上櫃</t>
+          <t>致伸-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>5352.0</t>
+          <t>522169033.0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3064</t>
+          <t>4154</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>17.15</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>21.62</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -2669,154 +2669,154 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>134.0</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>568</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>17.15</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>樂威科-KY</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>9.01</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>泰偉</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>文化創意業</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>8.27</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>215.67</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>52.03</t>
+          <t>183.9</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>839</t>
+          <t>438</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>網路遊戲99.97%、其他0.03% (2023年)</t>
+          <t>精品100.00% (2023年)</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>泰偉-文化創意業-上櫃</t>
+          <t>樂威科-KY-其他-上櫃</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>-340.0</t>
+          <t>3895.0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2597</t>
+          <t>4142</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>158.5</t>
+          <t>25.35</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>24.66</t>
+          <t>47.46</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -2826,144 +2826,144 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>122.0</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>115.0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>220</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>115</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>-2.5</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>國光生</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>生技醫療業</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>158.5</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>潤弘</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>建材營造</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>6.16</t>
-        </is>
-      </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>31.43</t>
+          <t>12.57</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>26.58</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>16.15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>28.23</t>
+          <t>32.55</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>39487</t>
+          <t>9557</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>廠辦大樓42.19%、住宅26.22%、建材16.52%、公共工程9.82%、宗教4.64%、其他0.61% (2023年)</t>
+          <t>流行感冒疫苗58.23%、非流感疫苗系列41.77% (2023年)</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>潤弘-建材營造-上市</t>
+          <t>國光生-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>56588261.0</t>
+          <t>1228230773.0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>9.87</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>37.15</t>
+          <t>3245.0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>69.71</t>
+          <t>48.42</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2983,72 +2983,72 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>3245.0</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>2025-01-21</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>37.15</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>7.68</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>大成鋼</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -3058,69 +3058,69 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>29.94</t>
+          <t>441.29</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>10.14</t>
+          <t>185.58</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>26.6</t>
+          <t>43.64</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>46.47</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>82887</t>
+          <t>245026</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>鋁製品39.13%、不�袗�產品35.72%、螺絲及螺帽22.45%、窗飾及其他產品2.69% (2023年)</t>
+          <t>ASIC及晶圓產品78.02%、委託設計(NRE)21.81%、其他0.17% (2023年)</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>大成鋼-鋼鐵工業-上市</t>
+          <t>世芯-KY-半導體業-上市</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>3339220472.0</t>
+          <t>10496865430.0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1477</t>
+          <t>3232</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>357.5</t>
+          <t>27.2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -3130,7 +3130,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>28.35</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -3140,22 +3140,22 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>70.0</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>197</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -3165,12 +3165,12 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推量大探底有撐</t>
+          <t>--遠期量推近期量推探底有撐ShowTime</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -3185,12 +3185,12 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>357.5</t>
+          <t>27.2</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -3200,62 +3200,847 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>聚陽</t>
+          <t>昱捷</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>紡織纖維</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>14.99</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>58.75</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>1187</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>液晶驅動IC47.29%、分散式元件40.17%、微處理器5.60%、其他5.05%、金屬表面處理1.90% (2023年)</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>昱捷-電子通路業-上櫃</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>9583.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3176</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5.3</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>38.1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>108.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>636</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>--ShowTime</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>38.1</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>-3.79</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>基亞</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>生技醫療業</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>12.06</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>4562</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>新藥及疫苗開發33.62%、學名藥32.51%、醫美產品28.73%、分子診斷4.87%、細胞治療0.26% (2023年)</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>基亞-生技醫療業-上櫃</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>95453.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3059</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>38.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-6.0</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>38.85</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>華晶科</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>54.56</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>42.42</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>21.07</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>32.11</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>85602</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>成衣98.03%、布料1.97% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>聚陽-紡織纖維-上市</t>
-        </is>
-      </c>
-      <c r="AE18" t="inlineStr">
-        <is>
-          <t>723915456.0</t>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>1.9</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>32.86</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>6.8</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>60.87</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>11253</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>數位影像相關應用產品100.00% (2023年)</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>華晶科-光電業-上市</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>519845970.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2867</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>14.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推量大</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>三商壽</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>金融保險</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>37047</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>簽單保費62.98%、利息收入29.75%、分離帳戶保險商品12.60%、外匯價格變動準備淨變動3.34%、手續費2.41%、其他1.02%、投資性不動產0.30%、再保佣金0.08%、預期信用減損損失及迴轉利益0.07%、其他營業收入0.05%、權益法投資收益-關聯和合營公0.03%、透過其他綜合損益按公允價值0.01% (2023年)</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>三商壽-金融保險-上市</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>379624716.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2427</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>27.2</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>-13.0</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>27.2</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>三商電</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>資訊服務業</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>15.67</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>4989</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>系統整合服務40.98%、維修及保養服務36.16%、金融自動化服務機器22.87% (2023年)</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>三商電-資訊服務業-上市</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>204579059.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2069</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.7</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-19.0</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>-8.0</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>運錩</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>鋼鐵工業</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>16.08</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>15.76</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>46.47</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>2754</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>不�袗�捲板99.98%、其他0.02% (2023年)</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>運錩-鋼鐵工業-上市</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>1651135.0</t>
         </is>
       </c>
     </row>

--- a/Result/check2.xlsx
+++ b/Result/check2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF1"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,6 +595,330 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>6873</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1634.725</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>-6.0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>356863389.0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>泓德能源</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>綠能環保</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>70.17</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>33.4</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>28.47</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>22494</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>-401267392.0</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>太陽光電系統建置96.24%、太陽能光電系統開發及維運2.71%、售電及其他1.05% (2023年)</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>泓德能源-綠能環保-上市</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4154</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>均線:無明顯趨勢</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>1736.0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>樂威科-KY</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>183.9</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>5323.0</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>精品100.00% (2023年)</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>樂威科-KY-其他-上櫃</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Result/check2.xlsx
+++ b/Result/check2.xlsx
@@ -10593,7 +10593,7 @@
       </c>
       <c r="AV42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/Result/check2.xlsx
+++ b/Result/check2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV41"/>
+  <dimension ref="A1:AV37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,7 +733,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-3.01</t>
+          <t>-5.11</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1554</t>
+          <t>1027</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>15.12</t>
+          <t>14.81</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>10.65</t>
+          <t>10.81</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>19857</t>
+          <t>19459</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>151</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>3597</t>
+          <t>31341</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-5.45</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>35.44</t>
+          <t>35.7</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>30.1</t>
+          <t>30.03</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>3621</t>
+          <t>3648</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>58</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>4726</t>
+          <t>13401</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>13.35</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>26.68</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>13.97</t>
+          <t>14.26</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2668</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,22 +1404,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8072</t>
+          <t>7402</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2185.404</t>
+          <t>16730.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,17 +1429,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>9.08</t>
+          <t>79.98</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>30.3</t>
+          <t>104.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,72 +1459,72 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>-28.24</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>4726</t>
+          <t>1828</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>61.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>92.0</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1539,92 +1539,92 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>59</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>53227673.0</t>
+          <t>2113519.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>陞泰</t>
+          <t>邑錡</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>55.17</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>15.01%</t>
+          <t>27.68%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>-0.16%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>13.97</t>
+          <t>61.25</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2857</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>安全監控系統及電子材料100.00% (2024年)</t>
+          <t>創新設計製造生產67.76%、自有品牌相機32.24% (2024年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>陞泰-電子通路業-上市</t>
+          <t>邑錡-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>光電業平</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>28.56</t>
+          <t>19.48</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1639,29 +1639,29 @@
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>** 其他 - 其他電子產品及電子服務產業</t>
+          <t>** 電腦及週邊設備 - 其他電腦及週邊設備</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7402</t>
+          <t>6890</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>6.36</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>16730.0</t>
+          <t>1039.32</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,17 +1671,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>79.98</t>
+          <t>7.71</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>104.0</t>
+          <t>381.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1701,172 +1701,172 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-26.52</t>
+          <t>-35.11</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>25</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1209</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>-12.86</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>-16.66</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>61.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2113519.0</t>
+          <t>276007361.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>邑錡</t>
+          <t>來億-KY</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>運動休閒</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>43.51</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>55.92</t>
+          <t>18.42</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>27.68%</t>
+          <t>18.57%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>-0.16%</t>
+          <t>11.72%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>60.37</t>
+          <t>18.48</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>2896</t>
+          <t>70331</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>創新設計製造生產67.76%、自有品牌相機32.24% (2024年)</t>
+          <t>運動休閒鞋類100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>邑錡-光電業-上櫃</t>
+          <t>來億-KY-運動休閒-上市</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>光電業平</t>
+          <t>運動休閒右下</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>19.48</t>
+          <t>97.84</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1881,29 +1881,29 @@
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 其他電腦及週邊設備</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6890</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>9.61</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1039.32</t>
+          <t>3019.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,17 +1913,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>7.71</t>
+          <t>85.35</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>381.0</t>
+          <t>41.8</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-24.51</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1953,162 +1953,162 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>3019</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>186550.0</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>全譜</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>-12.86</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>-16.66</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>276007361.0</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>來億-KY</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>運動休閒</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>43.51</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>19.99</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>18.57%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>11.72%</t>
+          <t>-107.88%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>18.34</t>
+          <t>30.93</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>76316</t>
+          <t>1087</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>運動休閒鞋類100.00% (2024年)</t>
+          <t>底片型掃描器47.76%、生物醫學產品39.93%、智慧商務10.44%、建材及工程1.88% (2024年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>來億-KY-運動休閒-上市</t>
+          <t>全譜-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>運動休閒右下</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>97.84</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -2123,29 +2123,29 @@
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>** 電腦及週邊設備 - 印表機、傳真機、掃瞄器、多功能事務機、投影機** 建材營造 - 建材原料、機電工程、工程設計、工程承攬、裝潢業** 貿易百貨 - 貿易商、代理商、經銷商、零售通路** 醫療器材 - 生物檢測</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6799</t>
+          <t>6203</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9.83</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7888.502</t>
+          <t>732.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,27 +2155,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>13.16</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>52.29</t>
+          <t>30.96</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>129.0</t>
+          <t>83.6</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,57 +2185,57 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-31.36</t>
+          <t>-40.27</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>9144</t>
+          <t>1757</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
           <t>0.14</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -2245,17 +2245,17 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>207.0</t>
+          <t>-10.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-13.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -2265,92 +2265,92 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>1459313568.0</t>
+          <t>36668.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>來頡</t>
+          <t>海韻電</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>34.34</t>
+          <t>17.03</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>47.14%</t>
+          <t>28.03%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>17.95%</t>
+          <t>7.08%</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>134.18</t>
+          <t>49.14</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>4206</t>
+          <t>4911</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>電子產品電源管理積體電路及100.00% (2024年)</t>
+          <t>交換式電源供應器98.34%、其他1.66% (2024年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>來頡-半導體業-上市</t>
+          <t>海韻電-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>半導體業右下</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>36.55</t>
+          <t>35.74</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>** 半導體 - 電源管理IC</t>
+          <t>** 電腦及週邊設備 - 電源供應器</t>
         </is>
       </c>
     </row>
@@ -2377,17 +2377,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6203</t>
+          <t>6197</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>732.0</t>
+          <t>6969.221</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,27 +2397,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>30.96</t>
+          <t>22.84</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>83.6</t>
+          <t>139.5</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2427,72 +2427,72 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-30.02</t>
+          <t>-17.72</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1863</t>
+          <t>2192</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-4.51</t>
+          <t>13.94</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>-2.45</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>-2.48</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>-10.0</t>
+          <t>135.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2502,12 +2502,12 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -2517,17 +2517,17 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>36668.0</t>
+          <t>1199214241.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>海韻電</t>
+          <t>佳必琪</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -2537,62 +2537,62 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>13.58</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>18.37</t>
+          <t>13.64</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>28.03%</t>
+          <t>30.98%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>7.08%</t>
+          <t>14.42%</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>49.43</t>
+          <t>24.27</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>5299</t>
+          <t>14467</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>交換式電源供應器98.34%、其他1.66% (2024年)</t>
+          <t>數據網路電信53.79%、智能連結產業39.82%、其他4.90%、物聯網系統1.48% (2024年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>海韻電-電子零組件業-上櫃</t>
+          <t>佳必琪-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>35.74</t>
+          <t>36.14</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2607,94 +2607,94 @@
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 電源供應器</t>
+          <t>** 通信網路 - 線材** 連接器 - 連接器設計、組裝及製造</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6165</t>
+          <t>6166</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2180.698</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12.17</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1221.698</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>15.80</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>49.1</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-13.79</t>
+          <t>-26.76</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>2132</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>8.13</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2704,37 +2704,37 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2754,27 +2754,27 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>39133564.0</t>
+          <t>566450758.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>浪凡</t>
+          <t>凌華</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>數位雲端</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2784,57 +2784,57 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>14.12</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>308.7</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>25.57%</t>
+          <t>36.66%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>1.84%</t>
+          <t>4.75%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>30.84</t>
+          <t>80.6</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>3355</t>
+          <t>15442</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>直播平台營運99.63%、商品銷售0.37% (2024年)</t>
+          <t>商品銷售98.76%、軟體授權及服務1.24% (2024年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>浪凡-數位雲端-上市</t>
+          <t>凌華-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>數位雲端右上</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>18.63</t>
+          <t>24.72</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2849,29 +2849,29 @@
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>** 連接器 - 連接器設計、組裝及製造</t>
+          <t>** 電腦及週邊設備 - 工業電腦</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>6165</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>18760.376</t>
+          <t>1221.698</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,17 +2881,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>28.42</t>
+          <t>15.80</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>46.85</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2911,57 +2911,57 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-8.63</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>18760</t>
+          <t>1579</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>8.74</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -2971,12 +2971,12 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2991,32 +2991,32 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>933723304.0</t>
+          <t>39133564.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>上海商銀</t>
+          <t>浪凡</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>數位雲端</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -3026,57 +3026,57 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>16.85</t>
+          <t>44.31</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25.57%</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.84%</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>12.44</t>
+          <t>32.4</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>227766</t>
+          <t>3514</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
+          <t>直播平台營運99.63%、商品銷售0.37% (2024年)</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>上海商銀-金融保險-上市</t>
+          <t>浪凡-數位雲端-上市</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>數位雲端右上</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>40.81</t>
+          <t>18.63</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
@@ -3091,14 +3091,14 @@
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3108,12 +3108,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8507.314</t>
+          <t>18760.376</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3123,27 +3123,27 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>12.89</t>
+          <t>28.42</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>45.35</t>
+          <t>46.85</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -3153,57 +3153,57 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>69</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>18760</t>
+          <t>22443</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -3233,22 +3233,22 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>-523578800.0</t>
+          <t>933723304.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>16.85</t>
+          <t>17.19</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3293,12 +3293,12 @@
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>12.44</t>
+          <t>12.33</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>227766</t>
+          <t>232385</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -3345,17 +3345,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5515</t>
+          <t>5876</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1515.371</t>
+          <t>8507.314</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3365,27 +3365,27 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>12.89</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>32.2</t>
+          <t>45.35</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3395,57 +3395,57 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>-13.58</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>69</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>22443</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -3475,7 +3475,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
@@ -3485,22 +3485,22 @@
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>-4009402.0</t>
+          <t>-523578800.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>建國</t>
+          <t>上海商銀</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -3510,57 +3510,57 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>7.58</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>10.89</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>8.39</t>
+          <t>17.19</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>14.36%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>8.93%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>43.3</t>
+          <t>12.33</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>5715</t>
+          <t>232385</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>工程99.99%、其他0.01% (2024年)</t>
+          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>建國-建材營造-上市</t>
+          <t>上海商銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>24.48</t>
+          <t>40.81</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料、營造業</t>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
       </c>
     </row>
@@ -3587,17 +3587,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5315</t>
+          <t>5515</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5587.0</t>
+          <t>1515.371</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3607,27 +3607,27 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>20.57</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>24.4</t>
+          <t>32.2</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3637,72 +3637,72 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>-24.81</t>
+          <t>-15.0</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>1146</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -3717,7 +3717,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
@@ -3727,82 +3727,82 @@
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>136311.0</t>
+          <t>-4009402.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>光聯</t>
+          <t>建國</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>7.67</t>
+          <t>7.68</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>10.89</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>16.16</t>
+          <t>8.28</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>14.01%</t>
+          <t>14.36%</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>6.08%</t>
+          <t>8.93%</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>60.37</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>2079</t>
+          <t>5645</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>商品銷售99.83%、工程0.17% (2024年)</t>
+          <t>工程99.99%、其他0.01% (2024年)</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>光聯-光電業-上櫃</t>
+          <t>建國-建材營造-上市</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>光電業平</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>16.11</t>
+          <t>24.48</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 面板、顯示器模組** 平面顯示器 - 面板、顯示器模組</t>
+          <t>** 建材營造 - 建材原料、營造業</t>
         </is>
       </c>
     </row>
@@ -3829,17 +3829,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5201</t>
+          <t>5315</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>9.73</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3884.0</t>
+          <t>5587.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3849,27 +3849,27 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>66.12</t>
+          <t>20.57</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>40.15</t>
+          <t>24.4</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3879,37 +3879,37 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>-6.22</t>
+          <t>-25.45</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>933</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -3919,32 +3919,32 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>66.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -3959,7 +3959,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -3969,22 +3969,22 @@
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>186429.0</t>
+          <t>136311.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>凱衛</t>
+          <t>光聯</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -3994,57 +3994,57 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>7.71</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>16.8</t>
+          <t>16.07</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>49.86%</t>
+          <t>14.01%</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>11.96%</t>
+          <t>6.08%</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>24.23</t>
+          <t>61.25</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>1160</t>
+          <t>2069</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>軟硬體系統整合43.11%、勞務及維修35.15%、授權21.73% (2024年)</t>
+          <t>商品銷售99.83%、工程0.17% (2024年)</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>凱衛-資訊服務業-上櫃</t>
+          <t>光聯-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>光電業平</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>14.62</t>
+          <t>16.11</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務</t>
+          <t>** 電腦及週邊設備 - 面板、顯示器模組** 平面顯示器 - 面板、顯示器模組</t>
         </is>
       </c>
     </row>
@@ -4071,17 +4071,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4532</t>
+          <t>5201</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>9.73</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2822.424</t>
+          <t>3884.0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -4091,17 +4091,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>17.47</t>
+          <t>66.12</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>31.35</t>
+          <t>40.15</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -4121,72 +4121,72 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>-22.22</t>
+          <t>-7.07</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>9539</t>
+          <t>914</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>66.0</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -4211,82 +4211,82 @@
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>66</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>-79236396.0</t>
+          <t>186429.0</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>瑞智</t>
+          <t>凱衛</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>10.89</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>16.67</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>16.31%</t>
+          <t>49.86%</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>6.20%</t>
+          <t>11.96%</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>30.1</t>
+          <t>24.04</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>12951</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>壓縮機95.48%、其他2.49%、BLDC馬達2.03% (2024年)</t>
+          <t>軟硬體系統整合43.11%、勞務及維修35.15%、授權21.73% (2024年)</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>瑞智-電機機械-上市</t>
+          <t>凱衛-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>21.35</t>
+          <t>14.62</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
@@ -4301,29 +4301,29 @@
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>** 電機機械 - 冷凍空調設備及零件</t>
+          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4174</t>
+          <t>4532</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>906.0</t>
+          <t>2822.424</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4333,17 +4333,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>17.47</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -4353,7 +4353,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>31.35</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -4363,72 +4363,72 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>-23.75</t>
+          <t>-26.67</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1581</t>
+          <t>6596</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>-99.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -4443,7 +4443,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -4453,82 +4453,82 @@
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>42448.0</t>
+          <t>-79236396.0</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>浩鼎</t>
+          <t>瑞智</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>10.89</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.25</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>-182.78%</t>
+          <t>16.31%</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>-6,249.84%</t>
+          <t>6.20%</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>75.71</t>
+          <t>30.03</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>13184</t>
+          <t>12497</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>委託開發暨製造服務97.00%、專利權收入3.00% (2024年)</t>
+          <t>壓縮機95.48%、其他2.49%、BLDC馬達2.03% (2024年)</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>浩鼎-生技醫療業-上櫃</t>
+          <t>瑞智-電機機械-上市</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>14.51</t>
+          <t>21.35</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
@@ -4543,29 +4543,29 @@
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>** 製藥 - 原材料</t>
+          <t>** 電機機械 - 冷凍空調設備及零件</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3680</t>
+          <t>4174</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-1.83</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1080.0</t>
+          <t>906.0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4575,27 +4575,27 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>18.40</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>430.0</t>
+          <t>62.0</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -4605,112 +4605,112 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>-24.64</t>
+          <t>-32.2</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>844</t>
+          <t>1511</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>-8.03</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>-12.97</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>-99.0</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>60244.0</t>
+          <t>42448.0</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>家登</t>
+          <t>浩鼎</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
@@ -4720,57 +4720,57 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>15.38</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>37.61%</t>
+          <t>-182.78%</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>7.03%</t>
+          <t>-6,249.84%</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>53.51</t>
+          <t>76.11</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>33133</t>
+          <t>12342</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>光罩載具34.97%、晶圓載具29.68%、機械設備17.57%、其他16.42%、半導體製造原料耗材1.35% (2024年)</t>
+          <t>委託開發暨製造服務97.00%、專利權收入3.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>家登-半導體業-上櫃</t>
+          <t>浩鼎-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>半導體業右下</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>104.38</t>
+          <t>14.51</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>** 半導體 - 生產製程及檢測設備</t>
+          <t>** 製藥 - 原材料</t>
         </is>
       </c>
     </row>
@@ -4797,17 +4797,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3630</t>
+          <t>3680</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>7.84</t>
+          <t>-1.83</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>7308.0</t>
+          <t>1080.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4817,27 +4817,27 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>31.95</t>
+          <t>18.40</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>430.0</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -4847,112 +4847,112 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>-36.99</t>
+          <t>-15.44</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>46</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>1890</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>15.50</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>-8.03</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>-12.97</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>-100.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>108.0</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>200023.0</t>
+          <t>60244.0</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>新鉅科</t>
+          <t>家登</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
@@ -4962,57 +4962,57 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>15.38</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30.24</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>2.42%</t>
+          <t>37.61%</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>-35.99%</t>
+          <t>7.03%</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>60.37</t>
+          <t>55.28</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>3727</t>
+          <t>35775</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>鏡頭模組100.00% (2024年)</t>
+          <t>光罩載具34.97%、晶圓載具29.68%、機械設備17.57%、其他16.42%、半導體製造原料耗材1.35% (2024年)</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>新鉅科-光電業-上櫃</t>
+          <t>家登-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>光電業右下</t>
+          <t>半導體業右下</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>12.27</t>
+          <t>104.38</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
@@ -5027,7 +5027,7 @@
       </c>
       <c r="AV19" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 光學鏡片、鏡頭</t>
+          <t>** 半導體 - 生產製程及檢測設備</t>
         </is>
       </c>
     </row>
@@ -5039,17 +5039,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3546</t>
+          <t>3630</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>7.84</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>260.0</t>
+          <t>7308.0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -5059,27 +5059,27 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>31.95</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>82.6</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -5089,72 +5089,72 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-37.36</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>4238</t>
+          <t>542</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-7.99</t>
+          <t>8.98</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-100.0</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>108.0</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -5164,37 +5164,37 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>22805.0</t>
+          <t>200023.0</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>宇峻</t>
+          <t>新鉅科</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>文化創意業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
@@ -5204,57 +5204,57 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>14.91</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>98.53%</t>
+          <t>2.42%</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>26.68%</t>
+          <t>-35.99%</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>107.45</t>
+          <t>61.25</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>4387</t>
+          <t>3716</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>網路遊戲90.18%、權利金收入8.40%、其他1.42% (2024年)</t>
+          <t>鏡頭模組100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>宇峻-文化創意業-上櫃</t>
+          <t>新鉅科-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>文化創意業平</t>
+          <t>光電業右下</t>
         </is>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>30.66</t>
+          <t>12.27</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr">
@@ -5269,29 +5269,29 @@
       </c>
       <c r="AV20" t="inlineStr">
         <is>
-          <t>** 文化創意業 - 數位內容產業** 休閒娛樂 - 設計開發</t>
+          <t>** 電腦及週邊設備 - 光學鏡片、鏡頭</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>3546</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3504.0</t>
+          <t>260.0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -5301,27 +5301,27 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>8.24</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>11.99</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>40.05</t>
+          <t>82.6</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -5331,72 +5331,72 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>14.79</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2224</t>
+          <t>1703</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -5411,32 +5411,32 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>169269.0</t>
+          <t>22805.0</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>哲固</t>
+          <t>宇峻</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>文化創意業</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
@@ -5446,57 +5446,57 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>28.14</t>
+          <t>15.14</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>19.83%</t>
+          <t>98.53%</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>3.38%</t>
+          <t>26.68%</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>60.37</t>
+          <t>107.65</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>1317</t>
+          <t>4456</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
+          <t>網路遊戲90.18%、權利金收入8.40%、其他1.42% (2024年)</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>哲固-光電業-上櫃</t>
+          <t>宇峻-文化創意業-上櫃</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>文化創意業右上</t>
         </is>
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>30.66</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="AV21" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
+          <t>** 文化創意業 - 數位內容產業** 休閒娛樂 - 設計開發</t>
         </is>
       </c>
     </row>
@@ -5573,17 +5573,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>15.22</t>
+          <t>22.87</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>1690</t>
+          <t>5860</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -5593,12 +5593,12 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -5628,7 +5628,7 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
@@ -5658,7 +5658,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
@@ -5713,12 +5713,12 @@
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>60.37</t>
+          <t>61.25</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>1018</t>
+          <t>1119</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
@@ -5815,17 +5815,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>-31.35</t>
+          <t>-43.86</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>77</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>4208</t>
+          <t>3675</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -5835,12 +5835,12 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -5870,7 +5870,7 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
@@ -5930,7 +5930,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>48.56</t>
+          <t>44.33</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
@@ -5955,12 +5955,12 @@
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>79.96</t>
+          <t>80.6</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>3006</t>
+          <t>2744</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
@@ -5975,7 +5975,7 @@
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="AS23" t="inlineStr">
@@ -6057,17 +6057,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>-8.16</t>
+          <t>-8.59</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>709</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>42509</t>
+          <t>105344</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -6077,24 +6077,24 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="T24" t="inlineStr">
         <is>
           <t>0.06</t>
@@ -6172,7 +6172,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
@@ -6182,7 +6182,7 @@
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>10.45</t>
+          <t>10.41</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
@@ -6197,12 +6197,12 @@
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>12.44</t>
+          <t>12.33</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>735033</t>
+          <t>732085</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -6244,87 +6244,87 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2890</t>
+          <t>2832</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>-0.58</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>611.908</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>30185.992</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>34.6</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>-0.85</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>29.11</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>22.55</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>-7.38</t>
+          <t>-8.46</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>1,137</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>36243</t>
+          <t>708</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -6334,42 +6334,42 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>56.0</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -6379,27 +6379,27 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>-1878059958.0</t>
+          <t>58941009.0</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>永豐金</t>
+          <t>台產</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
@@ -6414,57 +6414,57 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>9.94</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34.26%</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.99%</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>12.44</t>
+          <t>12.33</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>266403</t>
+          <t>11554</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>利息淨收益40.03%、手續費及佣金30.56%、公平價值變動之金融資產與金24.47%、透過其他綜合損益按公允價值2.57%、其他利息以外淨收益1.60%、兌換損益0.97%、權益投資收入 -關聯公司0.11%、除列按攤銷後成本衡量金融資0.06%、投資性不動產0.02% (2024年)</t>
+          <t>簽單保費120.89%、再保險保費6.86%、再保佣金4.57%、利息收入3.63%、透過其他綜合損益按公允價值2.88%、投資性不動產1.66%、投資兌換收益1.35%、手續費0.89%、權益法投資收益-關聯和合營公0.89%、其他營業收入0.26%、透過損益按公允價值衡量之金0.11% (2024年)</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>永豐金-金融保險-上市</t>
+          <t>台產-金融保險-上市</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS25" t="inlineStr">
         <is>
-          <t>16.19</t>
+          <t>33.88</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr">
@@ -6486,22 +6486,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2850</t>
+          <t>2607</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>237.625</t>
+          <t>5738.168</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -6511,27 +6511,27 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>6.79</t>
+          <t>13.53</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>114.0</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -6541,32 +6541,32 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>-4.11</t>
+          <t>-14.58</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>3550</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -6576,37 +6576,37 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>67.0</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -6621,32 +6621,32 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>67</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>73329676.0</t>
+          <t>74072959.0</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>新產</t>
+          <t>榮運</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
@@ -6656,57 +6656,57 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>16.5</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>10.46</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>38.68%</t>
+          <t>20.90%</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>19.18%</t>
+          <t>12.07%</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>12.44</t>
+          <t>15.81</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>34598</t>
+          <t>30734</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>簽單保費126.06%、再保險保費3.06%、利息收入2.85%、再保佣金2.11%、兌換損益1.54%、透過損益按公允價值衡量之金0.36%、投資性不動產0.35%、透過其他綜合損益按公允價值0.30%、採用覆蓋法重分類損益0.29%、手續費0.21%、其他營業收入0.17%、預期信用減損損失及迴轉利益0.02% (2024年)</t>
+          <t>客戶合約91.91%、租賃8.09% (2024年)</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>新產-金融保險-上市</t>
+          <t>榮運-航運業-上市</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="AS26" t="inlineStr">
         <is>
-          <t>60.88</t>
+          <t>33.32</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr">
@@ -6721,29 +6721,29 @@
       </c>
       <c r="AV26" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 交通運輸及航運 - 貨櫃航運、海陸空貨運承攬、貨櫃運輸集散及倉儲、海陸空大眾運輸</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2832</t>
+          <t>2539</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>611.908</t>
+          <t>1752.968</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -6753,27 +6753,27 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-2.66</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>23.32</t>
+          <t>36.29</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>34.6</t>
+          <t>63.6</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -6783,37 +6783,37 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>-7.45</t>
+          <t>-6.18</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>1764</t>
+          <t>1345</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -6823,32 +6823,32 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -6863,32 +6863,32 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>58941009.0</t>
+          <t>42579133.0</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>台產</t>
+          <t>櫻花建</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
@@ -6898,57 +6898,57 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>10.03</t>
+          <t>21.02</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>34.26%</t>
+          <t>46.98%</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>12.99%</t>
+          <t>42.67%</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>12.44</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>11663</t>
+          <t>59556</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>簽單保費120.89%、再保險保費6.86%、再保佣金4.57%、利息收入3.63%、透過其他綜合損益按公允價值2.88%、投資性不動產1.66%、投資兌換收益1.35%、手續費0.89%、權益法投資收益-關聯和合營公0.89%、其他營業收入0.26%、透過損益按公允價值衡量之金0.11% (2024年)</t>
+          <t>房地銷售99.91%、其他0.09% (2024年)</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>台產-金融保險-上市</t>
+          <t>櫻花建-建材營造-上市</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>33.88</t>
+          <t>14.37</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
@@ -6963,29 +6963,29 @@
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 建材營造 - 建設業</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2820</t>
+          <t>2474</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>410.879</t>
+          <t>2161.665</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -6995,87 +6995,87 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>213.5</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>-10.62</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>4066</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>7.17</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>15.2</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>-1.67</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>1775</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -7085,17 +7085,17 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -7105,32 +7105,32 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>5911421.0</t>
+          <t>-595216889.0</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>華票</t>
+          <t>可成</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
@@ -7140,57 +7140,57 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>14.66</t>
+          <t>9.82</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>32.11%</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.46%</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>12.44</t>
+          <t>34.73</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>20077</t>
+          <t>131310</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>手續費淨收益61.61%、透過其他綜合損益按公允價值18.22%、利息淨收益16.29%、兌換損益3.49%、透過損益按公允價值衡量之金0.66% (2024年)</t>
+          <t>機殼及內構件99.82%、租賃0.16%、勞務0.02% (2024年)</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>華票-金融保險-上市</t>
+          <t>可成-其他電子業-上市</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>其他電子業平</t>
         </is>
       </c>
       <c r="AS28" t="inlineStr">
         <is>
-          <t>18.78</t>
+          <t>245.07</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr">
@@ -7205,29 +7205,29 @@
       </c>
       <c r="AV28" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 電腦及週邊設備 - 機殼</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2607</t>
+          <t>2393</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>5738.168</t>
+          <t>1456.413</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -7237,27 +7237,27 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>13.53</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>85.0</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -7267,32 +7267,32 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>-14.19</t>
+          <t>-14.86</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>1835</t>
+          <t>2517</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -7302,37 +7302,37 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>67.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
@@ -7357,22 +7357,22 @@
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>74072959.0</t>
+          <t>87612160.0</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>榮運</t>
+          <t>億光</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
@@ -7382,57 +7382,57 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>7.18</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>11.17</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>11.12</t>
+          <t>11.14</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>20.90%</t>
+          <t>27.60%</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>12.07%</t>
+          <t>8.01%</t>
         </is>
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>15.19</t>
+          <t>69.16</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>30840</t>
+          <t>32811</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>客戶合約91.91%、租賃8.09% (2024年)</t>
+          <t>商品銷售98.80%、工程1.20% (2024年)</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>榮運-航運業-上市</t>
+          <t>億光-光電業-上市</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS29" t="inlineStr">
         <is>
-          <t>33.32</t>
+          <t>45.71</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr">
@@ -7447,29 +7447,29 @@
       </c>
       <c r="AV29" t="inlineStr">
         <is>
-          <t>** 交通運輸及航運 - 貨櫃航運、海陸空貨運承攬、貨櫃運輸集散及倉儲、海陸空大眾運輸</t>
+          <t>** 平面顯示器 - 背光源(發光二極體、冷陰極管)、顯示器模組** LED照明產業 - 封裝/模組、燈具/應用</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2539</t>
+          <t>2337</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>-1.72</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1752.968</t>
+          <t>103558.789</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -7479,202 +7479,202 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>-1.51</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>36.29</t>
+          <t>64.83</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>-21.22</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>30824</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
           <t>0.96</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>63.6</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>-99.0</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>389872949.0</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>旺宏</t>
+        </is>
+      </c>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>-7.8</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>644</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>35.0</t>
-        </is>
-      </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>2025-02-21</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
-      <c r="AD30" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="AE30" t="inlineStr">
-        <is>
-          <t>42579133.0</t>
-        </is>
-      </c>
-      <c r="AF30" t="inlineStr">
-        <is>
-          <t>櫻花建</t>
-        </is>
-      </c>
-      <c r="AG30" t="inlineStr">
-        <is>
-          <t>建材營造</t>
-        </is>
-      </c>
-      <c r="AH30" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI30" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>20.7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>46.98%</t>
+          <t>13.15%</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>42.67%</t>
+          <t>-29.64%</t>
         </is>
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>43.3</t>
+          <t>135.77</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>58661</t>
+          <t>34982</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>房地銷售99.91%、其他0.09% (2024年)</t>
+          <t>快閃記憶體產品70.80%、ROM20.88%、Foundry8.28%、其他0.04% (2024年)</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>櫻花建-建材營造-上市</t>
+          <t>旺宏-半導體業-上市</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>建材營造平</t>
+          <t>半導體業右下</t>
         </is>
       </c>
       <c r="AS30" t="inlineStr">
         <is>
-          <t>14.37</t>
+          <t>23.72</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr">
@@ -7689,7 +7689,7 @@
       </c>
       <c r="AV30" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建設業</t>
+          <t>** 半導體 - IC封裝測試、記憶體IC、晶圓製造</t>
         </is>
       </c>
     </row>
@@ -7701,17 +7701,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2474</t>
+          <t>2208</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2161.665</t>
+          <t>4911.97</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -7721,27 +7721,27 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>10.89</t>
+          <t>21.52</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>213.5</t>
+          <t>17.7</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -7751,72 +7751,72 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>-9.77</t>
+          <t>-1.14</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>50</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>871</t>
+          <t>7195</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>7.89</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>61.0</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -7831,7 +7831,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
@@ -7841,22 +7841,22 @@
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>-595216889.0</t>
+          <t>113805106.0</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>可成</t>
+          <t>台船</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
@@ -7866,57 +7866,57 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>32.11%</t>
+          <t>-41.12%</t>
         </is>
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>18.46%</t>
+          <t>-47.81%</t>
         </is>
       </c>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>34.6</t>
+          <t>15.81</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>132331</t>
+          <t>20274</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>機殼及內構件99.82%、租賃0.16%、勞務0.02% (2024年)</t>
+          <t>造船68.32%、機械20.74%、船艦維修7.65%、其他2.83%、防蝕塗裝0.46% (2024年)</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
-          <t>可成-其他電子業-上市</t>
+          <t>台船-航運業-上市</t>
         </is>
       </c>
       <c r="AR31" t="inlineStr">
         <is>
-          <t>其他電子業平</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="AS31" t="inlineStr">
         <is>
-          <t>245.07</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr">
@@ -7931,29 +7931,29 @@
       </c>
       <c r="AV31" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 機殼</t>
+          <t>** 其他 - 其他** 風力發電 - 風場營造</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2393</t>
+          <t>2206</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1456.413</t>
+          <t>1005.034</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -7963,27 +7963,27 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>85.0</t>
+          <t>71.9</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -7993,72 +7993,72 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>-14.71</t>
+          <t>-3.01</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>29</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>1160</t>
+          <t>2952</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -8083,22 +8083,22 @@
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>87612160.0</t>
+          <t>-98851935.0</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>億光</t>
+          <t>三陽工業</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>汽車工業</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
@@ -8108,57 +8108,57 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>7.17</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>11.17</t>
+          <t>18.36</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>11.16</t>
+          <t>11.59</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>27.60%</t>
+          <t>20.57%</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>8.01%</t>
+          <t>7.38%</t>
         </is>
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>69.03</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>32855</t>
+          <t>55665</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>商品銷售98.80%、工程1.20% (2024年)</t>
+          <t>商品銷售96.28%、其他1.77%、技術服務1.02%、租賃0.90%、設計服務0.04% (2024年)</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>億光-光電業-上市</t>
+          <t>三陽工業-汽車工業-上市</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>汽車工業平</t>
         </is>
       </c>
       <c r="AS32" t="inlineStr">
         <is>
-          <t>45.71</t>
+          <t>31.74</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr">
@@ -8173,29 +8173,29 @@
       </c>
       <c r="AV32" t="inlineStr">
         <is>
-          <t>** 平面顯示器 - 背光源(發光二極體、冷陰極管)、顯示器模組** LED照明產業 - 封裝/模組、燈具/應用</t>
+          <t>** 汽車 - 整車組裝、修理及技術服務、銷售、進出口業務</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2337</t>
+          <t>2105</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-1.72</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>103558.789</t>
+          <t>9856.928</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -8205,27 +8205,27 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-1.51</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>64.83</t>
+          <t>11.92</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>22.85</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -8235,72 +8235,72 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>-21.87</t>
+          <t>-3.8</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>3593</t>
+          <t>9890</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>-99.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -8315,32 +8315,32 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>389872949.0</t>
+          <t>808636086.0</t>
         </is>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>旺宏</t>
+          <t>正新</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>橡膠工業</t>
         </is>
       </c>
       <c r="AH33" t="inlineStr">
@@ -8350,57 +8350,57 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20.24</t>
         </is>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
-          <t>13.15%</t>
+          <t>20.89%</t>
         </is>
       </c>
       <c r="AM33" t="inlineStr">
         <is>
-          <t>-29.64%</t>
+          <t>6.67%</t>
         </is>
       </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>134.18</t>
+          <t>19.41</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>34797</t>
+          <t>162071</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>快閃記憶體產品70.80%、ROM20.88%、Foundry8.28%、其他0.04% (2024年)</t>
+          <t>人力車輪胎,動力車輪胎,再生99.71%、其他0.29% (2024年)</t>
         </is>
       </c>
       <c r="AQ33" t="inlineStr">
         <is>
-          <t>旺宏-半導體業-上市</t>
+          <t>正新-橡膠工業-上市</t>
         </is>
       </c>
       <c r="AR33" t="inlineStr">
         <is>
-          <t>半導體業右下</t>
+          <t>橡膠工業右上</t>
         </is>
       </c>
       <c r="AS33" t="inlineStr">
         <is>
-          <t>23.72</t>
+          <t>27.71</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr">
@@ -8415,29 +8415,29 @@
       </c>
       <c r="AV33" t="inlineStr">
         <is>
-          <t>** 半導體 - IC封裝測試、記憶體IC、晶圓製造</t>
+          <t>** 石化及塑橡膠 - 橡膠製品</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2208</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4911.97</t>
+          <t>13730.019</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -8447,27 +8447,27 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>15.02</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>21.52</t>
+          <t>54.31</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>17.7</t>
+          <t>10.95</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -8477,77 +8477,77 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>-5.04</t>
+          <t>-3.3</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>4720</t>
+          <t>3840</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>29.39</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>61.0</t>
+          <t>295.0</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>69.0</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -8557,32 +8557,32 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>69</t>
         </is>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>113805106.0</t>
+          <t>248539095.0</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>台船</t>
+          <t>冠軍</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>玻璃陶瓷</t>
         </is>
       </c>
       <c r="AH34" t="inlineStr">
@@ -8592,57 +8592,57 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34.19</t>
         </is>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
-          <t>-41.12%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>-47.81%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>15.19</t>
+          <t>44.38</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>19521</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
         <is>
-          <t>造船68.32%、機械20.74%、船艦維修7.65%、其他2.83%、防蝕塗裝0.46% (2024年)</t>
+          <t>瓷磚98.03%、木地板(坪/平方公尺/片)1.97% (2023年)</t>
         </is>
       </c>
       <c r="AQ34" t="inlineStr">
         <is>
-          <t>台船-航運業-上市</t>
+          <t>冠軍-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR34" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS34" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>14.4</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr">
@@ -8657,7 +8657,7 @@
       </c>
       <c r="AV34" t="inlineStr">
         <is>
-          <t>** 其他 - 其他** 風力發電 - 風場營造</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
@@ -8669,17 +8669,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2206</t>
+          <t>1736</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1005.034</t>
+          <t>3846.353</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -8689,67 +8689,67 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>11.31</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>48.01</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>216.5</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>-20.61</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>2938</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
           <t>0.89</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>71.9</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>-5.27</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>5384</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>-3.95</t>
+          <t>12.85</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -8759,37 +8759,37 @@
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>96.0</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -8799,32 +8799,32 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>-98851935.0</t>
+          <t>1510907063.0</t>
         </is>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>三陽工業</t>
+          <t>喬山</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>汽車工業</t>
+          <t>運動休閒</t>
         </is>
       </c>
       <c r="AH35" t="inlineStr">
@@ -8834,57 +8834,57 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>18.36</t>
+          <t>57.29</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>11.35</t>
+          <t>22.41</t>
         </is>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
-          <t>20.57%</t>
+          <t>50.62%</t>
         </is>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
-          <t>7.38%</t>
+          <t>12.37%</t>
         </is>
       </c>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>16.96</t>
+          <t>18.48</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>54468</t>
+          <t>54459</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
         <is>
-          <t>商品銷售96.28%、其他1.77%、技術服務1.02%、租賃0.90%、設計服務0.04% (2024年)</t>
+          <t>健身器材,心肺復甦健身機,重96.38%、其他3.62% (2024年)</t>
         </is>
       </c>
       <c r="AQ35" t="inlineStr">
         <is>
-          <t>三陽工業-汽車工業-上市</t>
+          <t>喬山-運動休閒-上市</t>
         </is>
       </c>
       <c r="AR35" t="inlineStr">
         <is>
-          <t>汽車工業平</t>
+          <t>運動休閒右上</t>
         </is>
       </c>
       <c r="AS35" t="inlineStr">
         <is>
-          <t>31.74</t>
+          <t>39.69</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="AV35" t="inlineStr">
         <is>
-          <t>** 汽車 - 整車組裝、修理及技術服務、銷售、進出口業務</t>
+          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
@@ -8911,17 +8911,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2105</t>
+          <t>1584</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>9.69</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>9856.928</t>
+          <t>10467.0</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -8931,17 +8931,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>11.92</t>
+          <t>16.92</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -8951,7 +8951,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>51.9</t>
+          <t>30.8</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -8961,32 +8961,32 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>-6.24</t>
+          <t>-10.79</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>28</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>8791</t>
+          <t>8134</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -8996,42 +8996,42 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -9041,92 +9041,92 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>76</t>
         </is>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>808636086.0</t>
+          <t>492051.0</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>正新</t>
+          <t>精剛</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>橡膠工業</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>19.78</t>
+          <t>17.71</t>
         </is>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
-          <t>20.89%</t>
+          <t>15.15%</t>
         </is>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>6.67%</t>
+          <t>-2.28%</t>
         </is>
       </c>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>19.16</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>158343</t>
+          <t>6463</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
         <is>
-          <t>人力車輪胎,動力車輪胎,再生99.71%、其他0.29% (2024年)</t>
+          <t>特殊合金素材及成品件92.58%、加工業務7.42% (2024年)</t>
         </is>
       </c>
       <c r="AQ36" t="inlineStr">
         <is>
-          <t>正新-橡膠工業-上市</t>
+          <t>精剛-其他-上櫃</t>
         </is>
       </c>
       <c r="AR36" t="inlineStr">
         <is>
-          <t>橡膠工業右上</t>
+          <t>其他右下</t>
         </is>
       </c>
       <c r="AS36" t="inlineStr">
         <is>
-          <t>27.71</t>
+          <t>21.51</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr">
@@ -9141,29 +9141,29 @@
       </c>
       <c r="AV36" t="inlineStr">
         <is>
-          <t>** 石化及塑橡膠 - 橡膠製品</t>
+          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>1240</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>9.89</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>13730.019</t>
+          <t>1348.0</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -9173,27 +9173,27 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>15.02</t>
+          <t>13.27</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>54.31</t>
+          <t>34.35</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>10.95</t>
+          <t>62.3</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -9203,37 +9203,37 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-11.45</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>10758</t>
+          <t>782</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -9243,37 +9243,37 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>29.39</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>295.0</t>
+          <t>151.0</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>69.0</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -9283,7 +9283,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
@@ -9293,82 +9293,82 @@
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>76</t>
         </is>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>248539095.0</t>
+          <t>83956.0</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>冠軍</t>
+          <t>茂生農經</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>玻璃陶瓷</t>
+          <t>農業科技業</t>
         </is>
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>17.51</t>
         </is>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>35.16</t>
+          <t>12.88</t>
         </is>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
-          <t>24.19%</t>
+          <t>13.83%</t>
         </is>
       </c>
       <c r="AM37" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>5.37%</t>
         </is>
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>42.45</t>
+          <t>45.67</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>4255</t>
+          <t>2311</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>瓷磚98.03%、木地板(坪/平方公尺/片)1.97% (2023年)</t>
+          <t>禽畜飼料56.08%、蛋品22.89%、養殖13.65%、大宗原物料買賣7.11%、其他0.28% (2023年)</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
-          <t>冠軍-玻璃陶瓷-上市</t>
+          <t>茂生農經-農業科技業-上櫃</t>
         </is>
       </c>
       <c r="AR37" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="AS37" t="inlineStr">
         <is>
-          <t>14.4</t>
+          <t>34.98</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr">
@@ -9382,974 +9382,6 @@
         </is>
       </c>
       <c r="AV37" t="inlineStr">
-        <is>
-          <t>** 建材營造 - 建材原料</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2025-04-01</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>1736</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>3846.353</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>11.31</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>48.01</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>216.5</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>-24.78</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>654</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>96.0</t>
-        </is>
-      </c>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA38" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>2025-04-01</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="AD38" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AE38" t="inlineStr">
-        <is>
-          <t>1510907063.0</t>
-        </is>
-      </c>
-      <c r="AF38" t="inlineStr">
-        <is>
-          <t>喬山</t>
-        </is>
-      </c>
-      <c r="AG38" t="inlineStr">
-        <is>
-          <t>運動休閒</t>
-        </is>
-      </c>
-      <c r="AH38" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI38" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="AJ38" t="inlineStr">
-        <is>
-          <t>57.29</t>
-        </is>
-      </c>
-      <c r="AK38" t="inlineStr">
-        <is>
-          <t>21.66</t>
-        </is>
-      </c>
-      <c r="AL38" t="inlineStr">
-        <is>
-          <t>50.62%</t>
-        </is>
-      </c>
-      <c r="AM38" t="inlineStr">
-        <is>
-          <t>12.37%</t>
-        </is>
-      </c>
-      <c r="AN38" t="inlineStr">
-        <is>
-          <t>18.34</t>
-        </is>
-      </c>
-      <c r="AO38" t="inlineStr">
-        <is>
-          <t>52639</t>
-        </is>
-      </c>
-      <c r="AP38" t="inlineStr">
-        <is>
-          <t>健身器材,心肺復甦健身機,重96.38%、其他3.62% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ38" t="inlineStr">
-        <is>
-          <t>喬山-運動休閒-上市</t>
-        </is>
-      </c>
-      <c r="AR38" t="inlineStr">
-        <is>
-          <t>運動休閒右上</t>
-        </is>
-      </c>
-      <c r="AS38" t="inlineStr">
-        <is>
-          <t>39.69</t>
-        </is>
-      </c>
-      <c r="AT38" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU38" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV38" t="inlineStr">
-        <is>
-          <t>** 其他 - 其他</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2025-04-01</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>1584</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>9.69</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>10467.0</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>16.92</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>30.8</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>-12.82</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>1332</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>29.0</t>
-        </is>
-      </c>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>76.0</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA39" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="AD39" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="AE39" t="inlineStr">
-        <is>
-          <t>492051.0</t>
-        </is>
-      </c>
-      <c r="AF39" t="inlineStr">
-        <is>
-          <t>精剛</t>
-        </is>
-      </c>
-      <c r="AG39" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="AH39" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI39" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>17.39</t>
-        </is>
-      </c>
-      <c r="AL39" t="inlineStr">
-        <is>
-          <t>15.15%</t>
-        </is>
-      </c>
-      <c r="AM39" t="inlineStr">
-        <is>
-          <t>-2.28%</t>
-        </is>
-      </c>
-      <c r="AN39" t="inlineStr">
-        <is>
-          <t>65.31</t>
-        </is>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>6346</t>
-        </is>
-      </c>
-      <c r="AP39" t="inlineStr">
-        <is>
-          <t>特殊合金素材及成品件92.58%、加工業務7.42% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ39" t="inlineStr">
-        <is>
-          <t>精剛-其他-上櫃</t>
-        </is>
-      </c>
-      <c r="AR39" t="inlineStr">
-        <is>
-          <t>其他右下</t>
-        </is>
-      </c>
-      <c r="AS39" t="inlineStr">
-        <is>
-          <t>21.51</t>
-        </is>
-      </c>
-      <c r="AT39" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU39" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV39" t="inlineStr">
-        <is>
-          <t>** 其他 - 其他</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>1506</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>8.11</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1550.609</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>7.46</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>70.77</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>1.3</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>-18.14</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>504</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>-95.0</t>
-        </is>
-      </c>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>136.0</t>
-        </is>
-      </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA40" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
-      <c r="AD40" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="AE40" t="inlineStr">
-        <is>
-          <t>18366660.0</t>
-        </is>
-      </c>
-      <c r="AF40" t="inlineStr">
-        <is>
-          <t>正道</t>
-        </is>
-      </c>
-      <c r="AG40" t="inlineStr">
-        <is>
-          <t>電機機械</t>
-        </is>
-      </c>
-      <c r="AH40" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ40" t="inlineStr">
-        <is>
-          <t>0.9</t>
-        </is>
-      </c>
-      <c r="AK40" t="inlineStr">
-        <is>
-          <t>84.64</t>
-        </is>
-      </c>
-      <c r="AL40" t="inlineStr">
-        <is>
-          <t>21.00%</t>
-        </is>
-      </c>
-      <c r="AM40" t="inlineStr">
-        <is>
-          <t>4.52%</t>
-        </is>
-      </c>
-      <c r="AN40" t="inlineStr">
-        <is>
-          <t>30.1</t>
-        </is>
-      </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>1948</t>
-        </is>
-      </c>
-      <c r="AP40" t="inlineStr">
-        <is>
-          <t>汽車零件87.18%、系統櫃12.82% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ40" t="inlineStr">
-        <is>
-          <t>正道-電機機械-上市</t>
-        </is>
-      </c>
-      <c r="AR40" t="inlineStr">
-        <is>
-          <t>電機機械右下</t>
-        </is>
-      </c>
-      <c r="AS40" t="inlineStr">
-        <is>
-          <t>9.04</t>
-        </is>
-      </c>
-      <c r="AT40" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU40" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV40" t="inlineStr">
-        <is>
-          <t>** 電機機械 - 車用機械傳動設備及零配件、冷凍空調設備及零件、金屬加工處理** 汽車 - 其他</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2025-04-09</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>1240</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>9.89</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>1348.0</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>13.27</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>34.35</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>62.3</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>-11.05</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>3924</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>-22.10</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>151.0</t>
-        </is>
-      </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>76.0</t>
-        </is>
-      </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA41" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>2025-04-09</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
-      <c r="AD41" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="AE41" t="inlineStr">
-        <is>
-          <t>83956.0</t>
-        </is>
-      </c>
-      <c r="AF41" t="inlineStr">
-        <is>
-          <t>茂生農經</t>
-        </is>
-      </c>
-      <c r="AG41" t="inlineStr">
-        <is>
-          <t>農業科技業</t>
-        </is>
-      </c>
-      <c r="AH41" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI41" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="AJ41" t="inlineStr">
-        <is>
-          <t>17.51</t>
-        </is>
-      </c>
-      <c r="AK41" t="inlineStr">
-        <is>
-          <t>12.93</t>
-        </is>
-      </c>
-      <c r="AL41" t="inlineStr">
-        <is>
-          <t>13.83%</t>
-        </is>
-      </c>
-      <c r="AM41" t="inlineStr">
-        <is>
-          <t>5.37%</t>
-        </is>
-      </c>
-      <c r="AN41" t="inlineStr">
-        <is>
-          <t>46.51</t>
-        </is>
-      </c>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>2319</t>
-        </is>
-      </c>
-      <c r="AP41" t="inlineStr">
-        <is>
-          <t>禽畜飼料56.08%、蛋品22.89%、養殖13.65%、大宗原物料買賣7.11%、其他0.28% (2023年)</t>
-        </is>
-      </c>
-      <c r="AQ41" t="inlineStr">
-        <is>
-          <t>茂生農經-農業科技業-上櫃</t>
-        </is>
-      </c>
-      <c r="AR41" t="inlineStr">
-        <is>
-          <t>農業科技業右上</t>
-        </is>
-      </c>
-      <c r="AS41" t="inlineStr">
-        <is>
-          <t>34.98</t>
-        </is>
-      </c>
-      <c r="AT41" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU41" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV41" t="inlineStr">
         <is>
           <t>** 其他 - 農業科技業</t>
         </is>

--- a/Result/check2.xlsx
+++ b/Result/check2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV37"/>
+  <dimension ref="A1:AV29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-5.11</t>
+          <t>-4.99</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1027</t>
+          <t>590</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>-2.16</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>14.81</t>
+          <t>14.83</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>10.81</t>
+          <t>10.9</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>19459</t>
+          <t>19481</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10.02</t>
+          <t>-2.24</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>37928.539</t>
+          <t>24720.456</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,27 +945,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>11.76</t>
+          <t>-10.38</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>-3.93</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>28.81</t>
+          <t>18.78</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -975,57 +975,57 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>105</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>31341</t>
+          <t>24720</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-5.45</t>
+          <t>-10.38</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>267.0</t>
+          <t>-11.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>92.0</t>
+          <t>94.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1060,17 +1060,17 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>94</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1066421904.0</t>
+          <t>564124576.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>34.9</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>30.03</t>
+          <t>30.42</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>3648</t>
+          <t>3566</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>13.78</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>59</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>13401</t>
+          <t>9533</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>13.35</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>26.68</t>
+          <t>29.32</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>14.26</t>
+          <t>14.54</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>2668</t>
+          <t>2932</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-28.24</t>
+          <t>-26.52</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1828</t>
+          <t>1413</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>-3.40</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>55.17</t>
+          <t>55.92</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>61.25</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>2857</t>
+          <t>2896</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-35.11</t>
+          <t>-39.56</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>3239</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>-5.09</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>18.42</t>
+          <t>17.83</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>18.48</t>
+          <t>18.63</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>70331</t>
+          <t>68086</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1943,17 +1943,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>3019</t>
+          <t>773</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1963,12 +1963,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>30.93</t>
+          <t>31.2</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1087</t>
+          <t>1195</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2185,17 +2185,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-40.27</t>
+          <t>-39.33</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1757</t>
+          <t>974</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2205,12 +2205,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-3.81</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>17.03</t>
+          <t>17.14</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>49.14</t>
+          <t>50.07</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>4911</t>
+          <t>4944</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2427,17 +2427,17 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-17.72</t>
+          <t>-16.25</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2192</t>
+          <t>1692</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2447,12 +2447,12 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>13.94</t>
+          <t>-2.47</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>13.64</t>
+          <t>13.81</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>24.27</t>
+          <t>24.81</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>14467</t>
+          <t>14650</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2614,22 +2614,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6166</t>
+          <t>6165</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2180.698</t>
+          <t>1221.698</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,17 +2639,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>12.17</t>
+          <t>15.80</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2669,32 +2669,32 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-26.76</t>
+          <t>-2.83</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2132</t>
+          <t>2183</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>8.13</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2704,37 +2704,37 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2754,27 +2754,27 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>566450758.0</t>
+          <t>39133564.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>凌華</t>
+          <t>浪凡</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>數位雲端</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2784,57 +2784,57 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>14.12</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>308.7</t>
+          <t>46.81</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>36.66%</t>
+          <t>25.57%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>4.75%</t>
+          <t>1.84%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>80.6</t>
+          <t>33.2</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>15442</t>
+          <t>3713</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>商品銷售98.76%、軟體授權及服務1.24% (2024年)</t>
+          <t>直播平台營運99.63%、商品銷售0.37% (2024年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>凌華-電腦及週邊設備業-上市</t>
+          <t>浪凡-數位雲端-上市</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>數位雲端右上</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>24.72</t>
+          <t>18.63</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2849,234 +2849,234 @@
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 工業電腦</t>
+          <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6165</t>
+          <t>5876</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18760.376</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>28.42</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1221.698</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>46.85</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>11447</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
         <is>
           <t>0.14</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>15.80</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>49.1</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>933723304.0</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>上海商銀</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>金融保險</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>-8.63</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>1579</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>8.74</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>49.0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>39133564.0</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>浪凡</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>數位雲端</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>9.15</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>44.31</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>25.57%</t>
-        </is>
-      </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>1.84%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>32.4</t>
+          <t>12.33</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>3514</t>
+          <t>230926</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>直播平台營運99.63%、商品銷售0.37% (2024年)</t>
+          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>浪凡-數位雲端-上市</t>
+          <t>上海商銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>數位雲端右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>18.63</t>
+          <t>40.81</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
@@ -3091,14 +3091,14 @@
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>** 連接器 - 連接器設計、組裝及製造</t>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3108,12 +3108,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>18760.376</t>
+          <t>8507.314</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3123,174 +3123,174 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>28.42</t>
+          <t>12.89</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>45.35</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>11447</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>46.85</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>-523578800.0</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>上海商銀</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>金融保險</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>22443</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>36.0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>29.0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>2025-04-10</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>2025-04-12</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>933723304.0</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>上海商銀</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>金融保險</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>17.19</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AN12" t="inlineStr">
         <is>
           <t>12.33</t>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>232385</t>
+          <t>230926</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -3345,17 +3345,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>5515</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8507.314</t>
+          <t>1515.371</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3365,27 +3365,27 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>12.89</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>45.35</t>
+          <t>32.2</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3395,57 +3395,57 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>-16.04</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>22443</t>
+          <t>1094</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>-1.26</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -3475,7 +3475,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
@@ -3485,22 +3485,22 @@
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>-523578800.0</t>
+          <t>-4009402.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>上海商銀</t>
+          <t>建國</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -3510,57 +3510,57 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>10.89</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>17.19</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14.36%</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.93%</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>12.33</t>
+          <t>43.94</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>232385</t>
+          <t>5594</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
+          <t>工程99.99%、其他0.01% (2024年)</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>上海商銀-金融保險-上市</t>
+          <t>建國-建材營造-上市</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>40.81</t>
+          <t>24.48</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 建材營造 - 建材原料、營造業</t>
         </is>
       </c>
     </row>
@@ -3587,17 +3587,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5515</t>
+          <t>5315</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1515.371</t>
+          <t>5587.0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3607,27 +3607,27 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>20.57</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>32.2</t>
+          <t>24.4</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3637,72 +3637,72 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>-15.0</t>
+          <t>-24.49</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1146</t>
+          <t>1526</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>-3.31</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -3717,7 +3717,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
@@ -3727,82 +3727,82 @@
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>-4009402.0</t>
+          <t>136311.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>建國</t>
+          <t>光聯</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>7.68</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>10.89</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>8.28</t>
+          <t>16.2</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>14.36%</t>
+          <t>14.01%</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>8.93%</t>
+          <t>6.08%</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>5645</t>
+          <t>2084</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>工程99.99%、其他0.01% (2024年)</t>
+          <t>商品銷售99.83%、工程0.17% (2024年)</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>建國-建材營造-上市</t>
+          <t>光聯-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>光電業平</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>24.48</t>
+          <t>16.11</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料、營造業</t>
+          <t>** 電腦及週邊設備 - 面板、顯示器模組** 平面顯示器 - 面板、顯示器模組</t>
         </is>
       </c>
     </row>
@@ -3829,17 +3829,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5315</t>
+          <t>5201</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>9.73</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5587.0</t>
+          <t>3884.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3849,27 +3849,27 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>20.57</t>
+          <t>66.12</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>24.4</t>
+          <t>40.15</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3879,37 +3879,37 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>-25.45</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>2118</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -3919,32 +3919,32 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>66.0</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -3959,7 +3959,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -3969,22 +3969,22 @@
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>66</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>136311.0</t>
+          <t>186429.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>光聯</t>
+          <t>凱衛</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -3994,57 +3994,57 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>7.71</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>16.07</t>
+          <t>18.33</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>14.01%</t>
+          <t>49.86%</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>6.08%</t>
+          <t>11.96%</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>61.25</t>
+          <t>24.46</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>2069</t>
+          <t>1265</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>商品銷售99.83%、工程0.17% (2024年)</t>
+          <t>軟硬體系統整合43.11%、勞務及維修35.15%、授權21.73% (2024年)</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>光聯-光電業-上櫃</t>
+          <t>凱衛-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>光電業平</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>16.11</t>
+          <t>14.62</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 面板、顯示器模組** 平面顯示器 - 面板、顯示器模組</t>
+          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務</t>
         </is>
       </c>
     </row>
@@ -4071,17 +4071,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5201</t>
+          <t>4532</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>9.73</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3884.0</t>
+          <t>2822.424</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -4091,17 +4091,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>66.12</t>
+          <t>17.47</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>40.15</t>
+          <t>31.35</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -4121,72 +4121,72 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>-7.07</t>
+          <t>-25.9</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>914</t>
+          <t>3896</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>-3.01</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>66.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -4211,82 +4211,82 @@
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>186429.0</t>
+          <t>-79236396.0</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>凱衛</t>
+          <t>瑞智</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>10.89</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>16.67</t>
+          <t>12.33</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>49.86%</t>
+          <t>16.31%</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>11.96%</t>
+          <t>6.20%</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>24.04</t>
+          <t>30.42</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>12572</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>軟硬體系統整合43.11%、勞務及維修35.15%、授權21.73% (2024年)</t>
+          <t>壓縮機95.48%、其他2.49%、BLDC馬達2.03% (2024年)</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>凱衛-資訊服務業-上櫃</t>
+          <t>瑞智-電機機械-上市</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>14.62</t>
+          <t>21.35</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
@@ -4301,29 +4301,29 @@
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務</t>
+          <t>** 電機機械 - 冷凍空調設備及零件</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4532</t>
+          <t>4174</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2822.424</t>
+          <t>906.0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4333,17 +4333,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>17.47</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -4353,7 +4353,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>31.35</t>
+          <t>62.0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -4363,72 +4363,72 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>-26.67</t>
+          <t>-28.63</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>6596</t>
+          <t>825</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>6.33</t>
+          <t>-1.33</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-99.0</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -4443,7 +4443,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -4453,82 +4453,82 @@
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>-79236396.0</t>
+          <t>42448.0</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>瑞智</t>
+          <t>浩鼎</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>10.89</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>12.25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>16.31%</t>
+          <t>-182.78%</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>6.20%</t>
+          <t>-6,249.84%</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>30.03</t>
+          <t>77.75</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>12497</t>
+          <t>12684</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>壓縮機95.48%、其他2.49%、BLDC馬達2.03% (2024年)</t>
+          <t>委託開發暨製造服務97.00%、專利權收入3.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>瑞智-電機機械-上市</t>
+          <t>浩鼎-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>21.35</t>
+          <t>14.51</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
@@ -4543,234 +4543,234 @@
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>** 電機機械 - 冷凍空調設備及零件</t>
+          <t>** 製藥 - 原材料</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3297</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2231.0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>13.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>16.97</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>23.95</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>7745</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
           <t>2025-04-02</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>4174</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>906.0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>130342.0</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>杭特</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>-0.19</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>7.52</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>62.0</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>-32.2</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>1511</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>-99.0</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>13.0</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AE18" t="inlineStr">
-        <is>
-          <t>42448.0</t>
-        </is>
-      </c>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>浩鼎</t>
-        </is>
-      </c>
-      <c r="AG18" t="inlineStr">
-        <is>
-          <t>生技醫療業</t>
-        </is>
-      </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>-182.78%</t>
+          <t>33.49%</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>-6,249.84%</t>
+          <t>-25.64%</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>76.11</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>12342</t>
+          <t>1231</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>委託開發暨製造服務97.00%、專利權收入3.00% (2024年)</t>
+          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>浩鼎-生技醫療業-上櫃</t>
+          <t>杭特-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>14.51</t>
+          <t>15.63</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
@@ -4785,29 +4785,29 @@
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>** 製藥 - 原材料</t>
+          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3680</t>
+          <t>2753</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-1.83</t>
+          <t>-0.55</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1080.0</t>
+          <t>2350.041</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4817,27 +4817,27 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>-2.92</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>18.40</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>430.0</t>
+          <t>181.5</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -4847,172 +4847,172 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>-15.44</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>1890</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>15.50</t>
+          <t>-2.92</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>-8.03</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>-12.97</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>60244.0</t>
+          <t>57619866.0</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>家登</t>
+          <t>八方雲集</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>觀光事業</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>15.38</t>
+          <t>32.05</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>30.24</t>
+          <t>20.1</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>37.61%</t>
+          <t>33.79%</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>7.03%</t>
+          <t>9.20%</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>55.28</t>
+          <t>103.37</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>35775</t>
+          <t>12096</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>光罩載具34.97%、晶圓載具29.68%、機械設備17.57%、其他16.42%、半導體製造原料耗材1.35% (2024年)</t>
+          <t>連鎖式餐飲店及連鎖加盟業者99.74%、授權0.26% (2024年)</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>家登-半導體業-上櫃</t>
+          <t>八方雲集-觀光事業-上市</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>半導體業右下</t>
+          <t>觀光事業平</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>104.38</t>
+          <t>53.62</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
@@ -5027,29 +5027,29 @@
       </c>
       <c r="AV19" t="inlineStr">
         <is>
-          <t>** 半導體 - 生產製程及檢測設備</t>
+          <t>** 食品 - 加工食品、餐飲連鎖</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3630</t>
+          <t>2607</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>7.84</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7308.0</t>
+          <t>5738.168</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -5059,27 +5059,27 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>31.95</t>
+          <t>13.53</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -5089,72 +5089,72 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>-37.36</t>
+          <t>-13.79</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>8.98</t>
+          <t>-3.10</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>-100.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>108.0</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>67.0</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -5164,12 +5164,12 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
@@ -5179,82 +5179,82 @@
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>67</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>200023.0</t>
+          <t>74072959.0</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>新鉅科</t>
+          <t>榮運</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11.15</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>2.42%</t>
+          <t>20.90%</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>-35.99%</t>
+          <t>12.07%</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>61.25</t>
+          <t>16.1</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>3716</t>
+          <t>30947</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>鏡頭模組100.00% (2024年)</t>
+          <t>貨物承攬業71.42%、內陸運輸服務8.86%、租賃8.09%、國際海運6.80%、貨櫃場2.84%、加油站1.98% (2024年)</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>新鉅科-光電業-上櫃</t>
+          <t>榮運-航運業-上市</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>光電業右下</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>12.27</t>
+          <t>33.32</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr">
@@ -5269,29 +5269,29 @@
       </c>
       <c r="AV20" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 光學鏡片、鏡頭</t>
+          <t>** 交通運輸及航運 - 貨櫃航運、海陸空貨運承攬、貨櫃運輸集散及倉儲、海陸空大眾運輸</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3546</t>
+          <t>2539</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>260.0</t>
+          <t>1752.968</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -5301,27 +5301,27 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>-2.66</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>36.29</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>82.6</t>
+          <t>63.6</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -5331,62 +5331,62 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>-4.78</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>1703</t>
+          <t>1588</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
@@ -5396,7 +5396,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -5411,92 +5411,92 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>22805.0</t>
+          <t>42579133.0</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>宇峻</t>
+          <t>櫻花建</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>文化創意業</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>6.08</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>15.14</t>
+          <t>21.3</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>98.53%</t>
+          <t>46.98%</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>26.68%</t>
+          <t>42.67%</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>107.65</t>
+          <t>43.94</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>4456</t>
+          <t>60351</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>網路遊戲90.18%、權利金收入8.40%、其他1.42% (2024年)</t>
+          <t>房地銷售99.91%、其他0.09% (2024年)</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>宇峻-文化創意業-上櫃</t>
+          <t>櫻花建-建材營造-上市</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>文化創意業右上</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>30.66</t>
+          <t>14.37</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
@@ -5511,29 +5511,29 @@
       </c>
       <c r="AV21" t="inlineStr">
         <is>
-          <t>** 文化創意業 - 數位內容產業** 休閒娛樂 - 設計開發</t>
+          <t>** 建材營造 - 建設業</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3297</t>
+          <t>2474</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>9.89</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2231.0</t>
+          <t>2161.665</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5543,27 +5543,27 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>13.51</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>16.97</t>
+          <t>10.89</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>23.95</t>
+          <t>213.5</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -5573,37 +5573,37 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>22.87</t>
+          <t>-10.91</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>5860</t>
+          <t>2246</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>-2.34</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -5613,32 +5613,32 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>125.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>87.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -5653,92 +5653,92 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>130342.0</t>
+          <t>-595216889.0</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>杭特</t>
+          <t>可成</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>33.49%</t>
+          <t>32.11%</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>-25.64%</t>
+          <t>18.46%</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>61.25</t>
+          <t>35.49</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>1119</t>
+          <t>130970</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
+          <t>機殼及內構件99.82%、租賃0.16%、勞務0.02% (2024年)</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>杭特-光電業-上櫃</t>
+          <t>可成-其他電子業-上市</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>其他電子業平</t>
         </is>
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>15.63</t>
+          <t>245.07</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
@@ -5753,29 +5753,29 @@
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
+          <t>** 電腦及週邊設備 - 機殼</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3060</t>
+          <t>2393</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2940.528</t>
+          <t>1456.413</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -5785,27 +5785,27 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>28.7</t>
+          <t>85.0</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -5815,72 +5815,72 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>-43.86</t>
+          <t>-12.43</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>3675</t>
+          <t>2315</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -5895,32 +5895,32 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>98340122.0</t>
+          <t>87612160.0</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>銘異</t>
+          <t>億光</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
@@ -5930,57 +5930,57 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>11.17</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>44.33</t>
+          <t>11.39</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>16.65%</t>
+          <t>27.60%</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>5.46%</t>
+          <t>8.01%</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>80.6</t>
+          <t>70.96</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>2744</t>
+          <t>33521</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>音圈馬達(VCM)43.59%、其他18.34%、硬碟機上蓋(COVER)17.34%、外接式儲存設備10.89%、硬碟機零組件(HDD)5.75%、顯微鏡零組件4.10% (2024年)</t>
+          <t>商品銷售98.80%、工程1.20% (2024年)</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>銘異-電腦及週邊設備業-上市</t>
+          <t>億光-光電業-上市</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>19.65</t>
+          <t>45.71</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr">
@@ -5995,29 +5995,29 @@
       </c>
       <c r="AV23" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 其他電腦及週邊設備之零組件</t>
+          <t>** 平面顯示器 - 背光源(發光二極體、冷陰極管)、顯示器模組** LED照明產業 - 封裝/模組、燈具/應用</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>2208</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>65800.63</t>
+          <t>4911.97</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -6027,27 +6027,27 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>20.74</t>
+          <t>21.52</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>40.45</t>
+          <t>17.7</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -6057,77 +6057,77 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>-8.59</t>
+          <t>-2.02</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>709</t>
+          <t>27</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>105344</t>
+          <t>5370</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>61.0</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -6137,32 +6137,32 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>2647944904.0</t>
+          <t>113805106.0</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>台船</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
@@ -6172,57 +6172,57 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>10.41</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-41.12%</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-47.81%</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>12.33</t>
+          <t>16.1</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>732085</t>
+          <t>20100</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>利息淨收益70.41%、兌換損益25.02%、手續費及佣金淨損益22.04%、透過其他綜合損益按公允價值4.73%、其他利息以外淨收益1.26%、除列按攤銷後成本衡量金融資1.08%、透過損益按公允價值衡量之金0.68%、投資性不動產0.38%、權益法投資收益-關聯和合營公0.13% (2024年)</t>
+          <t>造船68.32%、機械20.74%、船艦維修7.65%、其他2.83%、防蝕塗裝0.46% (2024年)</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>中信金-金融保險-上市</t>
+          <t>台船-航運業-上市</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="AS24" t="inlineStr">
         <is>
-          <t>24.05</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr">
@@ -6237,29 +6237,29 @@
       </c>
       <c r="AV24" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 其他 - 其他** 風力發電 - 風場營造</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2832</t>
+          <t>2206</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>611.908</t>
+          <t>1005.034</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -6269,102 +6269,102 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>71.9</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>-3.45</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>1845</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>23.32</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>34.6</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>-8.46</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>708</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -6379,32 +6379,32 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>58941009.0</t>
+          <t>-98851935.0</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>台產</t>
+          <t>三陽工業</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>汽車工業</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
@@ -6414,57 +6414,57 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>18.36</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>11.54</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>34.26%</t>
+          <t>20.57%</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>12.99%</t>
+          <t>7.38%</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>12.33</t>
+          <t>17.2</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>11554</t>
+          <t>55425</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>簽單保費120.89%、再保險保費6.86%、再保佣金4.57%、利息收入3.63%、透過其他綜合損益按公允價值2.88%、投資性不動產1.66%、投資兌換收益1.35%、手續費0.89%、權益法投資收益-關聯和合營公0.89%、其他營業收入0.26%、透過損益按公允價值衡量之金0.11% (2024年)</t>
+          <t>商品銷售96.28%、其他1.77%、技術服務1.02%、租賃0.90%、設計服務0.04% (2024年)</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>台產-金融保險-上市</t>
+          <t>三陽工業-汽車工業-上市</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>汽車工業平</t>
         </is>
       </c>
       <c r="AS25" t="inlineStr">
         <is>
-          <t>33.88</t>
+          <t>31.74</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr">
@@ -6479,7 +6479,7 @@
       </c>
       <c r="AV25" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 汽車 - 整車組裝、修理及技術服務、銷售、進出口業務</t>
         </is>
       </c>
     </row>
@@ -6491,17 +6491,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2607</t>
+          <t>2105</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>5738.168</t>
+          <t>9856.928</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -6511,107 +6511,107 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>13.53</t>
+          <t>11.92</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
+          <t>51.9</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>-7.56</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>6655</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>-3.42</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
           <t>33.0</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>-14.58</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>3550</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>-65.0</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>24.0</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>67.0</t>
-        </is>
-      </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -6631,22 +6631,22 @@
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>74072959.0</t>
+          <t>808636086.0</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>榮運</t>
+          <t>正新</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>橡膠工業</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
@@ -6656,57 +6656,57 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>11.08</t>
+          <t>19.53</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>20.90%</t>
+          <t>20.89%</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>12.07%</t>
+          <t>6.67%</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>15.81</t>
+          <t>19.17</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>30734</t>
+          <t>156398</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>客戶合約91.91%、租賃8.09% (2024年)</t>
+          <t>人力車輪胎,動力車輪胎,再生99.71%、其他0.29% (2024年)</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>榮運-航運業-上市</t>
+          <t>正新-橡膠工業-上市</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>橡膠工業右上</t>
         </is>
       </c>
       <c r="AS26" t="inlineStr">
         <is>
-          <t>33.32</t>
+          <t>27.71</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr">
@@ -6721,29 +6721,29 @@
       </c>
       <c r="AV26" t="inlineStr">
         <is>
-          <t>** 交通運輸及航運 - 貨櫃航運、海陸空貨運承攬、貨櫃運輸集散及倉儲、海陸空大眾運輸</t>
+          <t>** 石化及塑橡膠 - 橡膠製品</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2539</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1752.968</t>
+          <t>13730.019</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -6753,27 +6753,27 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>15.02</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>36.29</t>
+          <t>54.31</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>63.6</t>
+          <t>10.95</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -6783,77 +6783,77 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>-6.18</t>
+          <t>-4.78</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>1345</t>
+          <t>3573</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>-4.30</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>29.39</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>295.0</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>69.0</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -6863,32 +6863,32 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>69</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>42579133.0</t>
+          <t>248539095.0</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>櫻花建</t>
+          <t>冠軍</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>玻璃陶瓷</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
@@ -6898,57 +6898,57 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>21.02</t>
+          <t>33.71</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>46.98%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>42.67%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>44.48</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>59556</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>房地銷售99.91%、其他0.09% (2024年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>櫻花建-建材營造-上市</t>
+          <t>冠軍-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>14.37</t>
+          <t>14.4</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
@@ -6963,7 +6963,7 @@
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建設業</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
@@ -6975,17 +6975,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2474</t>
+          <t>1736</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2161.665</t>
+          <t>3846.353</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -6995,27 +6995,27 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>11.31</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>10.89</t>
+          <t>48.01</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>213.5</t>
+          <t>216.5</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -7025,37 +7025,37 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>-10.62</t>
+          <t>-21.97</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>4066</t>
+          <t>2068</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>-2.52</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -7065,37 +7065,37 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>96.0</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -7105,32 +7105,32 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>-595216889.0</t>
+          <t>1510907063.0</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>可成</t>
+          <t>喬山</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>運動休閒</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
@@ -7140,57 +7140,57 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>57.29</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>9.82</t>
+          <t>22.16</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>32.11%</t>
+          <t>50.62%</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>18.46%</t>
+          <t>12.37%</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>34.73</t>
+          <t>18.63</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>131310</t>
+          <t>53852</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>機殼及內構件99.82%、租賃0.16%、勞務0.02% (2024年)</t>
+          <t>健身器材,心肺復甦健身機,重96.38%、其他3.62% (2024年)</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>可成-其他電子業-上市</t>
+          <t>喬山-運動休閒-上市</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>其他電子業平</t>
+          <t>運動休閒右上</t>
         </is>
       </c>
       <c r="AS28" t="inlineStr">
         <is>
-          <t>245.07</t>
+          <t>39.69</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr">
@@ -7205,29 +7205,29 @@
       </c>
       <c r="AV28" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 機殼</t>
+          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2393</t>
+          <t>1584</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>9.69</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1456.413</t>
+          <t>10467.0</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -7237,27 +7237,27 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>16.92</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>85.0</t>
+          <t>30.8</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -7267,72 +7267,72 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>-14.86</t>
+          <t>-9.61</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2517</t>
+          <t>7761</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>-3.01</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -7347,92 +7347,92 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>76</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>87612160.0</t>
+          <t>492051.0</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>億光</t>
+          <t>精剛</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>7.18</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>11.17</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>11.14</t>
+          <t>17.9</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>27.60%</t>
+          <t>15.15%</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>8.01%</t>
+          <t>-2.28%</t>
         </is>
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>69.16</t>
+          <t>66.02</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>32811</t>
+          <t>6532</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>商品銷售98.80%、工程1.20% (2024年)</t>
+          <t>特殊合金素材及成品件92.58%、加工業務7.42% (2024年)</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>億光-光電業-上市</t>
+          <t>精剛-其他-上櫃</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>其他右下</t>
         </is>
       </c>
       <c r="AS29" t="inlineStr">
         <is>
-          <t>45.71</t>
+          <t>21.51</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr">
@@ -7447,1943 +7447,7 @@
       </c>
       <c r="AV29" t="inlineStr">
         <is>
-          <t>** 平面顯示器 - 背光源(發光二極體、冷陰極管)、顯示器模組** LED照明產業 - 封裝/模組、燈具/應用</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2337</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>-1.72</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>103558.789</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>-1.51</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>64.83</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>22.85</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>-21.22</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>30824</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>9.06</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>-99.0</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>31.0</t>
-        </is>
-      </c>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>16.0</t>
-        </is>
-      </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>2025-03-31</t>
-        </is>
-      </c>
-      <c r="AD30" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE30" t="inlineStr">
-        <is>
-          <t>389872949.0</t>
-        </is>
-      </c>
-      <c r="AF30" t="inlineStr">
-        <is>
-          <t>旺宏</t>
-        </is>
-      </c>
-      <c r="AG30" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="AH30" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL30" t="inlineStr">
-        <is>
-          <t>13.15%</t>
-        </is>
-      </c>
-      <c r="AM30" t="inlineStr">
-        <is>
-          <t>-29.64%</t>
-        </is>
-      </c>
-      <c r="AN30" t="inlineStr">
-        <is>
-          <t>135.77</t>
-        </is>
-      </c>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>34982</t>
-        </is>
-      </c>
-      <c r="AP30" t="inlineStr">
-        <is>
-          <t>快閃記憶體產品70.80%、ROM20.88%、Foundry8.28%、其他0.04% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ30" t="inlineStr">
-        <is>
-          <t>旺宏-半導體業-上市</t>
-        </is>
-      </c>
-      <c r="AR30" t="inlineStr">
-        <is>
-          <t>半導體業右下</t>
-        </is>
-      </c>
-      <c r="AS30" t="inlineStr">
-        <is>
-          <t>23.72</t>
-        </is>
-      </c>
-      <c r="AT30" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU30" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV30" t="inlineStr">
-        <is>
-          <t>** 半導體 - IC封裝測試、記憶體IC、晶圓製造</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2025-04-01</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2208</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>4911.97</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>-0.14</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>21.52</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>17.7</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>-1.14</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>7195</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>7.89</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>-65.0</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>61.0</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>26.0</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA31" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>2025-04-01</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
-      <c r="AD31" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="AE31" t="inlineStr">
-        <is>
-          <t>113805106.0</t>
-        </is>
-      </c>
-      <c r="AF31" t="inlineStr">
-        <is>
-          <t>台船</t>
-        </is>
-      </c>
-      <c r="AG31" t="inlineStr">
-        <is>
-          <t>航運業</t>
-        </is>
-      </c>
-      <c r="AH31" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL31" t="inlineStr">
-        <is>
-          <t>-41.12%</t>
-        </is>
-      </c>
-      <c r="AM31" t="inlineStr">
-        <is>
-          <t>-47.81%</t>
-        </is>
-      </c>
-      <c r="AN31" t="inlineStr">
-        <is>
-          <t>15.81</t>
-        </is>
-      </c>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>20274</t>
-        </is>
-      </c>
-      <c r="AP31" t="inlineStr">
-        <is>
-          <t>造船68.32%、機械20.74%、船艦維修7.65%、其他2.83%、防蝕塗裝0.46% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ31" t="inlineStr">
-        <is>
-          <t>台船-航運業-上市</t>
-        </is>
-      </c>
-      <c r="AR31" t="inlineStr">
-        <is>
-          <t>航運業右下</t>
-        </is>
-      </c>
-      <c r="AS31" t="inlineStr">
-        <is>
-          <t>7.14</t>
-        </is>
-      </c>
-      <c r="AT31" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU31" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV31" t="inlineStr">
-        <is>
-          <t>** 其他 - 其他** 風力發電 - 風場營造</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2025-04-01</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2206</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1005.034</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>71.9</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>-3.01</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>2952</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>15.0</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>32.0</t>
-        </is>
-      </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA32" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>2025-03-17</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
-      <c r="AD32" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="AE32" t="inlineStr">
-        <is>
-          <t>-98851935.0</t>
-        </is>
-      </c>
-      <c r="AF32" t="inlineStr">
-        <is>
-          <t>三陽工業</t>
-        </is>
-      </c>
-      <c r="AG32" t="inlineStr">
-        <is>
-          <t>汽車工業</t>
-        </is>
-      </c>
-      <c r="AH32" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI32" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>18.36</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>11.59</t>
-        </is>
-      </c>
-      <c r="AL32" t="inlineStr">
-        <is>
-          <t>20.57%</t>
-        </is>
-      </c>
-      <c r="AM32" t="inlineStr">
-        <is>
-          <t>7.38%</t>
-        </is>
-      </c>
-      <c r="AN32" t="inlineStr">
-        <is>
-          <t>17.0</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>55665</t>
-        </is>
-      </c>
-      <c r="AP32" t="inlineStr">
-        <is>
-          <t>商品銷售96.28%、其他1.77%、技術服務1.02%、租賃0.90%、設計服務0.04% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ32" t="inlineStr">
-        <is>
-          <t>三陽工業-汽車工業-上市</t>
-        </is>
-      </c>
-      <c r="AR32" t="inlineStr">
-        <is>
-          <t>汽車工業平</t>
-        </is>
-      </c>
-      <c r="AS32" t="inlineStr">
-        <is>
-          <t>31.74</t>
-        </is>
-      </c>
-      <c r="AT32" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU32" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV32" t="inlineStr">
-        <is>
-          <t>** 汽車 - 整車組裝、修理及技術服務、銷售、進出口業務</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2025-04-01</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2105</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>9856.928</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>11.92</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>-3.8</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>9890</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>-0.14</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>35.0</t>
-        </is>
-      </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>33.0</t>
-        </is>
-      </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA33" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>2025-04-01</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
-      <c r="AD33" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="AE33" t="inlineStr">
-        <is>
-          <t>808636086.0</t>
-        </is>
-      </c>
-      <c r="AF33" t="inlineStr">
-        <is>
-          <t>正新</t>
-        </is>
-      </c>
-      <c r="AG33" t="inlineStr">
-        <is>
-          <t>橡膠工業</t>
-        </is>
-      </c>
-      <c r="AH33" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI33" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>20.24</t>
-        </is>
-      </c>
-      <c r="AL33" t="inlineStr">
-        <is>
-          <t>20.89%</t>
-        </is>
-      </c>
-      <c r="AM33" t="inlineStr">
-        <is>
-          <t>6.67%</t>
-        </is>
-      </c>
-      <c r="AN33" t="inlineStr">
-        <is>
-          <t>19.41</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>162071</t>
-        </is>
-      </c>
-      <c r="AP33" t="inlineStr">
-        <is>
-          <t>人力車輪胎,動力車輪胎,再生99.71%、其他0.29% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ33" t="inlineStr">
-        <is>
-          <t>正新-橡膠工業-上市</t>
-        </is>
-      </c>
-      <c r="AR33" t="inlineStr">
-        <is>
-          <t>橡膠工業右上</t>
-        </is>
-      </c>
-      <c r="AS33" t="inlineStr">
-        <is>
-          <t>27.71</t>
-        </is>
-      </c>
-      <c r="AT33" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU33" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV33" t="inlineStr">
-        <is>
-          <t>** 石化及塑橡膠 - 橡膠製品</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>1806</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>13730.019</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>15.02</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>54.31</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>10.95</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>-3.3</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>3840</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>-0.89</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>29.39</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>295.0</t>
-        </is>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>69.0</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA34" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>2025-04-12</t>
-        </is>
-      </c>
-      <c r="AD34" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="AE34" t="inlineStr">
-        <is>
-          <t>248539095.0</t>
-        </is>
-      </c>
-      <c r="AF34" t="inlineStr">
-        <is>
-          <t>冠軍</t>
-        </is>
-      </c>
-      <c r="AG34" t="inlineStr">
-        <is>
-          <t>玻璃陶瓷</t>
-        </is>
-      </c>
-      <c r="AH34" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI34" t="inlineStr">
-        <is>
-          <t>9.43</t>
-        </is>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>34.19</t>
-        </is>
-      </c>
-      <c r="AL34" t="inlineStr">
-        <is>
-          <t>24.19%</t>
-        </is>
-      </c>
-      <c r="AM34" t="inlineStr">
-        <is>
-          <t>9.98%</t>
-        </is>
-      </c>
-      <c r="AN34" t="inlineStr">
-        <is>
-          <t>44.38</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>4138</t>
-        </is>
-      </c>
-      <c r="AP34" t="inlineStr">
-        <is>
-          <t>瓷磚98.03%、木地板(坪/平方公尺/片)1.97% (2023年)</t>
-        </is>
-      </c>
-      <c r="AQ34" t="inlineStr">
-        <is>
-          <t>冠軍-玻璃陶瓷-上市</t>
-        </is>
-      </c>
-      <c r="AR34" t="inlineStr">
-        <is>
-          <t>玻璃陶瓷平</t>
-        </is>
-      </c>
-      <c r="AS34" t="inlineStr">
-        <is>
-          <t>14.4</t>
-        </is>
-      </c>
-      <c r="AT34" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU34" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV34" t="inlineStr">
-        <is>
-          <t>** 建材營造 - 建材原料</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2025-04-01</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>1736</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>3846.353</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>11.31</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>48.01</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>216.5</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>-20.61</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>2938</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>12.85</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>96.0</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA35" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>2025-04-01</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="AD35" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AE35" t="inlineStr">
-        <is>
-          <t>1510907063.0</t>
-        </is>
-      </c>
-      <c r="AF35" t="inlineStr">
-        <is>
-          <t>喬山</t>
-        </is>
-      </c>
-      <c r="AG35" t="inlineStr">
-        <is>
-          <t>運動休閒</t>
-        </is>
-      </c>
-      <c r="AH35" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI35" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>57.29</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>22.41</t>
-        </is>
-      </c>
-      <c r="AL35" t="inlineStr">
-        <is>
-          <t>50.62%</t>
-        </is>
-      </c>
-      <c r="AM35" t="inlineStr">
-        <is>
-          <t>12.37%</t>
-        </is>
-      </c>
-      <c r="AN35" t="inlineStr">
-        <is>
-          <t>18.48</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>54459</t>
-        </is>
-      </c>
-      <c r="AP35" t="inlineStr">
-        <is>
-          <t>健身器材,心肺復甦健身機,重96.38%、其他3.62% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ35" t="inlineStr">
-        <is>
-          <t>喬山-運動休閒-上市</t>
-        </is>
-      </c>
-      <c r="AR35" t="inlineStr">
-        <is>
-          <t>運動休閒右上</t>
-        </is>
-      </c>
-      <c r="AS35" t="inlineStr">
-        <is>
-          <t>39.69</t>
-        </is>
-      </c>
-      <c r="AT35" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU35" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV35" t="inlineStr">
-        <is>
           <t>** 其他 - 其他</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2025-04-01</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>1584</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>9.69</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>10467.0</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>16.92</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>30.8</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>-10.79</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>8134</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>7.22</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>29.0</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>76.0</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="AD36" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="AE36" t="inlineStr">
-        <is>
-          <t>492051.0</t>
-        </is>
-      </c>
-      <c r="AF36" t="inlineStr">
-        <is>
-          <t>精剛</t>
-        </is>
-      </c>
-      <c r="AG36" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="AH36" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI36" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>17.71</t>
-        </is>
-      </c>
-      <c r="AL36" t="inlineStr">
-        <is>
-          <t>15.15%</t>
-        </is>
-      </c>
-      <c r="AM36" t="inlineStr">
-        <is>
-          <t>-2.28%</t>
-        </is>
-      </c>
-      <c r="AN36" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>6463</t>
-        </is>
-      </c>
-      <c r="AP36" t="inlineStr">
-        <is>
-          <t>特殊合金素材及成品件92.58%、加工業務7.42% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ36" t="inlineStr">
-        <is>
-          <t>精剛-其他-上櫃</t>
-        </is>
-      </c>
-      <c r="AR36" t="inlineStr">
-        <is>
-          <t>其他右下</t>
-        </is>
-      </c>
-      <c r="AS36" t="inlineStr">
-        <is>
-          <t>21.51</t>
-        </is>
-      </c>
-      <c r="AT36" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU36" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV36" t="inlineStr">
-        <is>
-          <t>** 其他 - 其他</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2025-04-09</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>1240</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>9.89</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1348.0</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>13.27</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>34.35</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>62.3</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>-11.45</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>782</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>151.0</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>76.0</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA37" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>2025-04-09</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
-      <c r="AD37" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="AE37" t="inlineStr">
-        <is>
-          <t>83956.0</t>
-        </is>
-      </c>
-      <c r="AF37" t="inlineStr">
-        <is>
-          <t>茂生農經</t>
-        </is>
-      </c>
-      <c r="AG37" t="inlineStr">
-        <is>
-          <t>農業科技業</t>
-        </is>
-      </c>
-      <c r="AH37" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI37" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>17.51</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>12.88</t>
-        </is>
-      </c>
-      <c r="AL37" t="inlineStr">
-        <is>
-          <t>13.83%</t>
-        </is>
-      </c>
-      <c r="AM37" t="inlineStr">
-        <is>
-          <t>5.37%</t>
-        </is>
-      </c>
-      <c r="AN37" t="inlineStr">
-        <is>
-          <t>45.67</t>
-        </is>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>2311</t>
-        </is>
-      </c>
-      <c r="AP37" t="inlineStr">
-        <is>
-          <t>禽畜飼料56.08%、蛋品22.89%、養殖13.65%、大宗原物料買賣7.11%、其他0.28% (2023年)</t>
-        </is>
-      </c>
-      <c r="AQ37" t="inlineStr">
-        <is>
-          <t>茂生農經-農業科技業-上櫃</t>
-        </is>
-      </c>
-      <c r="AR37" t="inlineStr">
-        <is>
-          <t>農業科技業右上</t>
-        </is>
-      </c>
-      <c r="AS37" t="inlineStr">
-        <is>
-          <t>34.98</t>
-        </is>
-      </c>
-      <c r="AT37" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU37" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV37" t="inlineStr">
-        <is>
-          <t>** 其他 - 農業科技業</t>
         </is>
       </c>
     </row>

--- a/Result/check2.xlsx
+++ b/Result/check2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV29"/>
+  <dimension ref="A1:AV31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-4.99</t>
+          <t>-4.4</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>649</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-2.16</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>14.83</t>
+          <t>14.92</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>10.9</t>
+          <t>11.19</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>19481</t>
+          <t>19591</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>109</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>24720</t>
+          <t>24854</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-10.38</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>34.9</t>
+          <t>36.51</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>30.42</t>
+          <t>32.21</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>3566</t>
+          <t>3730</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>13.78</t>
+          <t>21.59</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>40</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>9533</t>
+          <t>6525</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>29.32</t>
+          <t>32.24</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>14.54</t>
+          <t>15.17</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>2932</t>
+          <t>3224</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-26.52</t>
+          <t>-21.35</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1413</t>
+          <t>1708</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-3.40</t>
+          <t>-0.55</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>55.92</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>67.41</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>2896</t>
+          <t>3019</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-39.56</t>
+          <t>-27.0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>3239</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-5.09</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>17.83</t>
+          <t>19.6</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>18.63</t>
+          <t>19.68</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>68086</t>
+          <t>74820</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1943,17 +1943,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>17.23</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>773</t>
+          <t>1292</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1963,12 +1963,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>31.2</t>
+          <t>32.56</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1195</t>
+          <t>1313</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2185,17 +2185,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-39.33</t>
+          <t>-30.83</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>620</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2205,12 +2205,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-3.81</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>17.14</t>
+          <t>18.26</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>50.07</t>
+          <t>52.28</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>4944</t>
+          <t>5266</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2427,17 +2427,17 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-16.25</t>
+          <t>-13.41</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1692</t>
+          <t>1219</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-2.47</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>13.81</t>
+          <t>14.15</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>24.81</t>
+          <t>25.87</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>14650</t>
+          <t>15016</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2669,17 +2669,17 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2183</t>
+          <t>2719</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>46.81</t>
+          <t>48.14</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2809,12 +2809,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>33.2</t>
+          <t>34.01</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>3713</t>
+          <t>3818</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2911,17 +2911,17 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>11447</t>
+          <t>8103</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2931,12 +2931,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>17.09</t>
+          <t>16.78</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3051,12 +3051,12 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>12.33</t>
+          <t>12.48</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>230926</t>
+          <t>226794</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -3153,17 +3153,17 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>11447</t>
+          <t>8103</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -3173,12 +3173,12 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>17.09</t>
+          <t>16.78</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3293,12 +3293,12 @@
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>12.33</t>
+          <t>12.48</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>230926</t>
+          <t>226794</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -3395,17 +3395,17 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>-16.04</t>
+          <t>-11.23</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1094</t>
+          <t>613</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-1.26</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>7.75</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>8.57</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -3535,12 +3535,12 @@
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>43.94</t>
+          <t>45.18</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>5594</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -3582,22 +3582,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5315</t>
+          <t>5489</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5587.0</t>
+          <t>184.0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3607,27 +3607,27 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>20.57</t>
+          <t>32.00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>24.4</t>
+          <t>41.5</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3637,77 +3637,77 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>-24.49</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1526</t>
+          <t>575</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-3.31</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>214.0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -3717,32 +3717,32 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>136311.0</t>
+          <t>14882.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>光聯</t>
+          <t>彩富</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
@@ -3752,57 +3752,57 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>16.2</t>
+          <t>19.1</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>14.01%</t>
+          <t>38.43%</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>6.08%</t>
+          <t>11.45%</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>28.73</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>2084</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>商品銷售99.83%、工程0.17% (2024年)</t>
+          <t>安全監控系統91.23%、其他8.55%、機器視覺系統0.22% (2024年)</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>光聯-光電業-上櫃</t>
+          <t>彩富-其他電子業-上櫃</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>光電業平</t>
+          <t>其他電子業右上</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>16.11</t>
+          <t>23.44</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 面板、顯示器模組** 平面顯示器 - 面板、顯示器模組</t>
+          <t>** 電腦及週邊設備 - 安全監控系統** 平面顯示器 - 生產製程及檢測設備</t>
         </is>
       </c>
     </row>
@@ -3829,17 +3829,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5201</t>
+          <t>5315</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>9.73</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3884.0</t>
+          <t>5587.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3849,27 +3849,27 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>66.12</t>
+          <t>20.57</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>40.15</t>
+          <t>24.4</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3879,37 +3879,37 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>-19.02</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2118</t>
+          <t>1119</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -3919,32 +3919,32 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>66.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -3959,7 +3959,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -3969,22 +3969,22 @@
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>186429.0</t>
+          <t>136311.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>凱衛</t>
+          <t>光聯</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -3994,57 +3994,57 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>7.32</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>18.33</t>
+          <t>16.94</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>49.86%</t>
+          <t>14.01%</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>11.96%</t>
+          <t>6.08%</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>24.46</t>
+          <t>67.41</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>1265</t>
+          <t>2180</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>軟硬體系統整合43.11%、勞務及維修35.15%、授權21.73% (2024年)</t>
+          <t>商品銷售99.83%、工程0.17% (2024年)</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>凱衛-資訊服務業-上櫃</t>
+          <t>光聯-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>光電業平</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>14.62</t>
+          <t>16.11</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務</t>
+          <t>** 電腦及週邊設備 - 面板、顯示器模組** 平面顯示器 - 面板、顯示器模組</t>
         </is>
       </c>
     </row>
@@ -4071,17 +4071,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4532</t>
+          <t>5201</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>9.73</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2822.424</t>
+          <t>3884.0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -4091,17 +4091,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>17.47</t>
+          <t>66.12</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>31.35</t>
+          <t>40.15</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -4121,172 +4121,172 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>-25.9</t>
+          <t>10.78</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>35</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>3896</t>
+          <t>5180</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-3.01</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>186429.0</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>凱衛</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>資訊服務業</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>-79236396.0</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>瑞智</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>電機機械</t>
-        </is>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>10.89</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>12.33</t>
-        </is>
-      </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>16.31%</t>
+          <t>49.86%</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>6.20%</t>
+          <t>11.96%</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>30.42</t>
+          <t>25.74</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>12572</t>
+          <t>1380</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>壓縮機95.48%、其他2.49%、BLDC馬達2.03% (2024年)</t>
+          <t>軟硬體系統整合43.11%、勞務及維修35.15%、授權21.73% (2024年)</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>瑞智-電機機械-上市</t>
+          <t>凱衛-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>21.35</t>
+          <t>14.62</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
@@ -4301,29 +4301,29 @@
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>** 電機機械 - 冷凍空調設備及零件</t>
+          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4174</t>
+          <t>4532</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>906.0</t>
+          <t>2822.424</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4333,17 +4333,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>17.47</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -4353,7 +4353,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>31.35</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>-28.63</t>
+          <t>-21.98</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -4373,62 +4373,62 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>1913</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
           <t>0.79</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>-1.33</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>-99.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -4443,7 +4443,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -4453,82 +4453,82 @@
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>42448.0</t>
+          <t>-79236396.0</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>浩鼎</t>
+          <t>瑞智</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>10.89</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.72</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>-182.78%</t>
+          <t>16.31%</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>-6,249.84%</t>
+          <t>6.20%</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>77.75</t>
+          <t>32.21</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>12684</t>
+          <t>12976</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>委託開發暨製造服務97.00%、專利權收入3.00% (2024年)</t>
+          <t>壓縮機95.48%、其他2.49%、BLDC馬達2.03% (2024年)</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>浩鼎-生技醫療業-上櫃</t>
+          <t>瑞智-電機機械-上市</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>14.51</t>
+          <t>21.35</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
@@ -4543,29 +4543,29 @@
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>** 製藥 - 原材料</t>
+          <t>** 電機機械 - 冷凍空調設備及零件</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3297</t>
+          <t>4174</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>9.89</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2231.0</t>
+          <t>906.0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4575,17 +4575,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>13.51</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>16.97</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4595,7 +4595,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>23.95</t>
+          <t>62.0</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -4605,72 +4605,72 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>29.87</t>
+          <t>-26.4</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>7745</t>
+          <t>621</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>6.22</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-99.0</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>125.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>87.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -4690,27 +4690,27 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>130342.0</t>
+          <t>42448.0</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>杭特</t>
+          <t>浩鼎</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
@@ -4725,7 +4725,7 @@
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
@@ -4735,42 +4735,42 @@
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>33.49%</t>
+          <t>-182.78%</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>-25.64%</t>
+          <t>-6,249.84%</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>79.06</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>12908</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
+          <t>委託開發暨製造服務97.00%、專利權收入3.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>杭特-光電業-上櫃</t>
+          <t>浩鼎-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>15.63</t>
+          <t>14.51</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
@@ -4785,29 +4785,29 @@
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
+          <t>** 製藥 - 原材料</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2753</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>9.89</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2350.041</t>
+          <t>2231.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4817,27 +4817,27 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-2.92</t>
+          <t>13.51</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>16.97</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>181.5</t>
+          <t>23.95</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -4847,72 +4847,72 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>29.56</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>42</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>2236</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-2.92</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>125.0</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>87.0</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -4927,92 +4927,92 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>87</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>57619866.0</t>
+          <t>130342.0</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>八方雲集</t>
+          <t>杭特</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>觀光事業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>32.05</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>20.1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>33.79%</t>
+          <t>33.49%</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>9.20%</t>
+          <t>-25.64%</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>103.37</t>
+          <t>67.41</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>12096</t>
+          <t>1226</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>連鎖式餐飲店及連鎖加盟業者99.74%、授權0.26% (2024年)</t>
+          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>八方雲集-觀光事業-上市</t>
+          <t>杭特-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>觀光事業平</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>53.62</t>
+          <t>15.63</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
@@ -5027,29 +5027,29 @@
       </c>
       <c r="AV19" t="inlineStr">
         <is>
-          <t>** 食品 - 加工食品、餐飲連鎖</t>
+          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2607</t>
+          <t>2753</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>-0.55</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5738.168</t>
+          <t>2350.041</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -5059,27 +5059,27 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>-2.92</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>13.53</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>181.5</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -5089,72 +5089,72 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>-13.79</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>24</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>929</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-3.10</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>67.0</t>
+          <t>39.0</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -5169,32 +5169,32 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>74072959.0</t>
+          <t>57619866.0</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>榮運</t>
+          <t>八方雲集</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>觀光事業</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
@@ -5204,57 +5204,57 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>32.05</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>11.15</t>
+          <t>20.38</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>20.90%</t>
+          <t>33.79%</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>12.07%</t>
+          <t>9.20%</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>16.1</t>
+          <t>108.93</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>30947</t>
+          <t>12262</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>貨物承攬業71.42%、內陸運輸服務8.86%、租賃8.09%、國際海運6.80%、貨櫃場2.84%、加油站1.98% (2024年)</t>
+          <t>連鎖式餐飲店及連鎖加盟業者99.74%、授權0.26% (2024年)</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>榮運-航運業-上市</t>
+          <t>八方雲集-觀光事業-上市</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>觀光事業右上</t>
         </is>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>33.32</t>
+          <t>53.62</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="AV20" t="inlineStr">
         <is>
-          <t>** 交通運輸及航運 - 貨櫃航運、海陸空貨運承攬、貨櫃運輸集散及倉儲、海陸空大眾運輸</t>
+          <t>** 食品 - 加工食品、餐飲連鎖</t>
         </is>
       </c>
     </row>
@@ -5281,17 +5281,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2539</t>
+          <t>2607</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1752.968</t>
+          <t>5738.168</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -5301,27 +5301,27 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>36.29</t>
+          <t>22.74</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>63.6</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -5331,72 +5331,72 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>-4.78</t>
+          <t>-11.86</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>1588</t>
+          <t>1432</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>67.0</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -5411,32 +5411,32 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>67</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>42579133.0</t>
+          <t>74072959.0</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>櫻花建</t>
+          <t>榮運</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
@@ -5446,57 +5446,57 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>21.3</t>
+          <t>11.35</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>46.98%</t>
+          <t>20.90%</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>42.67%</t>
+          <t>12.07%</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>43.94</t>
+          <t>16.49</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>60351</t>
+          <t>31481</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>房地銷售99.91%、其他0.09% (2024年)</t>
+          <t>貨物承攬業71.42%、內陸運輸服務8.86%、租賃8.09%、國際海運6.80%、貨櫃場2.84%、加油站1.98% (2024年)</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>櫻花建-建材營造-上市</t>
+          <t>榮運-航運業-上市</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>14.37</t>
+          <t>33.32</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="AV21" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建設業</t>
+          <t>** 交通運輸及航運 - 貨櫃航運、海陸空貨運承攬、貨櫃運輸集散及倉儲、海陸空大眾運輸</t>
         </is>
       </c>
     </row>
@@ -5523,17 +5523,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2474</t>
+          <t>2539</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2161.665</t>
+          <t>1752.968</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5543,27 +5543,27 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>-2.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-0.97</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>36.29</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>0.96</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>10.89</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>0.9</t>
-        </is>
-      </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>213.5</t>
+          <t>63.6</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -5573,72 +5573,72 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>-10.91</t>
+          <t>-1.44</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2246</t>
+          <t>1281</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>-2.34</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -5653,32 +5653,32 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>-595216889.0</t>
+          <t>42579133.0</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>可成</t>
+          <t>櫻花建</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
@@ -5688,57 +5688,57 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>5.19</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>32.11%</t>
+          <t>46.98%</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>18.46%</t>
+          <t>42.67%</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>35.49</t>
+          <t>45.18</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>130970</t>
+          <t>62340</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>機殼及內構件99.82%、租賃0.16%、勞務0.02% (2024年)</t>
+          <t>房地銷售99.91%、其他0.09% (2024年)</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>可成-其他電子業-上市</t>
+          <t>櫻花建-建材營造-上市</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>其他電子業平</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>245.07</t>
+          <t>14.37</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
@@ -5753,29 +5753,29 @@
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 機殼</t>
+          <t>** 建材營造 - 建設業</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2393</t>
+          <t>2474</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1456.413</t>
+          <t>2161.665</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -5785,27 +5785,27 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>10.89</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>85.0</t>
+          <t>213.5</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -5815,72 +5815,72 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>-12.43</t>
+          <t>-10.62</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2315</t>
+          <t>2243</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-2.33</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -5895,7 +5895,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
@@ -5905,22 +5905,22 @@
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>87612160.0</t>
+          <t>-595216889.0</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>億光</t>
+          <t>可成</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
@@ -5930,57 +5930,57 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>11.17</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>11.39</t>
+          <t>9.82</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>27.60%</t>
+          <t>32.11%</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>8.01%</t>
+          <t>18.46%</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>70.96</t>
+          <t>37.85</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>33521</t>
+          <t>131310</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>商品銷售98.80%、工程1.20% (2024年)</t>
+          <t>機殼及內構件99.82%、租賃0.16%、勞務0.02% (2024年)</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>億光-光電業-上市</t>
+          <t>可成-其他電子業-上市</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>其他電子業平</t>
         </is>
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>45.71</t>
+          <t>245.07</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr">
@@ -5995,29 +5995,29 @@
       </c>
       <c r="AV23" t="inlineStr">
         <is>
-          <t>** 平面顯示器 - 背光源(發光二極體、冷陰極管)、顯示器模組** LED照明產業 - 封裝/模組、燈具/應用</t>
+          <t>** 電腦及週邊設備 - 機殼</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2208</t>
+          <t>2393</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4911.97</t>
+          <t>1456.413</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -6027,27 +6027,27 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>21.52</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>17.7</t>
+          <t>85.0</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -6057,72 +6057,72 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>-2.02</t>
+          <t>-8.56</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>5370</t>
+          <t>1868</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>61.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
@@ -6147,22 +6147,22 @@
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>113805106.0</t>
+          <t>87612160.0</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>台船</t>
+          <t>億光</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
@@ -6172,57 +6172,57 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>11.17</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11.79</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>-41.12%</t>
+          <t>27.60%</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>-47.81%</t>
+          <t>8.01%</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>16.1</t>
+          <t>75.21</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>20100</t>
+          <t>34718</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>造船68.32%、機械20.74%、船艦維修7.65%、其他2.83%、防蝕塗裝0.46% (2024年)</t>
+          <t>商品銷售98.80%、工程1.20% (2024年)</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>台船-航運業-上市</t>
+          <t>億光-光電業-上市</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS24" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>45.71</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr">
@@ -6237,7 +6237,7 @@
       </c>
       <c r="AV24" t="inlineStr">
         <is>
-          <t>** 其他 - 其他** 風力發電 - 風場營造</t>
+          <t>** 平面顯示器 - 背光源(發光二極體、冷陰極管)、顯示器模組** LED照明產業 - 封裝/模組、燈具/應用</t>
         </is>
       </c>
     </row>
@@ -6249,17 +6249,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2206</t>
+          <t>2208</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1005.034</t>
+          <t>4911.97</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -6269,27 +6269,27 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>21.52</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>71.9</t>
+          <t>17.7</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -6299,72 +6299,72 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>-3.45</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>1845</t>
+          <t>3691</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>61.0</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -6379,7 +6379,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
@@ -6389,22 +6389,22 @@
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>-98851935.0</t>
+          <t>113805106.0</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>三陽工業</t>
+          <t>台船</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>汽車工業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
@@ -6414,57 +6414,57 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>18.36</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>11.54</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>20.57%</t>
+          <t>-41.12%</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>7.38%</t>
+          <t>-47.81%</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>17.2</t>
+          <t>16.49</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>55425</t>
+          <t>20332</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>商品銷售96.28%、其他1.77%、技術服務1.02%、租賃0.90%、設計服務0.04% (2024年)</t>
+          <t>造船68.32%、機械20.74%、船艦維修7.65%、其他2.83%、防蝕塗裝0.46% (2024年)</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>三陽工業-汽車工業-上市</t>
+          <t>台船-航運業-上市</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>汽車工業平</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="AS25" t="inlineStr">
         <is>
-          <t>31.74</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr">
@@ -6479,7 +6479,7 @@
       </c>
       <c r="AV25" t="inlineStr">
         <is>
-          <t>** 汽車 - 整車組裝、修理及技術服務、銷售、進出口業務</t>
+          <t>** 其他 - 其他** 風力發電 - 風場營造</t>
         </is>
       </c>
     </row>
@@ -6491,17 +6491,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2105</t>
+          <t>2206</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>9856.928</t>
+          <t>1005.034</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -6511,27 +6511,27 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>11.92</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>51.9</t>
+          <t>71.9</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -6541,77 +6541,77 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>-7.56</t>
+          <t>-2.71</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>6655</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>-3.42</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -6621,7 +6621,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
@@ -6631,22 +6631,22 @@
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>808636086.0</t>
+          <t>-98851935.0</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>正新</t>
+          <t>三陽工業</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>橡膠工業</t>
+          <t>汽車工業</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
@@ -6656,57 +6656,57 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>18.36</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>19.53</t>
+          <t>11.63</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>20.89%</t>
+          <t>20.57%</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>6.67%</t>
+          <t>7.38%</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>19.17</t>
+          <t>18.54</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>156398</t>
+          <t>55824</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>人力車輪胎,動力車輪胎,再生99.71%、其他0.29% (2024年)</t>
+          <t>商品銷售96.28%、其他1.77%、技術服務1.02%、租賃0.90%、設計服務0.04% (2024年)</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>正新-橡膠工業-上市</t>
+          <t>三陽工業-汽車工業-上市</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>橡膠工業右上</t>
+          <t>汽車工業平</t>
         </is>
       </c>
       <c r="AS26" t="inlineStr">
         <is>
-          <t>27.71</t>
+          <t>31.74</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr">
@@ -6721,174 +6721,174 @@
       </c>
       <c r="AV26" t="inlineStr">
         <is>
-          <t>** 石化及塑橡膠 - 橡膠製品</t>
+          <t>** 汽車 - 整車組裝、修理及技術服務、銷售、進出口業務</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2105</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9856.928</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>51.9</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>-7.56</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>4236</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>-1.35</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
           <t>2025-04-07</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>1806</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>13730.019</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>15.02</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>54.31</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>10.95</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>-4.78</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>3573</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>-4.30</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>29.39</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>295.0</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>69.0</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>248539095.0</t>
+          <t>808636086.0</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>冠軍</t>
+          <t>正新</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>玻璃陶瓷</t>
+          <t>橡膠工業</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
@@ -6898,57 +6898,57 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>9.57</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>33.71</t>
+          <t>19.53</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>24.19%</t>
+          <t>20.89%</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>6.67%</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>44.48</t>
+          <t>19.57</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>4080</t>
+          <t>156398</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
+          <t>人力車輪胎,動力車輪胎,再生99.71%、其他0.29% (2024年)</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>冠軍-玻璃陶瓷-上市</t>
+          <t>正新-橡膠工業-上市</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>橡膠工業右上</t>
         </is>
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>14.4</t>
+          <t>27.71</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
@@ -6963,29 +6963,29 @@
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 石化及塑橡膠 - 橡膠製品</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1736</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3846.353</t>
+          <t>5797.142</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -6995,17 +6995,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>11.31</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>-1.44</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>48.01</t>
+          <t>22.93</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -7015,7 +7015,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>216.5</t>
+          <t>11.05</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -7025,77 +7025,77 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>-21.97</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>28</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2068</t>
+          <t>5797</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>-2.52</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>96.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -7105,32 +7105,32 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>1510907063.0</t>
+          <t>-15056952.0</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>喬山</t>
+          <t>冠軍</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>運動休閒</t>
+          <t>玻璃陶瓷</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
@@ -7140,57 +7140,57 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>57.29</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>22.16</t>
+          <t>35.65</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>50.62%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>12.37%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>18.63</t>
+          <t>46.69</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>53852</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>健身器材,心肺復甦健身機,重96.38%、其他3.62% (2024年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>喬山-運動休閒-上市</t>
+          <t>冠軍-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS28" t="inlineStr">
         <is>
-          <t>39.69</t>
+          <t>14.4</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr">
@@ -7205,247 +7205,731 @@
       </c>
       <c r="AV28" t="inlineStr">
         <is>
-          <t>** 其他 - 其他</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1806</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13730.019</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>15.02</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>54.31</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>5797</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>295.0</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>248539095.0</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>冠軍</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>35.65</t>
+        </is>
+      </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>24.19%</t>
+        </is>
+      </c>
+      <c r="AM29" t="inlineStr">
+        <is>
+          <t>9.98%</t>
+        </is>
+      </c>
+      <c r="AN29" t="inlineStr">
+        <is>
+          <t>46.69</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>4314</t>
+        </is>
+      </c>
+      <c r="AP29" t="inlineStr">
+        <is>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ29" t="inlineStr">
+        <is>
+          <t>冠軍-玻璃陶瓷-上市</t>
+        </is>
+      </c>
+      <c r="AR29" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷右上</t>
+        </is>
+      </c>
+      <c r="AS29" t="inlineStr">
+        <is>
+          <t>14.4</t>
+        </is>
+      </c>
+      <c r="AT29" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU29" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV29" t="inlineStr">
+        <is>
+          <t>** 建材營造 - 建材原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>2025-04-01</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1736</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3846.353</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>48.01</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>216.5</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>-18.31</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>1473</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>-1.04</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>1510907063.0</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>喬山</t>
+        </is>
+      </c>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>運動休閒</t>
+        </is>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>57.29</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>50.62%</t>
+        </is>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>12.37%</t>
+        </is>
+      </c>
+      <c r="AN30" t="inlineStr">
+        <is>
+          <t>19.68</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>55521</t>
+        </is>
+      </c>
+      <c r="AP30" t="inlineStr">
+        <is>
+          <t>健身器材,心肺復甦健身機,重96.38%、其他3.62% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ30" t="inlineStr">
+        <is>
+          <t>喬山-運動休閒-上市</t>
+        </is>
+      </c>
+      <c r="AR30" t="inlineStr">
+        <is>
+          <t>運動休閒右上</t>
+        </is>
+      </c>
+      <c r="AS30" t="inlineStr">
+        <is>
+          <t>39.69</t>
+        </is>
+      </c>
+      <c r="AT30" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU30" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV30" t="inlineStr">
+        <is>
+          <t>** 其他 - 其他</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>1584</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>9.69</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>10467.0</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>6.57</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>0.30</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>16.92</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>30.8</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>-9.61</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>-6.57</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>7761</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>6133</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
         <is>
           <t>1.43</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>0.8</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>-3.01</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
         <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="S31" t="inlineStr">
         <is>
           <t>0.06</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="T31" t="inlineStr">
         <is>
           <t>0.48</t>
         </is>
       </c>
-      <c r="U29" t="inlineStr">
+      <c r="U31" t="inlineStr">
         <is>
           <t>0.64</t>
         </is>
       </c>
-      <c r="V29" t="inlineStr">
+      <c r="V31" t="inlineStr">
         <is>
           <t>0.43</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr">
+      <c r="W31" t="inlineStr">
         <is>
           <t>-90.0</t>
         </is>
       </c>
-      <c r="X29" t="inlineStr">
+      <c r="X31" t="inlineStr">
         <is>
           <t>29.0</t>
         </is>
       </c>
-      <c r="Y29" t="inlineStr">
+      <c r="Y31" t="inlineStr">
         <is>
           <t>76.0</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
+      <c r="Z31" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AA29" t="inlineStr">
+      <c r="AA31" t="inlineStr">
         <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="AB29" t="inlineStr">
+      <c r="AB31" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
-      <c r="AC29" t="inlineStr">
+      <c r="AC31" t="inlineStr">
         <is>
           <t>2025-04-08</t>
         </is>
       </c>
-      <c r="AD29" t="inlineStr">
+      <c r="AD31" t="inlineStr">
         <is>
           <t>76</t>
         </is>
       </c>
-      <c r="AE29" t="inlineStr">
+      <c r="AE31" t="inlineStr">
         <is>
           <t>492051.0</t>
         </is>
       </c>
-      <c r="AF29" t="inlineStr">
+      <c r="AF31" t="inlineStr">
         <is>
           <t>精剛</t>
         </is>
       </c>
-      <c r="AG29" t="inlineStr">
+      <c r="AG31" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="AH29" t="inlineStr">
+      <c r="AH31" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AI29" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="AJ29" t="inlineStr">
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
         <is>
           <t>2.75</t>
         </is>
       </c>
-      <c r="AK29" t="inlineStr">
-        <is>
-          <t>17.9</t>
-        </is>
-      </c>
-      <c r="AL29" t="inlineStr">
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>18.41</t>
+        </is>
+      </c>
+      <c r="AL31" t="inlineStr">
         <is>
           <t>15.15%</t>
         </is>
       </c>
-      <c r="AM29" t="inlineStr">
+      <c r="AM31" t="inlineStr">
         <is>
           <t>-2.28%</t>
         </is>
       </c>
-      <c r="AN29" t="inlineStr">
-        <is>
-          <t>66.02</t>
-        </is>
-      </c>
-      <c r="AO29" t="inlineStr">
-        <is>
-          <t>6532</t>
-        </is>
-      </c>
-      <c r="AP29" t="inlineStr">
+      <c r="AN31" t="inlineStr">
+        <is>
+          <t>69.13</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>6718</t>
+        </is>
+      </c>
+      <c r="AP31" t="inlineStr">
         <is>
           <t>特殊合金素材及成品件92.58%、加工業務7.42% (2024年)</t>
         </is>
       </c>
-      <c r="AQ29" t="inlineStr">
+      <c r="AQ31" t="inlineStr">
         <is>
           <t>精剛-其他-上櫃</t>
         </is>
       </c>
-      <c r="AR29" t="inlineStr">
+      <c r="AR31" t="inlineStr">
         <is>
           <t>其他右下</t>
         </is>
       </c>
-      <c r="AS29" t="inlineStr">
+      <c r="AS31" t="inlineStr">
         <is>
           <t>21.51</t>
         </is>
       </c>
-      <c r="AT29" t="inlineStr">
+      <c r="AT31" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AU29" t="inlineStr">
+      <c r="AU31" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AV29" t="inlineStr">
+      <c r="AV31" t="inlineStr">
         <is>
           <t>** 其他 - 其他</t>
         </is>

--- a/Result/check2.xlsx
+++ b/Result/check2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV18"/>
+  <dimension ref="A1:AV23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,22 +678,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9911</t>
+          <t>8222</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>-2.24</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>337.171</t>
+          <t>24720.456</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,27 +703,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-10.38</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>-3.93</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>10.34</t>
+          <t>18.78</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>92.5</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -733,57 +733,57 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-4.52</t>
+          <t>6.64</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>125</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1154</t>
+          <t>55784</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>-12.11</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>-11.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>94.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -813,32 +813,32 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>94</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>4425886.0</t>
+          <t>564124576.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>櫻花</t>
+          <t>寶一</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>居家生活</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -848,57 +848,57 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>11.08</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>14.9</t>
+          <t>37.38</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>34.63%</t>
+          <t>23.89%</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>13.36%</t>
+          <t>8.00%</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>10.97</t>
+          <t>31.44</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>19569</t>
+          <t>3820</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>瓦斯炊具,熱水器,廚房器具,99.27%、租賃0.73% (2024年)</t>
+          <t>航太零組件100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>櫻花-居家生活-上市</t>
+          <t>寶一-電機機械-上市</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>居家生活右上</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>29.89</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
@@ -913,29 +913,29 @@
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>** 其他 - 其他</t>
+          <t>** 電機機械 - 金屬加工處理</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8222</t>
+          <t>8089</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-2.24</t>
+          <t>6.04</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24720.456</t>
+          <t>1115.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,107 +945,107 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-10.38</t>
+          <t>8.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-3.93</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>18.78</t>
+          <t>6.52</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>52.0</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>13.04</t>
-        </is>
-      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>19644</t>
+          <t>1115</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>8.41</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>-2.25</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>-3.40</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>84.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>94.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1055,92 +1055,92 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>564124576.0</t>
+          <t>146557.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>寶一</t>
+          <t>康全電訊</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>14.18</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>40.13</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>23.89%</t>
+          <t>27.03%</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>8.00%</t>
+          <t>6.13%</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>31.5</t>
+          <t>66.13</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>4101</t>
+          <t>3637</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>航太零組件100.00% (2024年)</t>
+          <t>通訊設備99.57%、其他0.43% (2024年)</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>寶一-電機機械-上市</t>
+          <t>康全電訊-通信網路業-上櫃</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>24.35</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>** 電機機械 - 金屬加工處理</t>
+          <t>** 通信網路 - 網路設備(如數據機、網路卡、閘道器、路由器、網路電話)、光通訊設備(如光纖電纜、光傳輸設備)</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>15.73</t>
+          <t>12.71</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>70</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>16218</t>
+          <t>13014</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-16.80</t>
+          <t>-6.63</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>28.96</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>2896</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,22 +1404,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6890</t>
+          <t>6933</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1039.32</t>
+          <t>695.961</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,87 +1429,87 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>7.71</t>
+          <t>27.56</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>179.5</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>381.0</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>-26.79</t>
-        </is>
-      </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2548</t>
+          <t>696</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-4.83</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-12.86</t>
+          <t>-7.64</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-16.66</t>
+          <t>-12.24</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>173.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1534,37 +1534,37 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>276007361.0</t>
+          <t>222016874.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>來億-KY</t>
+          <t>AMAX-KY</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>運動休閒</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1574,57 +1574,57 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>43.51</t>
+          <t>39.39</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>19.63</t>
+          <t>46.03</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>18.57%</t>
+          <t>13.42%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>11.72%</t>
+          <t>4.38%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>19.58</t>
+          <t>86.58</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>74945</t>
+          <t>7537</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>運動休閒鞋類100.00% (2024年)</t>
+          <t>商品銷售98.73%、服務收入1.27% (2024年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>來億-KY-運動休閒-上市</t>
+          <t>AMAX-KY-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>運動休閒右下</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>97.84</t>
+          <t>52.07</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1646,22 +1646,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6197</t>
+          <t>6415</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6969.221</t>
+          <t>5568.382</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,142 +1671,142 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>10.60</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>22.84</t>
+          <t>49.12</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>459.0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>139.5</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>-17.23</t>
-        </is>
-      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>104</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>5568</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-3.36</t>
+          <t>10.60</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-2.45</t>
+          <t>-1.74</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-2.48</t>
+          <t>-8.32</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>135.0</t>
+          <t>78.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>1199214241.0</t>
+          <t>2537463951.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>佳必琪</t>
+          <t>矽力*-KY</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1816,57 +1816,57 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>13.58</t>
+          <t>13.2</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>13.69</t>
+          <t>77.67</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>30.98%</t>
+          <t>55.38%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>14.42%</t>
+          <t>18.07%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>25.15</t>
+          <t>144.82</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>14528</t>
+          <t>177831</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>數據網路電信53.79%、智能連結產業39.82%、其他4.90%、物聯網系統1.48% (2024年)</t>
+          <t>積體電路(IC)99.45%、勞務0.55% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>佳必琪-電子零組件業-上市</t>
+          <t>矽力*-KY-半導體業-上市</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>半導體業右上</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>36.14</t>
+          <t>91.01</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1881,234 +1881,234 @@
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>** 通信網路 - 線材** 連接器 - 連接器設計、組裝及製造</t>
+          <t>** 半導體 - LED驅動IC、光源管理IC、電源管理IC</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6165</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3019.0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>70.55</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1221.698</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>41.8</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>15.80</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>49.1</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>4279</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>-22.12</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>186550.0</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>全譜</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>1256</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>49.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>39133564.0</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>浪凡</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>數位雲端</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>48.33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>25.57%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>1.84%</t>
+          <t>-107.88%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>33.77</t>
+          <t>31.94</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>3833</t>
+          <t>1299</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>直播平台營運99.63%、商品銷售0.37% (2024年)</t>
+          <t>底片型掃描器47.76%、生物醫學產品39.93%、智慧商務10.44%、建材及工程1.88% (2024年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>浪凡-數位雲端-上市</t>
+          <t>全譜-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>數位雲端右上</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>18.63</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -2123,29 +2123,29 @@
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>** 連接器 - 連接器設計、組裝及製造</t>
+          <t>** 電腦及週邊設備 - 印表機、傳真機、掃瞄器、多功能事務機、投影機** 建材營造 - 建材原料、機電工程、工程設計、工程承攬、裝潢業** 貿易百貨 - 貿易商、代理商、經銷商、零售通路** 醫療器材 - 生物檢測</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>5903</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>18760.376</t>
+          <t>530.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,107 +2155,107 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>28.42</t>
+          <t>49.58</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>201.5</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>46.85</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>11791</t>
+          <t>530</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -2265,92 +2265,92 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>933723304.0</t>
+          <t>174943.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>上海商銀</t>
+          <t>全家</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>居家生活</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>119.41</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>17.07</t>
+          <t>11.83</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>36.95%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.17%</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>12.38</t>
+          <t>15.77</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>230683</t>
+          <t>44979</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
+          <t>商品銷售92.12%、手續費5.63%、餐飲服務2.26% (2024年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>上海商銀-金融保險-上市</t>
+          <t>全家-居家生活-上櫃</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>居家生活右上</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>40.81</t>
+          <t>45.84</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 貿易百貨 - 零售通路</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5489</t>
+          <t>5876</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>184.0</t>
+          <t>18760.376</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,27 +2397,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>8.73</t>
+          <t>28.42</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>41.5</t>
+          <t>46.85</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2427,32 +2427,32 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>16.67</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2107</t>
+          <t>5941</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2462,42 +2462,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>214.0</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -2507,92 +2507,92 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>14882.0</t>
+          <t>933723304.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>彩富</t>
+          <t>上海商銀</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>20.84</t>
+          <t>16.87</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>38.43%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>11.45%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>28.21</t>
+          <t>12.33</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>5115</t>
+          <t>228009</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>安全監控系統91.23%、其他8.55%、機器視覺系統0.22% (2024年)</t>
+          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>彩富-其他電子業-上櫃</t>
+          <t>上海商銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>23.44</t>
+          <t>40.81</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2607,29 +2607,29 @@
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統** 平面顯示器 - 生產製程及檢測設備</t>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4174</t>
+          <t>5210</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>906.0</t>
+          <t>2667.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,17 +2639,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>8.86</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>57.15</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>28.25</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2669,174 +2669,174 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-30.53</t>
+          <t>-9.92</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>766</t>
+          <t>1183</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-2.84</t>
+          <t>9.83</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>-99.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>168.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>109856.0</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>寶碩</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>資訊服務業</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>72.98%</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>40.38%</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>25.95</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>2112</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>系統整合35.93%、維護服務34.05%、資訊傳輸24.42%、營業-投資3.34%、其他2.26% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>寶碩-資訊服務業-上櫃</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>資訊服務業平</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
           <t>9.0</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>42448.0</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>浩鼎</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>生技醫療業</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>-182.78%</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>-6,249.84%</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>78.4</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>12500</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>委託開發暨製造服務97.00%、專利權收入3.00% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>浩鼎-生技醫療業-上櫃</t>
-        </is>
-      </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>生技醫療業右下</t>
-        </is>
-      </c>
-      <c r="AS10" t="inlineStr">
-        <is>
-          <t>14.51</t>
-        </is>
-      </c>
       <c r="AT10" t="inlineStr">
         <is>
           <t>短增右下</t>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>** 製藥 - 原材料</t>
+          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務** 太陽能產業 - 太陽能發電設備/系統及系統工程</t>
         </is>
       </c>
     </row>
@@ -2911,17 +2911,17 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>25.62</t>
+          <t>24.45</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1342</t>
+          <t>1162</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2931,12 +2931,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-6.21</t>
+          <t>-5.33</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -3051,12 +3051,12 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>66.84</t>
+          <t>64.79</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1161</t>
+          <t>1143</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -3098,22 +3098,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2912</t>
+          <t>3293</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2177.694</t>
+          <t>2269.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3123,17 +3123,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>38.56</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>256.5</t>
+          <t>830.0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -3158,167 +3158,167 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>138</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2178</t>
+          <t>2269</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>14.28</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-2.12</t>
+          <t>-20.38</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>-2.61</t>
+          <t>-29.51</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>-10.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>157457648.0</t>
+          <t>6635318.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>統一超</t>
+          <t>鈊象</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>貿易百貨</t>
+          <t>文化創意業</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>82.86</t>
+          <t>17.96</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>23.11</t>
+          <t>25.82</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>34.39%</t>
+          <t>96.48%</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>3.43%</t>
+          <t>56.57%</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>28.38</t>
+          <t>107.26</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>266663</t>
+          <t>233896</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>便利商店(含海外子公司)77.94%、日用百貨買賣7.53%、餐飲業5.11%、宅配貨運3.98%、加油站3.11%、其他1.52%、物流0.81% (2024年)</t>
+          <t>授權55.64%、勞務37.86%、街機遊戲6.50% (2024年)</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>統一超-貿易百貨-上市</t>
+          <t>鈊象-文化創意業-上櫃</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>文化創意業平</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>40.67</t>
+          <t>58.13</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
@@ -3333,29 +3333,29 @@
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>** 貿易百貨 - 零售通路</t>
+          <t>** 休閒娛樂 - 線上遊戲業、設計開發、營運發行** 文化創意業 - 數位內容產業** 體驗科技 - 應用軟體/內容、培訓、會議、工作流程引導、地圖、遊戲、其他</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2753</t>
+          <t>3264</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2350.041</t>
+          <t>5325.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3365,27 +3365,27 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-2.92</t>
+          <t>-1.40</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>181.5</t>
+          <t>71.3</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3395,37 +3395,37 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>24</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1579</t>
+          <t>5325</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>-1.40</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -3435,17 +3435,17 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>-1.19</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -3455,17 +3455,17 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -3475,92 +3475,92 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>57619866.0</t>
+          <t>-16330.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>八方雲集</t>
+          <t>欣銓</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>觀光事業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>32.05</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>21.15</t>
+          <t>16.06</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>33.79%</t>
+          <t>27.50%</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>9.20%</t>
+          <t>16.47%</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>110.85</t>
+          <t>59.32</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>12729</t>
+          <t>34949</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>連鎖式餐飲店及連鎖加盟業者99.74%、授權0.26% (2024年)</t>
+          <t>晶圓測試69.93%、成品測試29.55%、其他0.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>八方雲集-觀光事業-上市</t>
+          <t>欣銓-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>觀光事業右上</t>
+          <t>半導體業右上</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>53.62</t>
+          <t>38.61</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
@@ -3575,174 +3575,174 @@
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>** 食品 - 加工食品、餐飲連鎖</t>
+          <t>** 半導體 - IC封裝測試</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3231</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>48435.407</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-0.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>100.5</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1,015</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>48435</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>-0.17</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>-2.59</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>-3.78</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
           <t>2025-04-15</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2466</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>9.78</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3440.116</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>8.42</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>58.16</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1.6</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>95.3</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>572</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>3427</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>8.28</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>8.29</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>-0.69</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>140.0</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>-12.0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>40</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>608389716.0</t>
+          <t>8875180851.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>冠西電</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
@@ -3752,57 +3752,57 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>102.71</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16.67</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>6.56%</t>
+          <t>8.09%</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>-25.76%</t>
+          <t>3.99%</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>73.07</t>
+          <t>86.58</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>17917</t>
+          <t>290891</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>商品銷售95.62%、能源及材料4.38% (2024年)</t>
+          <t>C電子產品96.14%、其他3.86% (2024年)</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>冠西電-光電業-上市</t>
+          <t>緯創-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>11.51</t>
+          <t>45.89</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
@@ -3817,29 +3817,29 @@
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>** 通信網路 - 主/被動元件** 其他 - 環保潔能服務產業、其他</t>
+          <t>** 電腦及週邊設備 - 筆記型電腦、桌上型電腦、其他電腦及週邊設備</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2393</t>
+          <t>3093</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1456.413</t>
+          <t>1094.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3849,27 +3849,27 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>-3.02</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>31.20</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>85.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3879,37 +3879,37 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>-9.4</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>1422</t>
+          <t>1094</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-1.42</t>
+          <t>-3.02</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -3919,37 +3919,37 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>165.0</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>61.0</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -3959,92 +3959,92 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>87612160.0</t>
+          <t>44736.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>億光</t>
+          <t>港建*</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>11.17</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>11.7</t>
+          <t>24.53</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>27.60%</t>
+          <t>37.34%</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>8.01%</t>
+          <t>20.35%</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>73.07</t>
+          <t>28.32</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>34452</t>
+          <t>3774</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>商品銷售98.80%、工程1.20% (2024年)</t>
+          <t>商品銷售87.92%、勞務12.08% (2024年)</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>億光-光電業-上市</t>
+          <t>港建*-其他電子業-上櫃</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>其他電子業右下</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>45.71</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>** 平面顯示器 - 背光源(發光二極體、冷陰極管)、顯示器模組** LED照明產業 - 封裝/模組、燈具/應用</t>
+          <t>** 半導體 - 生產製程及檢測設備** 印刷電路板 - 生產製程及檢測設備</t>
         </is>
       </c>
     </row>
@@ -4071,17 +4071,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2208</t>
+          <t>2912</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5815.269</t>
+          <t>2177.694</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -4091,17 +4091,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>25.48</t>
+          <t>38.56</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>17.7</t>
+          <t>256.5</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -4121,82 +4121,82 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>29</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>5815</t>
+          <t>1857</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>-2.12</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>-2.61</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>-95.0</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -4206,27 +4206,27 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>74450323.0</t>
+          <t>157457648.0</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>台船</t>
+          <t>統一超</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>貿易百貨</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
@@ -4236,57 +4236,57 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>82.86</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22.88</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>-41.12%</t>
+          <t>34.39%</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>-47.81%</t>
+          <t>3.43%</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>16.42</t>
+          <t>28.26</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>20506</t>
+          <t>264064</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>造船68.32%、機械20.74%、船艦維修7.65%、其他2.83%、防蝕塗裝0.46% (2024年)</t>
+          <t>便利商店(含海外子公司)77.94%、日用百貨買賣7.53%、餐飲業5.11%、宅配貨運3.98%、加油站3.11%、其他1.52%、物流0.81% (2024年)</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>台船-航運業-上市</t>
+          <t>統一超-貿易百貨-上市</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>貿易百貨右下</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>40.67</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
@@ -4301,174 +4301,174 @@
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>** 其他 - 其他** 風力發電 - 風場營造</t>
+          <t>** 貿易百貨 - 零售通路</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2905</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-0.36</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>635.715</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>13.9</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>636</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>-0.46</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>-0.65</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>-50.0</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
           <t>2025-04-15</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1806</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>5.66</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>5797.142</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>-1.44</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>22.93</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>11.05</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>5193</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>-15056952.0</t>
+          <t>-6910204.0</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>冠軍</t>
+          <t>三商</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>玻璃陶瓷</t>
+          <t>貿易百貨</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
@@ -4478,57 +4478,57 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>37.29</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>36.13</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>24.19%</t>
+          <t>-41.74%</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>-51.81%</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>46.82</t>
+          <t>28.26</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>15603</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
+          <t>個人健康險33.88%、個人壽險31.14%、民生用品及餐飲零售22.80%、個人傷害險3.29%、投資型保險2.82%、系統整合服務1.52%、維修及保養服務1.34%、金融自動化服務機器0.85%、團體險保費0.81%、原料藥(API)0.67%、中間體0.44%、萬能險0.41%、年金險0.02%、其他0.01% (2023年)</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>冠軍-玻璃陶瓷-上市</t>
+          <t>三商-貿易百貨-上市</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>貿易百貨右下</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>14.4</t>
+          <t>15.64</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
@@ -4543,247 +4543,1457 @@
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 貿易百貨 - 零售通路</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2753</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-0.55</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2350.041</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-2.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-0.66</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>181.5</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>967</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>-3.24</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>57619866.0</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>八方雲集</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>觀光事業</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>32.05</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>20.49</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>33.79%</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>9.20%</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>109.35</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>12329</t>
+        </is>
+      </c>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>連鎖式餐飲店及連鎖加盟業者99.74%、授權0.26% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>八方雲集-觀光事業-上市</t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>觀光事業右上</t>
+        </is>
+      </c>
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>53.62</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU18" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t>** 食品 - 加工食品、餐飲連鎖</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2466</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3440.116</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>24.54</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>95.3</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>12.17</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>14017</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>-0.69</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>-12.0</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>608389716.0</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>冠西電</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>6.56%</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>-25.76%</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>73.09</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>18603</t>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>商品銷售95.62%、能源及材料4.38% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>冠西電-光電業-上市</t>
+        </is>
+      </c>
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t>光電業右上</t>
+        </is>
+      </c>
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>11.51</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU19" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t>** 通信網路 - 主/被動元件** 其他 - 環保潔能服務產業、其他</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2231</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1049.282</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>1049</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>-1.65</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>-3.29</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>245773405.0</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>為升</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>汽車工業</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>31.32%</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>8.59%</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>12823</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>通訊設備及工程及其他51.67%、汽車安全件及系統24.44%、汽車電機開關23.89% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>為升-汽車工業-上市</t>
+        </is>
+      </c>
+      <c r="AR20" t="inlineStr">
+        <is>
+          <t>汽車工業右下</t>
+        </is>
+      </c>
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>30.48</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU20" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV20" t="inlineStr">
+        <is>
+          <t>** 汽車 - 整車組裝、修理及技術服務</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2208</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5815.269</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>17.7</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>-3.21</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>3971</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>-2.32</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>-65.0</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>74450323.0</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>台船</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>航運業</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>-41.12%</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>-47.81%</t>
+        </is>
+      </c>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>16.21</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>19869</t>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>造船68.32%、機械20.74%、船艦維修7.65%、其他2.83%、防蝕塗裝0.46% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>台船-航運業-上市</t>
+        </is>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>航運業右下</t>
+        </is>
+      </c>
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV21" t="inlineStr">
+        <is>
+          <t>** 其他 - 其他** 風力發電 - 風場營造</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1806</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5797.142</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-1.44</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>22.93</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>3793</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>-15056952.0</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>冠軍</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>36.29</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>24.19%</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>9.98%</t>
+        </is>
+      </c>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>47.12</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>4392</t>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>冠軍-玻璃陶瓷-上市</t>
+        </is>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷右上</t>
+        </is>
+      </c>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>14.4</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV22" t="inlineStr">
+        <is>
+          <t>** 建材營造 - 建材原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>2025-04-07</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>1806</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>4.19</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>13730.019</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>15.02</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>2.89</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>54.31</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>10.95</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>5193</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>3793</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
         <is>
           <t>0.76</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>0.45</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
         <is>
           <t>0.11</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>29.39</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>0.11</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="V23" t="inlineStr">
         <is>
           <t>-0.00</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
+      <c r="W23" t="inlineStr">
         <is>
           <t>65.0</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="X23" t="inlineStr">
         <is>
           <t>295.0</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
+      <c r="Y23" t="inlineStr">
         <is>
           <t>69.0</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
+      <c r="Z23" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="AA18" t="inlineStr">
+      <c r="AA23" t="inlineStr">
         <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
+      <c r="AB23" t="inlineStr">
         <is>
           <t>2025-04-02</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>2025-04-17</t>
-        </is>
-      </c>
-      <c r="AD18" t="inlineStr">
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
         <is>
           <t>69</t>
         </is>
       </c>
-      <c r="AE18" t="inlineStr">
+      <c r="AE23" t="inlineStr">
         <is>
           <t>248539095.0</t>
         </is>
       </c>
-      <c r="AF18" t="inlineStr">
+      <c r="AF23" t="inlineStr">
         <is>
           <t>冠軍</t>
         </is>
       </c>
-      <c r="AG18" t="inlineStr">
+      <c r="AG23" t="inlineStr">
         <is>
           <t>玻璃陶瓷</t>
         </is>
       </c>
-      <c r="AH18" t="inlineStr">
+      <c r="AH23" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI18" t="inlineStr">
-        <is>
-          <t>8.93</t>
-        </is>
-      </c>
-      <c r="AJ18" t="inlineStr">
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
         <is>
           <t>2.22</t>
         </is>
       </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>36.13</t>
-        </is>
-      </c>
-      <c r="AL18" t="inlineStr">
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>36.29</t>
+        </is>
+      </c>
+      <c r="AL23" t="inlineStr">
         <is>
           <t>24.19%</t>
         </is>
       </c>
-      <c r="AM18" t="inlineStr">
+      <c r="AM23" t="inlineStr">
         <is>
           <t>9.98%</t>
         </is>
       </c>
-      <c r="AN18" t="inlineStr">
-        <is>
-          <t>46.82</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>4373</t>
-        </is>
-      </c>
-      <c r="AP18" t="inlineStr">
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>47.12</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>4392</t>
+        </is>
+      </c>
+      <c r="AP23" t="inlineStr">
         <is>
           <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
-      <c r="AQ18" t="inlineStr">
+      <c r="AQ23" t="inlineStr">
         <is>
           <t>冠軍-玻璃陶瓷-上市</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr">
+      <c r="AR23" t="inlineStr">
         <is>
           <t>玻璃陶瓷右上</t>
         </is>
       </c>
-      <c r="AS18" t="inlineStr">
+      <c r="AS23" t="inlineStr">
         <is>
           <t>14.4</t>
         </is>
       </c>
-      <c r="AT18" t="inlineStr">
+      <c r="AT23" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AU18" t="inlineStr">
+      <c r="AU23" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AV18" t="inlineStr">
+      <c r="AV23" t="inlineStr">
         <is>
           <t>** 建材營造 - 建材原料</t>
         </is>

--- a/Result/check2.xlsx
+++ b/Result/check2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV23"/>
+  <dimension ref="A1:AV36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,22 +678,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8222</t>
+          <t>9958</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-2.24</t>
+          <t>-3.01</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24720.456</t>
+          <t>5493.361</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,107 +703,107 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-10.38</t>
+          <t>-3.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-3.93</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>18.78</t>
+          <t>18.30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>176.5</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>52.0</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>6.64</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>53</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>55784</t>
+          <t>5493</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-12.11</t>
+          <t>-3.68</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>-2.03</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>-4.22</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>94.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -813,32 +813,32 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>564124576.0</t>
+          <t>-781292086.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>寶一</t>
+          <t>世紀鋼</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -848,57 +848,57 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>13.33</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>37.38</t>
+          <t>25.77</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>23.89%</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>8.00%</t>
+          <t>5.87%</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>31.44</t>
+          <t>35.66</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3820</t>
+          <t>45342</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>航太零組件100.00% (2024年)</t>
+          <t>工程99.19%、商品及其他0.81% (2024年)</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>寶一-電機機械-上市</t>
+          <t>世紀鋼-鋼鐵工業-上市</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>49.43</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
@@ -913,29 +913,29 @@
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>** 電機機械 - 金屬加工處理</t>
+          <t>** 建材營造 - 工程承攬** 風力發電 - 塔架、電纜、其他配件</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8089</t>
+          <t>9939</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1115.0</t>
+          <t>1476.202</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,27 +945,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.41</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>27.63</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>155.5</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -980,167 +980,167 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>1476</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>-1.96</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>-2.97</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>1115</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>8.41</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>-2.25</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>-3.40</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>84.0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>2025-04-18</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>146557.0</t>
+          <t>-94553608.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>康全電訊</t>
+          <t>宏全</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>14.18</t>
+          <t>22.12</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>16.23</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>27.03%</t>
+          <t>19.59%</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>6.13%</t>
+          <t>8.01%</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>66.13</t>
+          <t>28.47</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>3637</t>
+          <t>45995</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>通訊設備99.57%、其他0.43% (2024年)</t>
+          <t>包裝材料67.38%、飲料(含充填及代工)29.16%、其他3.46% (2024年)</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>康全電訊-通信網路業-上櫃</t>
+          <t>宏全-其他-上市</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>其他右上</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>24.35</t>
+          <t>65.71</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
@@ -1155,29 +1155,29 @@
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>** 通信網路 - 網路設備(如數據機、網路卡、閘道器、路由器、網路電話)、光通訊設備(如光纖電纜、光傳輸設備)</t>
+          <t>** 石化及塑橡膠 - 塑膠製品</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8072</t>
+          <t>8222</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.97</t>
+          <t>-2.24</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9571.04</t>
+          <t>24720.456</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>11.66</t>
+          <t>-10.38</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>-3.93</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>39.77</t>
+          <t>18.78</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>31.6</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,72 +1217,72 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>12.71</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>75</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>13014</t>
+          <t>31646</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-6.63</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>189.0</t>
+          <t>-11.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>70.0</t>
+          <t>94.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1297,32 +1297,32 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>94</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>499367500.0</t>
+          <t>564124576.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>陞泰</t>
+          <t>寶一</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,47 +1342,47 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>28.96</t>
+          <t>37.58</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>15.01%</t>
+          <t>23.89%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>8.00%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>31.24</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>2896</t>
+          <t>3840</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>安全監控系統及電子材料100.00% (2024年)</t>
+          <t>航太零組件100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>陞泰-電子通路業-上市</t>
+          <t>寶一-電機機械-上市</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>28.56</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>** 其他 - 其他電子產品及電子服務產業</t>
+          <t>** 電機機械 - 金屬加工處理</t>
         </is>
       </c>
     </row>
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6933</t>
+          <t>8089</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>6.04</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>695.961</t>
+          <t>1115.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>8.41</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>27.56</t>
+          <t>6.52</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>179.5</t>
+          <t>62.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,37 +1459,37 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-4.91</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>1129</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>-7.45</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1499,32 +1499,32 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-7.64</t>
+          <t>-2.25</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-12.24</t>
+          <t>-3.40</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>173.0</t>
+          <t>84.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1544,87 +1544,87 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>222016874.0</t>
+          <t>146557.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>AMAX-KY</t>
+          <t>康全電訊</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>39.39</t>
+          <t>14.18</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>46.03</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>13.42%</t>
+          <t>27.03%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>4.38%</t>
+          <t>6.13%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>86.58</t>
+          <t>66.84</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>7537</t>
+          <t>3467</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>商品銷售98.73%、服務收入1.27% (2024年)</t>
+          <t>通訊設備99.57%、其他0.43% (2024年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>AMAX-KY-電腦及週邊設備業-上市</t>
+          <t>康全電訊-通信網路業-上櫃</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>52.07</t>
+          <t>24.35</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1639,29 +1639,29 @@
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>** 通信網路 - 網路設備(如數據機、網路卡、閘道器、路由器、網路電話)、光通訊設備(如光纖電纜、光傳輸設備)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6415</t>
+          <t>8072</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>9.97</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5568.382</t>
+          <t>9571.04</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10.60</t>
+          <t>11.66</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>49.12</t>
+          <t>39.77</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>459.0</t>
+          <t>31.6</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1701,77 +1701,77 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>20.6</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>34</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>5568</t>
+          <t>5742</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>10.60</t>
+          <t>10.10</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-1.74</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-8.32</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>189.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>70.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1781,32 +1781,32 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>70</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2537463951.0</t>
+          <t>499367500.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>矽力*-KY</t>
+          <t>陞泰</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1816,57 +1816,57 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>13.2</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>77.67</t>
+          <t>31.84</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>55.38%</t>
+          <t>15.01%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>18.07%</t>
+          <t>-0.15%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>144.82</t>
+          <t>15.11</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>177831</t>
+          <t>3184</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>積體電路(IC)99.45%、勞務0.55% (2024年)</t>
+          <t>安全監控系統及電子材料100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>矽力*-KY-半導體業-上市</t>
+          <t>陞泰-電子通路業-上市</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>半導體業右上</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>91.01</t>
+          <t>28.56</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1881,29 +1881,29 @@
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>** 半導體 - LED驅動IC、光源管理IC、電源管理IC</t>
+          <t>** 其他 - 其他電子產品及電子服務產業</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>8027</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9.61</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3019.0</t>
+          <t>978.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,202 +1913,202 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>70.55</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>78.2</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>41.8</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>978</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>-2.36</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>-3.95</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>127756.0</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>鈦昇</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>電機機械</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>16.32</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>4279</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>-22.12</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>48.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>96.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>2025-03-26</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>2025-04-18</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>186550.0</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>全譜</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>38.14%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>-107.88%</t>
+          <t>-6.83%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>31.94</t>
+          <t>69.91</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1299</t>
+          <t>8484</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>底片型掃描器47.76%、生物醫學產品39.93%、智慧商務10.44%、建材及工程1.88% (2024年)</t>
+          <t>自動化機械78.99%、半導體材料18.53%、軟性印刷電路板(FPC)2.49% (2024年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>全譜-電腦及週邊設備業-上櫃</t>
+          <t>鈦昇-電機機械-上櫃</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>10.57</t>
+          <t>26.66</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 印表機、傳真機、掃瞄器、多功能事務機、投影機** 建材營造 - 建材原料、機電工程、工程設計、工程承攬、裝潢業** 貿易百貨 - 貿易商、代理商、經銷商、零售通路** 醫療器材 - 生物檢測</t>
+          <t>** 半導體 - 生產製程及檢測設備、生產製程及檢測設備** 電機機械 - 專用機械(如紡織成衣生產用機械、食品飲料生產用機械、農林用機械等)</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2135,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5903</t>
+          <t>6933</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>530.0</t>
+          <t>695.961</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,27 +2155,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>49.58</t>
+          <t>27.56</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>201.5</t>
+          <t>179.5</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,37 +2185,37 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-10.8</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>1127</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>-3.40</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -2225,32 +2225,32 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>-7.64</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>-12.24</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>-95.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>173.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2265,92 +2265,92 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>174943.0</t>
+          <t>222016874.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>全家</t>
+          <t>AMAX-KY</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>居家生活</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>119.41</t>
+          <t>39.39</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>11.83</t>
+          <t>41.54</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>36.95%</t>
+          <t>13.42%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>2.17%</t>
+          <t>4.38%</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>15.77</t>
+          <t>88.11</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>44979</t>
+          <t>6802</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>商品銷售92.12%、手續費5.63%、餐飲服務2.26% (2024年)</t>
+          <t>商品銷售98.73%、服務收入1.27% (2024年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>全家-居家生活-上櫃</t>
+          <t>AMAX-KY-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>居家生活右上</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>45.84</t>
+          <t>52.07</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>** 貿易百貨 - 零售通路</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>6560</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>-6.7</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>18760.376</t>
+          <t>282.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,17 +2397,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>-6.05</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>28.42</t>
+          <t>11.51</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>46.85</t>
+          <t>31.35</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2427,77 +2427,77 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>5941</t>
+          <t>641</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>7.15</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>183.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -2507,92 +2507,92 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>74</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>933723304.0</t>
+          <t>18779.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>上海商銀</t>
+          <t>欣普羅</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>16.87</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40.47%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-16.85%</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>12.33</t>
+          <t>66.65</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>228009</t>
+          <t>891</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
+          <t>攝影機92.58%、其他7.42% (2024年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>上海商銀-金融保險-上市</t>
+          <t>欣普羅-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>光電業平</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>40.81</t>
+          <t>17.26</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2607,174 +2607,174 @@
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 電腦及週邊設備 - 安全監控系統</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2282.0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-0.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2282</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>-0.69</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>-0.37</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
           <t>2025-04-17</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>5210</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>9.03</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2667.0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>8.86</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>57.15</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>28.25</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>-9.92</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>1183</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>9.83</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>-0.70</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>168.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>2025-04-17</t>
-        </is>
-      </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>109856.0</t>
+          <t>100000.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>寶碩</t>
+          <t>長科*</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2784,57 +2784,57 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17.55</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>72.98%</t>
+          <t>23.62%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>40.38%</t>
+          <t>13.63%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>25.95</t>
+          <t>59.01</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>2112</t>
+          <t>33695</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>系統整合35.93%、維護服務34.05%、資訊傳輸24.42%、營業-投資3.34%、其他2.26% (2024年)</t>
+          <t>IC導線架72.10%、封膠樹脂18.82%、LED導線架7.14%、其他1.81%、投資0.12% (2024年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>寶碩-資訊服務業-上櫃</t>
+          <t>長科*-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>資訊服務業平</t>
+          <t>半導體業平</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>11.94</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2849,29 +2849,29 @@
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務** 太陽能產業 - 太陽能發電設備/系統及系統工程</t>
+          <t>** 半導體 - 導線架</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3297</t>
+          <t>6415</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>9.89</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2231.0</t>
+          <t>5568.382</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,27 +2881,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>13.51</t>
+          <t>10.60</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>16.97</t>
+          <t>49.12</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>23.95</t>
+          <t>459.0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2911,77 +2911,77 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>24.45</t>
+          <t>-7.24</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>151</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1162</t>
+          <t>4785</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-5.33</t>
+          <t>-4.28</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>-1.74</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>-8.32</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>125.0</t>
+          <t>78.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>87.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -2991,92 +2991,92 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>130342.0</t>
+          <t>2537463951.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>杭特</t>
+          <t>矽力*-KY</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>13.2</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>72.42</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>33.49%</t>
+          <t>55.38%</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>-25.64%</t>
+          <t>18.07%</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>64.79</t>
+          <t>144.02</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1143</t>
+          <t>165821</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
+          <t>積體電路(IC)99.45%、勞務0.55% (2024年)</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>杭特-光電業-上櫃</t>
+          <t>矽力*-KY-半導體業-上市</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>半導體業平</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>15.63</t>
+          <t>91.01</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
@@ -3091,29 +3091,29 @@
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
+          <t>** 半導體 - LED驅動IC、光源管理IC、電源管理IC</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3293</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>9.61</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2269.0</t>
+          <t>3019.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3123,202 +3123,202 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>70.55</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>41.8</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>17.55</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>0.15</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>8.85</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>830.0</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>186550.0</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>全譜</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>138</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>2269</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>14.28</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
+      <c r="AJ12" t="inlineStr">
         <is>
           <t>0.31</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>-20.38</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>-29.51</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>-10.0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>2025-04-17</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>2025-04-18</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>6635318.0</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>鈊象</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>文化創意業</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>17.96</t>
-        </is>
-      </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>25.82</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>96.48%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>56.57%</t>
+          <t>-107.88%</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>107.26</t>
+          <t>32.28</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>233896</t>
+          <t>1318</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>授權55.64%、勞務37.86%、街機遊戲6.50% (2024年)</t>
+          <t>底片型掃描器47.76%、生物醫學產品39.93%、智慧商務10.44%、建材及工程1.88% (2024年)</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>鈊象-文化創意業-上櫃</t>
+          <t>全譜-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>文化創意業平</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>58.13</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
@@ -3333,29 +3333,29 @@
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>** 休閒娛樂 - 線上遊戲業、設計開發、營運發行** 文化創意業 - 數位內容產業** 體驗科技 - 應用軟體/內容、培訓、會議、工作流程引導、地圖、遊戲、其他</t>
+          <t>** 電腦及週邊設備 - 印表機、傳真機、掃瞄器、多功能事務機、投影機** 建材營造 - 建材原料、機電工程、工程設計、工程承攬、裝潢業** 貿易百貨 - 貿易商、代理商、經銷商、零售通路** 醫療器材 - 生物檢測</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3264</t>
+          <t>6189</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-0.98</t>
+          <t>-1.11</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5325.0</t>
+          <t>824.654</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3365,19 +3365,19 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-1.40</t>
+          <t>-1.96</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>-0.40</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>1.95</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>8.93</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>71.3</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3400,67 +3400,67 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>5325</t>
+          <t>825</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-1.40</t>
+          <t>-1.96</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>-1.19</t>
+          <t>-3.08</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>67.0</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -3480,87 +3480,87 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>-16330.0</t>
+          <t>140701742.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>欣銓</t>
+          <t>豐藝</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>6.66</t>
+          <t>37.19</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>16.06</t>
+          <t>11.17</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>27.50%</t>
+          <t>7.09%</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>16.47%</t>
+          <t>2.71%</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>59.32</t>
+          <t>15.11</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>34949</t>
+          <t>15618</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>晶圓測試69.93%、成品測試29.55%、其他0.52% (2024年)</t>
+          <t>特定應用晶片31.63%、線性、分散式元件29.91%、影像處理IC19.12%、特定應用液晶面板產品14.64%、其他4.70% (2024年)</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>欣銓-半導體業-上櫃</t>
+          <t>豐藝-電子通路業-上市</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>半導體業右上</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>38.61</t>
+          <t>29.15</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>** 半導體 - IC封裝測試</t>
+          <t>** 半導體 - IC通路** 電腦及週邊設備 - 晶片組、面板、顯示器模組** 平面顯示器 - 面板、顯示器模組</t>
         </is>
       </c>
     </row>
@@ -3587,17 +3587,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>5903</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>48435.407</t>
+          <t>530.0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3607,27 +3607,27 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>33.25</t>
+          <t>49.58</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>100.5</t>
+          <t>201.5</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3637,32 +3637,32 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1,015</t>
+          <t>32</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>48435</t>
+          <t>617</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -3677,32 +3677,32 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>-2.59</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>-3.78</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>89.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -3717,92 +3717,92 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>8875180851.0</t>
+          <t>174943.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>緯創</t>
+          <t>全家</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>居家生活</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>102.71</t>
+          <t>119.41</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>16.67</t>
+          <t>12.09</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>8.09%</t>
+          <t>36.95%</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>3.99%</t>
+          <t>2.17%</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>86.58</t>
+          <t>15.84</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>290891</t>
+          <t>45983</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>C電子產品96.14%、其他3.86% (2024年)</t>
+          <t>商品銷售92.12%、手續費5.63%、餐飲服務2.26% (2024年)</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>緯創-電腦及週邊設備業-上市</t>
+          <t>全家-居家生活-上櫃</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>居家生活右上</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>45.89</t>
+          <t>45.84</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
@@ -3817,29 +3817,29 @@
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 筆記型電腦、桌上型電腦、其他電腦及週邊設備</t>
+          <t>** 貿易百貨 - 零售通路</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3093</t>
+          <t>5876</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1094.0</t>
+          <t>18760.376</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3849,17 +3849,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-3.02</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>31.20</t>
+          <t>28.42</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3869,7 +3869,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>46.85</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3879,77 +3879,77 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>1094</t>
+          <t>3703</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-3.02</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>165.0</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>61.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -3959,92 +3959,92 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>44736.0</t>
+          <t>933723304.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>港建*</t>
+          <t>上海商銀</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>24.53</t>
+          <t>16.87</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>37.34%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>20.35%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>28.32</t>
+          <t>12.36</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>3774</t>
+          <t>228009</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>商品銷售87.92%、勞務12.08% (2024年)</t>
+          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>港建*-其他電子業-上櫃</t>
+          <t>上海商銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>其他電子業右下</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>40.81</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
@@ -4059,234 +4059,234 @@
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>** 半導體 - 生產製程及檢測設備** 印刷電路板 - 生產製程及檢測設備</t>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>5481</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1301.0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-2.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>-2.55</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>-0.34</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>-0.74</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
           <t>2025-04-16</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2912</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2177.694</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>49337.0</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>新華</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>-0.31</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>38.56</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>256.5</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>-0.98</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>1857</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>-0.38</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>-2.12</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>-2.61</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>-95.0</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>22.0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>2025-04-16</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>2025-04-18</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>157457648.0</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>統一超</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>貿易百貨</t>
-        </is>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>82.86</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>22.88</t>
-        </is>
-      </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>34.39%</t>
+          <t>38.51%</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>3.43%</t>
+          <t>-45.33%</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>28.26</t>
+          <t>69.44</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>264064</t>
+          <t>2074</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>便利商店(含海外子公司)77.94%、日用百貨買賣7.53%、餐飲業5.11%、宅配貨運3.98%、加油站3.11%、其他1.52%、物流0.81% (2024年)</t>
+          <t>教材38.20%、權利金收入27.49%、租賃23.40%、教育服務6.22%、其他4.70% (2024年)</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>統一超-貿易百貨-上市</t>
+          <t>新華-其他-上櫃</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>其他右上</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>40.67</t>
+          <t>18.54</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>** 貿易百貨 - 零售通路</t>
+          <t>** 文化創意業 - 其他</t>
         </is>
       </c>
     </row>
@@ -4313,17 +4313,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2905</t>
+          <t>5210</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>635.715</t>
+          <t>2667.0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4333,17 +4333,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>8.86</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>57.15</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -4353,7 +4353,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>13.9</t>
+          <t>28.25</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -4363,72 +4363,72 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-5.81</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>1761</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>-0.87</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
           <t>0.89</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>168.0</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -4443,92 +4443,92 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>-6910204.0</t>
+          <t>109856.0</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>三商</t>
+          <t>寶碩</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>貿易百貨</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>37.29</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>9.79</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>-41.74%</t>
+          <t>72.98%</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>-51.81%</t>
+          <t>40.38%</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>28.26</t>
+          <t>26.22</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>15603</t>
+          <t>2194</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>個人健康險33.88%、個人壽險31.14%、民生用品及餐飲零售22.80%、個人傷害險3.29%、投資型保險2.82%、系統整合服務1.52%、維修及保養服務1.34%、金融自動化服務機器0.85%、團體險保費0.81%、原料藥(API)0.67%、中間體0.44%、萬能險0.41%、年金險0.02%、其他0.01% (2023年)</t>
+          <t>系統整合35.93%、維護服務34.05%、資訊傳輸24.42%、營業-投資3.34%、其他2.26% (2024年)</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>三商-貿易百貨-上市</t>
+          <t>寶碩-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>資訊服務業平</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>15.64</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
@@ -4543,29 +4543,29 @@
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>** 貿易百貨 - 零售通路</t>
+          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務** 太陽能產業 - 太陽能發電設備/系統及系統工程</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2753</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>9.89</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2350.041</t>
+          <t>2231.0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4575,27 +4575,27 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-2.92</t>
+          <t>13.51</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>16.97</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>181.5</t>
+          <t>23.95</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -4605,72 +4605,72 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>31.28</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>967</t>
+          <t>1951</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-3.24</t>
+          <t>9.25</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>125.0</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>87.0</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -4685,92 +4685,92 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>87</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>57619866.0</t>
+          <t>130342.0</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>八方雲集</t>
+          <t>杭特</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>觀光事業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>32.05</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>20.49</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>33.79%</t>
+          <t>33.49%</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>9.20%</t>
+          <t>-25.64%</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>109.35</t>
+          <t>66.65</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>12329</t>
+          <t>1256</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>連鎖式餐飲店及連鎖加盟業者99.74%、授權0.26% (2024年)</t>
+          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>八方雲集-觀光事業-上市</t>
+          <t>杭特-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>觀光事業右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>53.62</t>
+          <t>15.63</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
@@ -4785,29 +4785,29 @@
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>** 食品 - 加工食品、餐飲連鎖</t>
+          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2466</t>
+          <t>3293</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>9.78</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3440.116</t>
+          <t>2269.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4817,27 +4817,27 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>8.42</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>24.54</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>95.3</t>
+          <t>830.0</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -4847,72 +4847,72 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>12.17</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>66</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>14017</t>
+          <t>1573</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>8.28</t>
+          <t>14.28</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>11.62</t>
+          <t>-1.70</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>-20.38</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-29.51</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>140.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>-10.0</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -4927,92 +4927,92 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>608389716.0</t>
+          <t>6635318.0</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>冠西電</t>
+          <t>鈊象</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>文化創意業</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>17.96</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25.61</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>6.56%</t>
+          <t>96.48%</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>-25.76%</t>
+          <t>56.57%</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>73.09</t>
+          <t>107.89</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>18603</t>
+          <t>231923</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>商品銷售95.62%、能源及材料4.38% (2024年)</t>
+          <t>授權55.64%、勞務37.86%、街機遊戲6.50% (2024年)</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>冠西電-光電業-上市</t>
+          <t>鈊象-文化創意業-上櫃</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>文化創意業平</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>11.51</t>
+          <t>58.13</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
@@ -5027,7 +5027,7 @@
       </c>
       <c r="AV19" t="inlineStr">
         <is>
-          <t>** 通信網路 - 主/被動元件** 其他 - 環保潔能服務產業、其他</t>
+          <t>** 休閒娛樂 - 線上遊戲業、設計開發、營運發行** 文化創意業 - 數位內容產業** 體驗科技 - 應用軟體/內容、培訓、會議、工作流程引導、地圖、遊戲、其他</t>
         </is>
       </c>
     </row>
@@ -5039,17 +5039,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2231</t>
+          <t>3264</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1049.282</t>
+          <t>5325.0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -5059,27 +5059,27 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>-1.40</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>28.44</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>91.0</t>
+          <t>71.3</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -5089,74 +5089,74 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>4733</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>-1.83</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>-0.77</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>-1.19</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>1049</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>-1.65</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>-3.29</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>12.0</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>32.0</t>
-        </is>
-      </c>
       <c r="Z20" t="inlineStr">
         <is>
           <t>True</t>
@@ -5169,92 +5169,92 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>245773405.0</t>
+          <t>-16330.0</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>為升</t>
+          <t>欣銓</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>汽車工業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>10.45</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>16.04</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>31.32%</t>
+          <t>27.50%</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>8.59%</t>
+          <t>16.47%</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>18.47</t>
+          <t>59.01</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>12823</t>
+          <t>34900</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>通訊設備及工程及其他51.67%、汽車安全件及系統24.44%、汽車電機開關23.89% (2024年)</t>
+          <t>晶圓測試69.93%、成品測試29.55%、其他0.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>為升-汽車工業-上市</t>
+          <t>欣銓-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>汽車工業右下</t>
+          <t>半導體業右上</t>
         </is>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>30.48</t>
+          <t>38.61</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr">
@@ -5269,29 +5269,29 @@
       </c>
       <c r="AV20" t="inlineStr">
         <is>
-          <t>** 汽車 - 整車組裝、修理及技術服務</t>
+          <t>** 半導體 - IC封裝測試</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2208</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5815.269</t>
+          <t>48435.407</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -5301,17 +5301,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>25.48</t>
+          <t>33.25</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>17.7</t>
+          <t>100.5</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -5331,32 +5331,32 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>-3.21</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>1,284</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>3971</t>
+          <t>73075</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>-2.32</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -5366,37 +5366,37 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>-2.59</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>-3.78</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>89.0</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -5411,32 +5411,32 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>74450323.0</t>
+          <t>8875180851.0</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>台船</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
@@ -5446,57 +5446,57 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>102.71</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17.41</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>-41.12%</t>
+          <t>8.09%</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>-47.81%</t>
+          <t>3.99%</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>16.21</t>
+          <t>88.11</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>19869</t>
+          <t>303916</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>造船68.32%、機械20.74%、船艦維修7.65%、其他2.83%、防蝕塗裝0.46% (2024年)</t>
+          <t>C電子產品96.14%、其他3.86% (2024年)</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>台船-航運業-上市</t>
+          <t>緯創-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>45.89</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
@@ -5511,29 +5511,29 @@
       </c>
       <c r="AV21" t="inlineStr">
         <is>
-          <t>** 其他 - 其他** 風力發電 - 風場營造</t>
+          <t>** 電腦及週邊設備 - 筆記型電腦、桌上型電腦、其他電腦及週邊設備</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>3128</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5797.142</t>
+          <t>4886.0</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5543,17 +5543,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>22.93</t>
+          <t>53.69</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -5563,7 +5563,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>11.05</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -5573,62 +5573,62 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>24</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>3793</t>
+          <t>4886</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>-1.14</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>-1.76</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
@@ -5638,12 +5638,12 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -5653,92 +5653,92 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>-15056952.0</t>
+          <t>96531.0</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>冠軍</t>
+          <t>昇銳</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>玻璃陶瓷</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>36.29</t>
+          <t>15.98</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>24.19%</t>
+          <t>34.63%</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>12.41%</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>47.12</t>
+          <t>66.65</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>4392</t>
+          <t>1134</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
+          <t>倒車系統31.36%、數位影像錄放影機27.94%、攝影機25.19%、材料及其他5.78%、專案-材料及其他3.12%、專案-攝影機2.40%、專案-數位錄放影機2.08%、監視器1.26%、專案-倒車系統0.79%、專案-監視器0.08% (2024年)</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>冠軍-玻璃陶瓷-上市</t>
+          <t>昇銳-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>光電業右下</t>
         </is>
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>14.4</t>
+          <t>16.17</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
@@ -5753,247 +5753,3393 @@
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 電腦及週邊設備 - 磁碟儲存系統、安全監控系統** 平面顯示器 - 監視器/顯示器** 汽車 - 其他** 人工智慧 - 系統整合</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>3093</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1094.0</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-3.02</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>31.20</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>1.7</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>-0.38</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>-0.72</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>44736.0</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>港建*</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>其他電子業</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>24.95</t>
+        </is>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>37.34%</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>20.35%</t>
+        </is>
+      </c>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>28.45</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>3839</t>
+        </is>
+      </c>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t>商品銷售87.92%、勞務12.08% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr">
+        <is>
+          <t>港建*-其他電子業-上櫃</t>
+        </is>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t>其他電子業右下</t>
+        </is>
+      </c>
+      <c r="AS23" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV23" t="inlineStr">
+        <is>
+          <t>** 半導體 - 生產製程及檢測設備** 印刷電路板 - 生產製程及檢測設備</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3036</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2986.233</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-0.18</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2986</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>-0.18</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>-2.09</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>-3.23</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>1654621763.0</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>文曄</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>電子通路業</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>209.26</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>13.87</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>4.12%</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>1.61%</t>
+        </is>
+      </c>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>112832</t>
+        </is>
+      </c>
+      <c r="AP24" t="inlineStr">
+        <is>
+          <t>特定應用積體電路26.39%、特定應用標準產品-無線連接19.20%、特定應用標準產品-有線連接15.93%、類比IC12.39%、微元件積體電路6.11%、記憶體4.27%、分散式元件4.23%、其他3.95%、特定應用標準產品-其他3.23%、光電元件2.33%、被動元件1.89%、勞務0.08% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr">
+        <is>
+          <t>文曄-電子通路業-上市</t>
+        </is>
+      </c>
+      <c r="AR24" t="inlineStr">
+        <is>
+          <t>電子通路業平</t>
+        </is>
+      </c>
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t>82.21</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU24" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV24" t="inlineStr">
+        <is>
+          <t>** 半導體 - IC通路</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2912</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2177.694</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>-0.31</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>38.56</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>256.5</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>-0.2</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>-2.12</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>-2.61</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>157457648.0</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>統一超</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>貿易百貨</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>34.39%</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>3.43%</t>
+        </is>
+      </c>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>28.49</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>266143</t>
+        </is>
+      </c>
+      <c r="AP25" t="inlineStr">
+        <is>
+          <t>便利商店(含海外子公司)77.94%、日用百貨買賣7.53%、餐飲業5.11%、宅配貨運3.98%、加油站3.11%、其他1.52%、物流0.81% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ25" t="inlineStr">
+        <is>
+          <t>統一超-貿易百貨-上市</t>
+        </is>
+      </c>
+      <c r="AR25" t="inlineStr">
+        <is>
+          <t>貿易百貨右下</t>
+        </is>
+      </c>
+      <c r="AS25" t="inlineStr">
+        <is>
+          <t>40.67</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU25" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV25" t="inlineStr">
+        <is>
+          <t>** 貿易百貨 - 零售通路</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2905</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>-0.36</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>635.715</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>13.9</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>-0.36</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>-0.46</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>-0.65</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>-65.0</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>-6910204.0</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>三商</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>貿易百貨</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>37.29</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>-41.74%</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>-51.81%</t>
+        </is>
+      </c>
+      <c r="AN26" t="inlineStr">
+        <is>
+          <t>28.49</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>15547</t>
+        </is>
+      </c>
+      <c r="AP26" t="inlineStr">
+        <is>
+          <t>個人健康險33.88%、個人壽險31.14%、民生用品及餐飲零售22.80%、個人傷害險3.29%、投資型保險2.82%、系統整合服務1.52%、維修及保養服務1.34%、金融自動化服務機器0.85%、團體險保費0.81%、原料藥(API)0.67%、中間體0.44%、萬能險0.41%、年金險0.02%、其他0.01% (2023年)</t>
+        </is>
+      </c>
+      <c r="AQ26" t="inlineStr">
+        <is>
+          <t>三商-貿易百貨-上市</t>
+        </is>
+      </c>
+      <c r="AR26" t="inlineStr">
+        <is>
+          <t>貿易百貨右下</t>
+        </is>
+      </c>
+      <c r="AS26" t="inlineStr">
+        <is>
+          <t>15.64</t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU26" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV26" t="inlineStr">
+        <is>
+          <t>** 貿易百貨 - 零售通路</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2801</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>24935.239</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>17.7</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>24935</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>-0.13</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>-0.16</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>68841046.0</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>彰銀</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>金融保險</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN27" t="inlineStr">
+        <is>
+          <t>12.36</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>198342</t>
+        </is>
+      </c>
+      <c r="AP27" t="inlineStr">
+        <is>
+          <t>利息淨收益54.91%、透過損益按公允價值衡量之金22.21%、手續費淨收益16.42%、透過其他綜合損益按公允價值3.34%、兌換損益2.53%、其他利息以外淨收益0.68% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ27" t="inlineStr">
+        <is>
+          <t>彰銀-金融保險-上市</t>
+        </is>
+      </c>
+      <c r="AR27" t="inlineStr">
+        <is>
+          <t>金融保險平</t>
+        </is>
+      </c>
+      <c r="AS27" t="inlineStr">
+        <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="AT27" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU27" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV27" t="inlineStr">
+        <is>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2753</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>-0.55</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2350.041</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-2.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-0.66</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>181.5</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>57619866.0</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>八方雲集</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>觀光事業</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>32.05</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>33.79%</t>
+        </is>
+      </c>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>9.20%</t>
+        </is>
+      </c>
+      <c r="AN28" t="inlineStr">
+        <is>
+          <t>110.71</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>12296</t>
+        </is>
+      </c>
+      <c r="AP28" t="inlineStr">
+        <is>
+          <t>連鎖式餐飲店及連鎖加盟業者99.74%、授權0.26% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ28" t="inlineStr">
+        <is>
+          <t>八方雲集-觀光事業-上市</t>
+        </is>
+      </c>
+      <c r="AR28" t="inlineStr">
+        <is>
+          <t>觀光事業右上</t>
+        </is>
+      </c>
+      <c r="AS28" t="inlineStr">
+        <is>
+          <t>53.62</t>
+        </is>
+      </c>
+      <c r="AT28" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU28" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV28" t="inlineStr">
+        <is>
+          <t>** 食品 - 加工食品、餐飲連鎖</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2613</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3423.406</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>31.6</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>3423</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>-0.76</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>-1.22</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>-34533121.0</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>中櫃</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>航運業</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>37.62</t>
+        </is>
+      </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>17.27%</t>
+        </is>
+      </c>
+      <c r="AM29" t="inlineStr">
+        <is>
+          <t>11.12%</t>
+        </is>
+      </c>
+      <c r="AN29" t="inlineStr">
+        <is>
+          <t>16.41</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>4690</t>
+        </is>
+      </c>
+      <c r="AP29" t="inlineStr">
+        <is>
+          <t>碼頭87.83%、其他5.76%、貨櫃場5.63%、其他租賃業務0.77% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ29" t="inlineStr">
+        <is>
+          <t>中櫃-航運業-上市</t>
+        </is>
+      </c>
+      <c r="AR29" t="inlineStr">
+        <is>
+          <t>航運業右上</t>
+        </is>
+      </c>
+      <c r="AS29" t="inlineStr">
+        <is>
+          <t>23.76</t>
+        </is>
+      </c>
+      <c r="AT29" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU29" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV29" t="inlineStr">
+        <is>
+          <t>** 交通運輸及航運 - 貨櫃運輸集散及倉儲</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2466</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3440.116</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>24.54</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>95.3</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>13179</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>-6.58</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>-0.69</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>-12.0</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>608389716.0</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>冠西電</t>
+        </is>
+      </c>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>6.56%</t>
+        </is>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>-25.76%</t>
+        </is>
+      </c>
+      <c r="AN30" t="inlineStr">
+        <is>
+          <t>72.85</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>17832</t>
+        </is>
+      </c>
+      <c r="AP30" t="inlineStr">
+        <is>
+          <t>商品銷售95.62%、能源及材料4.38% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ30" t="inlineStr">
+        <is>
+          <t>冠西電-光電業-上市</t>
+        </is>
+      </c>
+      <c r="AR30" t="inlineStr">
+        <is>
+          <t>光電業右上</t>
+        </is>
+      </c>
+      <c r="AS30" t="inlineStr">
+        <is>
+          <t>11.51</t>
+        </is>
+      </c>
+      <c r="AT30" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU30" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV30" t="inlineStr">
+        <is>
+          <t>** 通信網路 - 主/被動元件** 其他 - 環保潔能服務產業、其他</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2425</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3435.79</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>3436</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>-0.72</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>-1.16</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>-50.0</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>135248945.0</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>承啟</t>
+        </is>
+      </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="AL31" t="inlineStr">
+        <is>
+          <t>6.66%</t>
+        </is>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>-1.54%</t>
+        </is>
+      </c>
+      <c r="AN31" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>3421</t>
+        </is>
+      </c>
+      <c r="AP31" t="inlineStr">
+        <is>
+          <t>消費性產品51.06%、AI伺服器及商品47.23%、服務收入1.49%、勞務0.21% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ31" t="inlineStr">
+        <is>
+          <t>承啟-電腦及週邊設備業-上市</t>
+        </is>
+      </c>
+      <c r="AR31" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業右下</t>
+        </is>
+      </c>
+      <c r="AS31" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="AT31" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU31" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV31" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 主機板、顯示卡、伺服器、其他電腦及週邊設備</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2404</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>-0.11</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1796.568</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-1.50</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>458.0</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>1797</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>-0.36</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>-1326107309.0</t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>漢唐</t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>其他電子業</t>
+        </is>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>67.04</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="AL32" t="inlineStr">
+        <is>
+          <t>20.67%</t>
+        </is>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>16.86%</t>
+        </is>
+      </c>
+      <c r="AN32" t="inlineStr">
+        <is>
+          <t>37.05</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>87288</t>
+        </is>
+      </c>
+      <c r="AP32" t="inlineStr">
+        <is>
+          <t>工程99.46%、商品銷售0.30%、勞務及設計0.24% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ32" t="inlineStr">
+        <is>
+          <t>漢唐-其他電子業-上市</t>
+        </is>
+      </c>
+      <c r="AR32" t="inlineStr">
+        <is>
+          <t>其他電子業右上</t>
+        </is>
+      </c>
+      <c r="AS32" t="inlineStr">
+        <is>
+          <t>78.08</t>
+        </is>
+      </c>
+      <c r="AT32" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU32" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV32" t="inlineStr">
+        <is>
+          <t>** 其他 - 其他電子產品及電子服務產業</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2231</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1049.282</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>-2.25</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>758</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>-2.92</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>-1.65</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>-3.29</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>245773405.0</t>
+        </is>
+      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>為升</t>
+        </is>
+      </c>
+      <c r="AG33" t="inlineStr">
+        <is>
+          <t>汽車工業</t>
+        </is>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>26.41</t>
+        </is>
+      </c>
+      <c r="AL33" t="inlineStr">
+        <is>
+          <t>31.32%</t>
+        </is>
+      </c>
+      <c r="AM33" t="inlineStr">
+        <is>
+          <t>8.59%</t>
+        </is>
+      </c>
+      <c r="AN33" t="inlineStr">
+        <is>
+          <t>18.45</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>12542</t>
+        </is>
+      </c>
+      <c r="AP33" t="inlineStr">
+        <is>
+          <t>通訊設備及工程及其他51.67%、汽車安全件及系統24.44%、汽車電機開關23.89% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ33" t="inlineStr">
+        <is>
+          <t>為升-汽車工業-上市</t>
+        </is>
+      </c>
+      <c r="AR33" t="inlineStr">
+        <is>
+          <t>汽車工業右下</t>
+        </is>
+      </c>
+      <c r="AS33" t="inlineStr">
+        <is>
+          <t>30.48</t>
+        </is>
+      </c>
+      <c r="AT33" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV33" t="inlineStr">
+        <is>
+          <t>** 汽車 - 整車組裝、修理及技術服務</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2208</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5815.269</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>17.7</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>-3.81</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>1472</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>-0.58</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>-65.0</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>74450323.0</t>
+        </is>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>台船</t>
+        </is>
+      </c>
+      <c r="AG34" t="inlineStr">
+        <is>
+          <t>航運業</t>
+        </is>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL34" t="inlineStr">
+        <is>
+          <t>-41.12%</t>
+        </is>
+      </c>
+      <c r="AM34" t="inlineStr">
+        <is>
+          <t>-47.81%</t>
+        </is>
+      </c>
+      <c r="AN34" t="inlineStr">
+        <is>
+          <t>16.41</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>19753</t>
+        </is>
+      </c>
+      <c r="AP34" t="inlineStr">
+        <is>
+          <t>造船68.32%、機械20.74%、船艦維修7.65%、其他2.83%、防蝕塗裝0.46% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ34" t="inlineStr">
+        <is>
+          <t>台船-航運業-上市</t>
+        </is>
+      </c>
+      <c r="AR34" t="inlineStr">
+        <is>
+          <t>航運業右下</t>
+        </is>
+      </c>
+      <c r="AS34" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="AT34" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV34" t="inlineStr">
+        <is>
+          <t>** 其他 - 其他** 風力發電 - 風場營造</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1806</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5797.142</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>-1.44</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>22.93</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>10355</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>-5.72</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>-15056952.0</t>
+        </is>
+      </c>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>冠軍</t>
+        </is>
+      </c>
+      <c r="AG35" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷</t>
+        </is>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="AL35" t="inlineStr">
+        <is>
+          <t>24.19%</t>
+        </is>
+      </c>
+      <c r="AM35" t="inlineStr">
+        <is>
+          <t>9.98%</t>
+        </is>
+      </c>
+      <c r="AN35" t="inlineStr">
+        <is>
+          <t>46.77</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="AP35" t="inlineStr">
+        <is>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ35" t="inlineStr">
+        <is>
+          <t>冠軍-玻璃陶瓷-上市</t>
+        </is>
+      </c>
+      <c r="AR35" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷右上</t>
+        </is>
+      </c>
+      <c r="AS35" t="inlineStr">
+        <is>
+          <t>14.4</t>
+        </is>
+      </c>
+      <c r="AT35" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU35" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV35" t="inlineStr">
+        <is>
+          <t>** 建材營造 - 建材原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
           <t>2025-04-07</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>1806</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>4.19</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>13730.019</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>15.02</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>2.89</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>54.31</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>10.95</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>3793</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>10355</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
         <is>
           <t>0.76</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="P36" t="inlineStr">
         <is>
           <t>0.45</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>-5.72</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
         <is>
           <t>0.11</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="S36" t="inlineStr">
         <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="T36" t="inlineStr">
         <is>
           <t>29.39</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="U36" t="inlineStr">
         <is>
           <t>0.11</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr">
+      <c r="V36" t="inlineStr">
         <is>
           <t>-0.00</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
         <is>
           <t>295.0</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr">
+      <c r="Y36" t="inlineStr">
         <is>
           <t>69.0</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
+      <c r="Z36" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="AA23" t="inlineStr">
+      <c r="AA36" t="inlineStr">
         <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
+      <c r="AB36" t="inlineStr">
         <is>
           <t>2025-04-02</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>2025-04-18</t>
-        </is>
-      </c>
-      <c r="AD23" t="inlineStr">
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="AD36" t="inlineStr">
         <is>
           <t>69</t>
         </is>
       </c>
-      <c r="AE23" t="inlineStr">
+      <c r="AE36" t="inlineStr">
         <is>
           <t>248539095.0</t>
         </is>
       </c>
-      <c r="AF23" t="inlineStr">
+      <c r="AF36" t="inlineStr">
         <is>
           <t>冠軍</t>
         </is>
       </c>
-      <c r="AG23" t="inlineStr">
+      <c r="AG36" t="inlineStr">
         <is>
           <t>玻璃陶瓷</t>
         </is>
       </c>
-      <c r="AH23" t="inlineStr">
+      <c r="AH36" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI23" t="inlineStr">
-        <is>
-          <t>8.89</t>
-        </is>
-      </c>
-      <c r="AJ23" t="inlineStr">
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="AJ36" t="inlineStr">
         <is>
           <t>2.22</t>
         </is>
       </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>36.29</t>
-        </is>
-      </c>
-      <c r="AL23" t="inlineStr">
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="AL36" t="inlineStr">
         <is>
           <t>24.19%</t>
         </is>
       </c>
-      <c r="AM23" t="inlineStr">
+      <c r="AM36" t="inlineStr">
         <is>
           <t>9.98%</t>
         </is>
       </c>
-      <c r="AN23" t="inlineStr">
-        <is>
-          <t>47.12</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>4392</t>
-        </is>
-      </c>
-      <c r="AP23" t="inlineStr">
+      <c r="AN36" t="inlineStr">
+        <is>
+          <t>46.77</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="AP36" t="inlineStr">
         <is>
           <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
-      <c r="AQ23" t="inlineStr">
+      <c r="AQ36" t="inlineStr">
         <is>
           <t>冠軍-玻璃陶瓷-上市</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr">
+      <c r="AR36" t="inlineStr">
         <is>
           <t>玻璃陶瓷右上</t>
         </is>
       </c>
-      <c r="AS23" t="inlineStr">
+      <c r="AS36" t="inlineStr">
         <is>
           <t>14.4</t>
         </is>
       </c>
-      <c r="AT23" t="inlineStr">
+      <c r="AT36" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AU23" t="inlineStr">
+      <c r="AU36" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AV23" t="inlineStr">
+      <c r="AV36" t="inlineStr">
         <is>
           <t>** 建材營造 - 建材原料</t>
         </is>
